--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD9653-E1FC-454F-9147-20FC42BE4DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB6362-BEDF-42D9-99F4-22BE0B8CD816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="578">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -811,9 +811,6 @@
     <t>105</t>
   </si>
   <si>
-    <t>Pot_Water</t>
-  </si>
-  <si>
     <t>Shop/Props/Pot_Water</t>
   </si>
   <si>
@@ -1630,6 +1627,185 @@
   </si>
   <si>
     <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>一个下巴？\r\n&lt;color=#00ff00&gt;+2肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n看起来令人毛骨悚然</t>
+  </si>
+  <si>
+    <t>正在哭泣的红心\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n她看起来好可怜</t>
+  </si>
+  <si>
+    <t>牵引金币的磁铁\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;金币&lt;/color&gt;了\r\n但是相互作用力之下，我的速度也收到了影响</t>
+  </si>
+  <si>
+    <t>吸收阳光的黑洞\r\n&lt;color=#ff0000&gt;-4植物学&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;阳光&lt;/color&gt;了\r\n植物好像非常害怕它</t>
+  </si>
+  <si>
+    <t>金属盘子\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n可以用来干饭</t>
+  </si>
+  <si>
+    <t>长牙齿的咽喉？\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5生命恢复&lt;/color&gt;\r\n看起来更像一条蛇</t>
+  </si>
+  <si>
+    <t>小海菇的帽子\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3最大生命值&lt;/color&gt;\r\n可以好好研究一下</t>
+  </si>
+  <si>
+    <t>阳光菇帽子\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n可以好好研究一下</t>
+  </si>
+  <si>
+    <t>戴夫的胡须\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n这是我的胡子</t>
+  </si>
+  <si>
+    <t>眼镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n戴上后视野会变得清晰</t>
+  </si>
+  <si>
+    <t>叶子\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n不知道属于哪个植物</t>
+  </si>
+  <si>
+    <t>小花\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n看起来很眼熟</t>
+  </si>
+  <si>
+    <t>肥料\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n应该能帮到植物们</t>
+  </si>
+  <si>
+    <t>车钥匙\r\n&lt;color=#9932CD&gt;可以免费刷新一次商品&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>钱袋\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n里面能装不少钱</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;钻石&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n亮闪亮闪的很漂亮</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;葵花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n向日葵的花瓣，不知道有没有葵花籽</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;篮子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n好像是某个投手的投射器</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;耙子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n这件兵器很趁手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;水壶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n对植物们很有帮助</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;小丑礼盒&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n一个会爆炸的礼盒，我得小心收藏</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一朵水花？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n哪个跳水队都比不过这一朵</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一卷草皮？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n铺开躺上去一定很舒服</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一根地刺&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n都不想踩在上面</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;蜗牛&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n应该对植物有所帮助，跑得太慢了</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;杀虫剂&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6生命恢复&lt;/color&gt;\r\n气味很难闻，可以帮助植物对抗虫子</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;铲子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以铲掉花园中的泥土，放置花盆</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;卡槽&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以增加出战植物的上限</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;书&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15植物学&lt;/color&gt;\r\n可以学到许多知识</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;奖杯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n荣誉的象征</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;三明治&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n看起来很好吃</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一把锁&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n可以对准</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;留声机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3护甲&lt;/color&gt;\r\n听听音乐放松一下</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;冰镇西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n吃太多会拉肚子</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n肚子都要被撑爆了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;水花盆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n可以在上面种荷叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;金盏花瓣&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n看看她是这么产生金币的</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;智慧树肥料&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n这个好</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;篮球&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n听说鸽鸽很会玩这个</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n并且对某直线上的僵尸造成{0}\r\n伤害冷却时间{1}</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;铁桶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自铁桶僵尸的战利品，但是会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;路障&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自路障僵尸的战利品，但是会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;铁栅栏&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8速度&lt;/color&gt;\r\n来自铁栅栏僵尸的战利品，会影响到我正常走路</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;报纸&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3力量&lt;/color&gt;\r\n来自读报僵尸的战利品，里面蕴含的知识可真不少</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;扶梯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6攻击速度&lt;/color&gt;\r\n来自扶梯僵尸的战利品，能攻击到更远的地方了</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;橄榄球头盔&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20范围&lt;/color&gt;\r\n来自橄榄球僵尸的战利品，会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;路牌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n来自巨人僵尸的战利品，这么重的玩意儿太影响我的移动速度了</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;推土车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;&lt;/color&gt;\r\n能托运泥土，锻炼身体，但是老了推不太动</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;冰碎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10攻击速度&lt;/color&gt;\r\n看起来就很冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;火焰&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15攻击速度&lt;/color&gt;\r\n自身每秒&lt;color=#ff0000&gt;{0}生命值&lt;/color&gt;\r\n火焰正在燃烧</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;传送门&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10幸运&lt;/color&gt;\r\n可在场上随机位置生成两个传送门，这很酷\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;雾机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n有概率产生雾，免疫远程攻击\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;灯光机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击率&lt;/color&gt;\r\n有灯光才有气氛\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;麦克风&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5力量&lt;/color&gt;\r\n使我变成大明星\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;音响&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n使我的声音传的更远\r\n</t>
+  </si>
+  <si>
+    <t>Pot_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2166,7 +2342,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2200,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2215,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2226,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2241,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2252,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2267,7 +2443,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2278,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2293,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2304,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2319,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -2330,7 +2506,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2345,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -2356,7 +2532,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2371,7 +2547,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -2385,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2400,7 +2576,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -2414,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2429,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -2443,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2458,7 +2634,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -2472,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2487,7 +2663,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -2501,7 +2677,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2516,7 +2692,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -2530,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2545,7 +2721,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H16">
         <v>13</v>
@@ -2559,7 +2735,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2574,7 +2750,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H17">
         <v>14</v>
@@ -2588,7 +2764,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2603,7 +2779,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -2617,7 +2793,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2632,7 +2808,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H19">
         <v>16</v>
@@ -2646,7 +2822,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2661,7 +2837,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H20">
         <v>17</v>
@@ -2675,7 +2851,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2690,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H21">
         <v>18</v>
@@ -2704,7 +2880,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2719,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H22">
         <v>19</v>
@@ -2733,7 +2909,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2748,7 +2924,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -2762,7 +2938,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -2777,7 +2953,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H24">
         <v>21</v>
@@ -2791,7 +2967,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -2806,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H25">
         <v>22</v>
@@ -2820,7 +2996,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -2835,7 +3011,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H26">
         <v>23</v>
@@ -2849,7 +3025,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -2864,7 +3040,7 @@
         <v>44</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H27">
         <v>24</v>
@@ -2878,7 +3054,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2893,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H28">
         <v>25</v>
@@ -2907,7 +3083,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -2922,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H29">
         <v>26</v>
@@ -2936,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -2951,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -2965,7 +3141,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -2980,7 +3156,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -2994,7 +3170,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -3009,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H32">
         <v>29</v>
@@ -3023,7 +3199,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -3038,7 +3214,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -3052,7 +3228,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -3067,7 +3243,7 @@
         <v>54</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H34">
         <v>31</v>
@@ -3081,7 +3257,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -3096,7 +3272,7 @@
         <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -3110,7 +3286,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -3125,7 +3301,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -3139,7 +3315,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -3154,7 +3330,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H37">
         <v>34</v>
@@ -3168,7 +3344,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -3183,7 +3359,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H38">
         <v>35</v>
@@ -3197,7 +3373,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -3212,7 +3388,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H39">
         <v>36</v>
@@ -3226,7 +3402,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -3241,7 +3417,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H40">
         <v>37</v>
@@ -3255,7 +3431,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -3270,7 +3446,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H41">
         <v>38</v>
@@ -3284,7 +3460,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -3299,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H42">
         <v>39</v>
@@ -3947,10 +4123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3965,17 +4141,19 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57.125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s">
         <v>74</v>
@@ -3984,30 +4162,30 @@
         <v>77</v>
       </c>
       <c r="F1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" t="s">
         <v>325</v>
       </c>
-      <c r="G1" t="s">
-        <v>326</v>
-      </c>
       <c r="H1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" t="s">
         <v>328</v>
       </c>
-      <c r="I1" t="s">
-        <v>329</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" t="s">
         <v>316</v>
-      </c>
-      <c r="C2" t="s">
-        <v>317</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
@@ -4016,22 +4194,22 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -4063,7 +4241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4077,7 +4255,7 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F4" t="s">
         <v>166</v>
@@ -4092,10 +4270,13 @@
         <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="L4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4109,7 +4290,7 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
         <v>166</v>
@@ -4124,10 +4305,13 @@
         <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="L5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4141,7 +4325,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F6" t="s">
         <v>166</v>
@@ -4156,10 +4340,13 @@
         <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="L6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4173,7 +4360,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F7" t="s">
         <v>166</v>
@@ -4188,10 +4375,13 @@
         <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="L7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4205,7 +4395,7 @@
         <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
         <v>166</v>
@@ -4220,10 +4410,13 @@
         <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="L8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4237,7 +4430,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F9" t="s">
         <v>166</v>
@@ -4252,10 +4445,13 @@
         <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="L9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4269,7 +4465,7 @@
         <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
         <v>166</v>
@@ -4284,10 +4480,13 @@
         <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="L10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4301,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F11" t="s">
         <v>166</v>
@@ -4316,10 +4515,13 @@
         <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="L11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4333,7 +4535,7 @@
         <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F12" t="s">
         <v>166</v>
@@ -4348,10 +4550,13 @@
         <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="L12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4365,7 +4570,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
         <v>166</v>
@@ -4380,10 +4585,13 @@
         <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="L13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4397,7 +4605,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F14" t="s">
         <v>166</v>
@@ -4412,10 +4620,13 @@
         <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="L14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4429,7 +4640,7 @@
         <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F15" t="s">
         <v>166</v>
@@ -4444,10 +4655,13 @@
         <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="L15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4461,7 +4675,7 @@
         <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F16" t="s">
         <v>166</v>
@@ -4476,10 +4690,13 @@
         <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="L16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4493,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F17" t="s">
         <v>166</v>
@@ -4508,10 +4725,13 @@
         <v>40</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="L17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4525,7 +4745,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F18" t="s">
         <v>166</v>
@@ -4540,10 +4760,13 @@
         <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="L18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4557,7 +4780,7 @@
         <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F19" t="s">
         <v>203</v>
@@ -4572,10 +4795,13 @@
         <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="L19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4589,7 +4815,7 @@
         <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F20" t="s">
         <v>203</v>
@@ -4604,10 +4830,13 @@
         <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="L20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4621,7 +4850,7 @@
         <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F21" t="s">
         <v>203</v>
@@ -4636,10 +4865,13 @@
         <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="L21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4653,7 +4885,7 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F22" t="s">
         <v>203</v>
@@ -4668,10 +4900,13 @@
         <v>40</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="L22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4685,7 +4920,7 @@
         <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F23" t="s">
         <v>203</v>
@@ -4700,10 +4935,13 @@
         <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="L23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4717,7 +4955,7 @@
         <v>216</v>
       </c>
       <c r="E24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F24" t="s">
         <v>203</v>
@@ -4732,10 +4970,13 @@
         <v>40</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="L24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4749,7 +4990,7 @@
         <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F25" t="s">
         <v>203</v>
@@ -4764,10 +5005,13 @@
         <v>40</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="L25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -4781,7 +5025,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F26" t="s">
         <v>203</v>
@@ -4796,10 +5040,13 @@
         <v>40</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="L26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -4813,7 +5060,7 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F27" t="s">
         <v>203</v>
@@ -4828,10 +5075,13 @@
         <v>40</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="L27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -4845,7 +5095,7 @@
         <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F28" t="s">
         <v>203</v>
@@ -4860,10 +5110,13 @@
         <v>40</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="L28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -4877,7 +5130,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F29" t="s">
         <v>203</v>
@@ -4892,10 +5145,13 @@
         <v>40</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="L29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -4909,7 +5165,7 @@
         <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F30" t="s">
         <v>203</v>
@@ -4924,10 +5180,13 @@
         <v>40</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="L30" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -4941,7 +5200,7 @@
         <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F31" t="s">
         <v>203</v>
@@ -4956,10 +5215,13 @@
         <v>40</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="L31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -4973,7 +5235,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F32" t="s">
         <v>203</v>
@@ -4988,10 +5250,13 @@
         <v>40</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="L32" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5005,7 +5270,7 @@
         <v>205</v>
       </c>
       <c r="E33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F33" t="s">
         <v>203</v>
@@ -5020,10 +5285,13 @@
         <v>40</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="L33" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5037,7 +5305,7 @@
         <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F34" t="s">
         <v>203</v>
@@ -5052,10 +5320,13 @@
         <v>40</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="L34" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -5069,7 +5340,7 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F35" t="s">
         <v>203</v>
@@ -5084,10 +5355,13 @@
         <v>40</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="L35" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -5101,7 +5375,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F36" t="s">
         <v>203</v>
@@ -5116,10 +5390,13 @@
         <v>40</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="L36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -5133,7 +5410,7 @@
         <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F37" t="s">
         <v>246</v>
@@ -5148,10 +5425,13 @@
         <v>40</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="L37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -5165,7 +5445,7 @@
         <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F38" t="s">
         <v>246</v>
@@ -5180,24 +5460,27 @@
         <v>40</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="L38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>577</v>
+      </c>
+      <c r="C39" t="s">
         <v>250</v>
-      </c>
-      <c r="C39" t="s">
-        <v>251</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F39" t="s">
         <v>246</v>
@@ -5212,24 +5495,27 @@
         <v>40</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="L39" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" t="s">
         <v>252</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>253</v>
       </c>
-      <c r="D40" t="s">
-        <v>254</v>
-      </c>
       <c r="E40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F40" t="s">
         <v>246</v>
@@ -5244,24 +5530,27 @@
         <v>40</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="L40" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" t="s">
         <v>255</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>256</v>
       </c>
-      <c r="D41" t="s">
-        <v>257</v>
-      </c>
       <c r="E41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F41" t="s">
         <v>246</v>
@@ -5276,24 +5565,27 @@
         <v>40</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="L41" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" t="s">
         <v>258</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>259</v>
       </c>
-      <c r="D42" t="s">
-        <v>260</v>
-      </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F42" t="s">
         <v>246</v>
@@ -5308,24 +5600,27 @@
         <v>40</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="L42" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
         <v>261</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>262</v>
       </c>
-      <c r="D43" t="s">
-        <v>263</v>
-      </c>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F43" t="s">
         <v>246</v>
@@ -5340,24 +5635,27 @@
         <v>40</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="L43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" t="s">
         <v>264</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>265</v>
       </c>
-      <c r="D44" t="s">
-        <v>266</v>
-      </c>
       <c r="E44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F44" t="s">
         <v>246</v>
@@ -5366,30 +5664,33 @@
         <v>166</v>
       </c>
       <c r="H44" t="s">
+        <v>266</v>
+      </c>
+      <c r="I44" t="s">
         <v>267</v>
       </c>
-      <c r="I44" t="s">
-        <v>268</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="L44" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" t="s">
         <v>269</v>
-      </c>
-      <c r="C45" t="s">
-        <v>270</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F45" t="s">
         <v>246</v>
@@ -5404,24 +5705,27 @@
         <v>40</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="L45" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" t="s">
         <v>271</v>
-      </c>
-      <c r="C46" t="s">
-        <v>272</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F46" t="s">
         <v>246</v>
@@ -5436,24 +5740,27 @@
         <v>40</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="L46" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" t="s">
         <v>273</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>274</v>
       </c>
-      <c r="D47" t="s">
-        <v>275</v>
-      </c>
       <c r="E47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F47" t="s">
         <v>246</v>
@@ -5468,24 +5775,27 @@
         <v>40</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="L47" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" t="s">
         <v>276</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>277</v>
       </c>
-      <c r="D48" t="s">
-        <v>278</v>
-      </c>
       <c r="E48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F48" t="s">
         <v>246</v>
@@ -5500,24 +5810,27 @@
         <v>40</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="L48" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" t="s">
         <v>279</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>280</v>
       </c>
-      <c r="D49" t="s">
-        <v>281</v>
-      </c>
       <c r="E49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F49" t="s">
         <v>246</v>
@@ -5532,24 +5845,27 @@
         <v>40</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="L49" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" t="s">
         <v>282</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>283</v>
       </c>
-      <c r="D50" t="s">
-        <v>284</v>
-      </c>
       <c r="E50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F50" t="s">
         <v>246</v>
@@ -5564,24 +5880,27 @@
         <v>40</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="L50" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" t="s">
         <v>285</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>286</v>
       </c>
-      <c r="D51" t="s">
-        <v>287</v>
-      </c>
       <c r="E51" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F51" t="s">
         <v>246</v>
@@ -5596,24 +5915,27 @@
         <v>40</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="L51" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" t="s">
         <v>288</v>
       </c>
-      <c r="C52" t="s">
-        <v>289</v>
-      </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F52" t="s">
         <v>246</v>
@@ -5628,28 +5950,31 @@
         <v>40</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="L52" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" t="s">
         <v>290</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>291</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>457</v>
+      </c>
+      <c r="F53" t="s">
         <v>292</v>
       </c>
-      <c r="E53" t="s">
-        <v>458</v>
-      </c>
-      <c r="F53" t="s">
-        <v>293</v>
-      </c>
       <c r="G53" t="s">
         <v>40</v>
       </c>
@@ -5660,59 +5985,65 @@
         <v>40</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="L53" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" t="s">
         <v>294</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>295</v>
       </c>
-      <c r="D54" t="s">
-        <v>296</v>
-      </c>
       <c r="E54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G54" t="s">
         <v>203</v>
       </c>
       <c r="H54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I54" t="s">
         <v>40</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="L54" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" t="s">
         <v>298</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>299</v>
       </c>
-      <c r="D55" t="s">
-        <v>300</v>
-      </c>
       <c r="E55" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G55" t="s">
         <v>246</v>
@@ -5724,27 +6055,30 @@
         <v>203</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="L55" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" t="s">
         <v>301</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>302</v>
       </c>
-      <c r="D56" t="s">
-        <v>303</v>
-      </c>
       <c r="E56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G56" t="s">
         <v>40</v>
@@ -5756,30 +6090,33 @@
         <v>40</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="L56" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" t="s">
         <v>304</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>305</v>
       </c>
-      <c r="D57" t="s">
-        <v>306</v>
-      </c>
       <c r="E57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H57" t="s">
         <v>40</v>
@@ -5788,30 +6125,33 @@
         <v>40</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="L57" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" t="s">
         <v>307</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>308</v>
       </c>
-      <c r="D58" t="s">
-        <v>309</v>
-      </c>
       <c r="E58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H58" t="s">
         <v>40</v>
@@ -5820,30 +6160,33 @@
         <v>40</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="L58" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" t="s">
         <v>310</v>
-      </c>
-      <c r="C59" t="s">
-        <v>311</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H59" t="s">
         <v>40</v>
@@ -5852,30 +6195,33 @@
         <v>40</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="L59" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" t="s">
         <v>312</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>313</v>
       </c>
-      <c r="D60" t="s">
-        <v>314</v>
-      </c>
       <c r="E60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H60" t="s">
         <v>40</v>
@@ -5884,7 +6230,10 @@
         <v>40</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
+      </c>
+      <c r="L60" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB6362-BEDF-42D9-99F4-22BE0B8CD816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF3F291-0B05-4FBA-AF66-DE49018526F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="750" windowWidth="35220" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -649,9 +649,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>Shop/Props/key</t>
   </si>
   <si>
@@ -841,9 +838,6 @@
     <t>126</t>
   </si>
   <si>
-    <t>basketball</t>
-  </si>
-  <si>
     <t>Shop/Props/basketball</t>
   </si>
   <si>
@@ -865,30 +859,18 @@
     <t>8</t>
   </si>
   <si>
-    <t>bucket</t>
-  </si>
-  <si>
     <t>Shop/Props/bucket</t>
   </si>
   <si>
-    <t>cone</t>
-  </si>
-  <si>
     <t>Shop/Props/cone</t>
   </si>
   <si>
-    <t>screendoor</t>
-  </si>
-  <si>
     <t>Shop/Props/screendoor</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
     <t>Shop/Props/paper</t>
   </si>
   <si>
@@ -904,18 +886,12 @@
     <t>136</t>
   </si>
   <si>
-    <t>casque</t>
-  </si>
-  <si>
     <t>Shop/Props/casque</t>
   </si>
   <si>
     <t>134</t>
   </si>
   <si>
-    <t>guideboard</t>
-  </si>
-  <si>
     <t>Shop/Props/guideboard</t>
   </si>
   <si>
@@ -928,9 +904,6 @@
     <t>Shop/Props/dirttruck</t>
   </si>
   <si>
-    <t>icetrap</t>
-  </si>
-  <si>
     <t>Shop/Props/icetrap</t>
   </si>
   <si>
@@ -938,9 +911,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>fire</t>
   </si>
   <si>
     <t>Shop/Props/fire</t>
@@ -1805,6 +1775,46 @@
   </si>
   <si>
     <t>Pot_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basketball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guideboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screendoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icetrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2342,7 +2352,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2376,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2391,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2402,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2417,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2428,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2443,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2454,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2469,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2480,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2495,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -2506,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2521,7 +2531,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -2532,7 +2542,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2547,7 +2557,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -2561,7 +2571,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2576,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -2590,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2605,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -2619,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2634,7 +2644,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -2648,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2663,7 +2673,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -2677,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2692,7 +2702,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -2706,7 +2716,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2721,7 +2731,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H16">
         <v>13</v>
@@ -2735,7 +2745,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2750,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H17">
         <v>14</v>
@@ -2764,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2779,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -2793,7 +2803,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2808,7 +2818,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H19">
         <v>16</v>
@@ -2822,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2837,7 +2847,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H20">
         <v>17</v>
@@ -2851,7 +2861,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2866,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H21">
         <v>18</v>
@@ -2880,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2895,7 +2905,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H22">
         <v>19</v>
@@ -2909,7 +2919,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2924,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -2938,7 +2948,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -2953,7 +2963,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H24">
         <v>21</v>
@@ -2967,7 +2977,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -2982,7 +2992,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H25">
         <v>22</v>
@@ -2996,7 +3006,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -3011,7 +3021,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H26">
         <v>23</v>
@@ -3025,7 +3035,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -3040,7 +3050,7 @@
         <v>44</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H27">
         <v>24</v>
@@ -3054,7 +3064,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -3069,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H28">
         <v>25</v>
@@ -3083,7 +3093,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -3098,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H29">
         <v>26</v>
@@ -3112,7 +3122,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -3127,7 +3137,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -3141,7 +3151,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -3156,7 +3166,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -3170,7 +3180,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -3185,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H32">
         <v>29</v>
@@ -3199,7 +3209,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -3214,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -3228,7 +3238,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -3243,7 +3253,7 @@
         <v>54</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="H34">
         <v>31</v>
@@ -3257,7 +3267,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -3272,7 +3282,7 @@
         <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -3286,7 +3296,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -3301,7 +3311,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -3315,7 +3325,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -3330,7 +3340,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H37">
         <v>34</v>
@@ -3344,7 +3354,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -3359,7 +3369,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H38">
         <v>35</v>
@@ -3373,7 +3383,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -3388,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H39">
         <v>36</v>
@@ -3402,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -3417,7 +3427,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H40">
         <v>37</v>
@@ -3431,7 +3441,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -3446,7 +3456,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H41">
         <v>38</v>
@@ -3460,7 +3470,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -3475,7 +3485,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H42">
         <v>39</v>
@@ -4125,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4150,10 +4160,10 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
         <v>74</v>
@@ -4162,19 +4172,19 @@
         <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4182,10 +4192,10 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
@@ -4194,19 +4204,19 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4255,7 +4265,7 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F4" t="s">
         <v>166</v>
@@ -4270,10 +4280,10 @@
         <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="L4" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4290,7 +4300,7 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F5" t="s">
         <v>166</v>
@@ -4305,10 +4315,10 @@
         <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L5" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4325,7 +4335,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F6" t="s">
         <v>166</v>
@@ -4340,10 +4350,10 @@
         <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="L6" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4360,7 +4370,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F7" t="s">
         <v>166</v>
@@ -4375,10 +4385,10 @@
         <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="L7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4395,7 +4405,7 @@
         <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F8" t="s">
         <v>166</v>
@@ -4410,10 +4420,10 @@
         <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L8" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4430,7 +4440,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F9" t="s">
         <v>166</v>
@@ -4445,10 +4455,10 @@
         <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="L9" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4465,7 +4475,7 @@
         <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F10" t="s">
         <v>166</v>
@@ -4480,10 +4490,10 @@
         <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="L10" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4500,7 +4510,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F11" t="s">
         <v>166</v>
@@ -4515,10 +4525,10 @@
         <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="L11" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4535,7 +4545,7 @@
         <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F12" t="s">
         <v>166</v>
@@ -4550,10 +4560,10 @@
         <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L12" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4570,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F13" t="s">
         <v>166</v>
@@ -4585,10 +4595,10 @@
         <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="L13" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4605,7 +4615,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F14" t="s">
         <v>166</v>
@@ -4620,10 +4630,10 @@
         <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="L14" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4640,7 +4650,7 @@
         <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F15" t="s">
         <v>166</v>
@@ -4655,10 +4665,10 @@
         <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="L15" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4675,7 +4685,7 @@
         <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F16" t="s">
         <v>166</v>
@@ -4690,10 +4700,10 @@
         <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L16" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4701,16 +4711,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C17" t="s">
         <v>196</v>
-      </c>
-      <c r="C17" t="s">
-        <v>197</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F17" t="s">
         <v>166</v>
@@ -4725,10 +4735,10 @@
         <v>40</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L17" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4736,16 +4746,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s">
         <v>198</v>
-      </c>
-      <c r="C18" t="s">
-        <v>199</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F18" t="s">
         <v>166</v>
@@ -4760,10 +4770,10 @@
         <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="L18" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4771,20 +4781,20 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
         <v>200</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>201</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" t="s">
         <v>202</v>
       </c>
-      <c r="E19" t="s">
-        <v>423</v>
-      </c>
-      <c r="F19" t="s">
-        <v>203</v>
-      </c>
       <c r="G19" t="s">
         <v>40</v>
       </c>
@@ -4795,10 +4805,10 @@
         <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L19" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4809,16 +4819,16 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" t="s">
         <v>204</v>
       </c>
-      <c r="D20" t="s">
-        <v>205</v>
-      </c>
       <c r="E20" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -4830,10 +4840,10 @@
         <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="L20" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4841,19 +4851,19 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" t="s">
         <v>206</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>207</v>
       </c>
-      <c r="D21" t="s">
-        <v>208</v>
-      </c>
       <c r="E21" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -4865,10 +4875,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="L21" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4876,19 +4886,19 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
         <v>209</v>
-      </c>
-      <c r="C22" t="s">
-        <v>210</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -4900,10 +4910,10 @@
         <v>40</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="L22" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4911,19 +4921,19 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="s">
         <v>211</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>212</v>
       </c>
-      <c r="D23" t="s">
-        <v>213</v>
-      </c>
       <c r="E23" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -4935,10 +4945,10 @@
         <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="L23" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4946,19 +4956,19 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
         <v>214</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>215</v>
       </c>
-      <c r="D24" t="s">
-        <v>216</v>
-      </c>
       <c r="E24" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -4970,10 +4980,10 @@
         <v>40</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="L24" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4981,19 +4991,19 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
         <v>217</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>218</v>
       </c>
-      <c r="D25" t="s">
-        <v>219</v>
-      </c>
       <c r="E25" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -5005,10 +5015,10 @@
         <v>40</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L25" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5016,19 +5026,19 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" t="s">
         <v>220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>221</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -5040,10 +5050,10 @@
         <v>40</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L26" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5054,16 +5064,16 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -5075,10 +5085,10 @@
         <v>40</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="L27" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5086,20 +5096,20 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" t="s">
         <v>223</v>
       </c>
-      <c r="C28" t="s">
-        <v>224</v>
-      </c>
       <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" t="s">
+        <v>422</v>
+      </c>
+      <c r="F28" t="s">
         <v>202</v>
       </c>
-      <c r="E28" t="s">
-        <v>432</v>
-      </c>
-      <c r="F28" t="s">
-        <v>203</v>
-      </c>
       <c r="G28" t="s">
         <v>40</v>
       </c>
@@ -5110,10 +5120,10 @@
         <v>40</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L28" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5121,19 +5131,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" t="s">
         <v>225</v>
-      </c>
-      <c r="C29" t="s">
-        <v>226</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -5145,10 +5155,10 @@
         <v>40</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="L29" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5156,19 +5166,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
         <v>227</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>228</v>
       </c>
-      <c r="D30" t="s">
-        <v>229</v>
-      </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
@@ -5180,10 +5190,10 @@
         <v>40</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L30" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5191,19 +5201,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s">
         <v>230</v>
       </c>
-      <c r="C31" t="s">
-        <v>231</v>
-      </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
@@ -5215,10 +5225,10 @@
         <v>40</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L31" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5226,19 +5236,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" t="s">
         <v>232</v>
-      </c>
-      <c r="C32" t="s">
-        <v>233</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -5250,10 +5260,10 @@
         <v>40</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="L32" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5261,19 +5271,19 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" t="s">
         <v>234</v>
       </c>
-      <c r="C33" t="s">
-        <v>235</v>
-      </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -5285,10 +5295,10 @@
         <v>40</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="L33" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5296,19 +5306,19 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s">
         <v>236</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>237</v>
       </c>
-      <c r="D34" t="s">
-        <v>238</v>
-      </c>
       <c r="E34" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -5320,10 +5330,10 @@
         <v>40</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="L34" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5331,19 +5341,19 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" t="s">
         <v>239</v>
-      </c>
-      <c r="C35" t="s">
-        <v>240</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -5355,10 +5365,10 @@
         <v>40</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="L35" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5366,19 +5376,19 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" t="s">
         <v>241</v>
-      </c>
-      <c r="C36" t="s">
-        <v>242</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -5390,10 +5400,10 @@
         <v>40</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="L36" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5401,20 +5411,20 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" t="s">
         <v>243</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>244</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" t="s">
         <v>245</v>
       </c>
-      <c r="E37" t="s">
-        <v>441</v>
-      </c>
-      <c r="F37" t="s">
-        <v>246</v>
-      </c>
       <c r="G37" t="s">
         <v>40</v>
       </c>
@@ -5425,10 +5435,10 @@
         <v>40</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="L37" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5436,19 +5446,19 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" t="s">
         <v>247</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>248</v>
       </c>
-      <c r="D38" t="s">
-        <v>249</v>
-      </c>
       <c r="E38" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
         <v>40</v>
@@ -5460,10 +5470,10 @@
         <v>40</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="L38" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5471,19 +5481,19 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G39" t="s">
         <v>40</v>
@@ -5495,10 +5505,10 @@
         <v>40</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="L39" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5506,19 +5516,19 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" t="s">
         <v>251</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>252</v>
       </c>
-      <c r="D40" t="s">
-        <v>253</v>
-      </c>
       <c r="E40" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
         <v>40</v>
@@ -5530,10 +5540,10 @@
         <v>40</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L40" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5541,19 +5551,19 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="s">
         <v>254</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>255</v>
       </c>
-      <c r="D41" t="s">
-        <v>256</v>
-      </c>
       <c r="E41" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G41" t="s">
         <v>40</v>
@@ -5565,10 +5575,10 @@
         <v>40</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="L41" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5576,19 +5586,19 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" t="s">
         <v>257</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>258</v>
       </c>
-      <c r="D42" t="s">
-        <v>259</v>
-      </c>
       <c r="E42" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G42" t="s">
         <v>40</v>
@@ -5600,10 +5610,10 @@
         <v>40</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="L42" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5611,19 +5621,19 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>569</v>
+      </c>
+      <c r="C43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" t="s">
         <v>260</v>
       </c>
-      <c r="C43" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" t="s">
-        <v>262</v>
-      </c>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G43" t="s">
         <v>40</v>
@@ -5635,10 +5645,10 @@
         <v>40</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L43" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5646,34 +5656,34 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" t="s">
         <v>263</v>
       </c>
-      <c r="C44" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" t="s">
-        <v>265</v>
-      </c>
       <c r="E44" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
         <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="L44" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5681,19 +5691,19 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>570</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G45" t="s">
         <v>40</v>
@@ -5705,10 +5715,10 @@
         <v>40</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L45" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5716,19 +5726,19 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>574</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -5740,10 +5750,10 @@
         <v>40</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="L46" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5751,19 +5761,19 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>575</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E47" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -5775,10 +5785,10 @@
         <v>40</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L47" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5786,19 +5796,19 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>573</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E48" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -5810,10 +5820,10 @@
         <v>40</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="L48" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5821,19 +5831,19 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
         <v>40</v>
@@ -5845,10 +5855,10 @@
         <v>40</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="L49" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5856,19 +5866,19 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>571</v>
       </c>
       <c r="C50" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -5880,10 +5890,10 @@
         <v>40</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="L50" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5891,19 +5901,19 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>284</v>
+        <v>572</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5915,10 +5925,10 @@
         <v>40</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="L51" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5926,19 +5936,19 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5950,10 +5960,10 @@
         <v>40</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L52" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5961,19 +5971,19 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>289</v>
+        <v>576</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -5985,10 +5995,10 @@
         <v>40</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="L53" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5996,34 +6006,34 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>293</v>
+        <v>577</v>
       </c>
       <c r="C54" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D54" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E54" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F54" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H54" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I54" t="s">
         <v>40</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="L54" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6031,34 +6041,34 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F55" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L55" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6066,19 +6076,19 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C56" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E56" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F56" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G56" t="s">
         <v>40</v>
@@ -6090,10 +6100,10 @@
         <v>40</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="L56" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6101,22 +6111,22 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C57" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E57" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G57" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H57" t="s">
         <v>40</v>
@@ -6125,10 +6135,10 @@
         <v>40</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="L57" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6136,22 +6146,22 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C58" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E58" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F58" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G58" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H58" t="s">
         <v>40</v>
@@ -6160,10 +6170,10 @@
         <v>40</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6171,22 +6181,22 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G59" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H59" t="s">
         <v>40</v>
@@ -6195,10 +6205,10 @@
         <v>40</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="L59" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6206,22 +6216,22 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F60" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G60" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H60" t="s">
         <v>40</v>
@@ -6230,10 +6240,10 @@
         <v>40</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="L60" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF3F291-0B05-4FBA-AF66-DE49018526F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68AE0FC-E84B-47FE-A402-DD552C51A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="750" windowWidth="35220" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1785" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="583">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -1815,6 +1824,25 @@
   </si>
   <si>
     <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CobCannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玉米加农炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop/Plants/CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantName_CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantInfo_CobCannon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1987,8 +2015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}" name="Shopping" displayName="Shopping" ref="A1:H42" totalsRowShown="0" dataDxfId="11" dataCellStyle="常规">
-  <autoFilter ref="A1:H42" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}" name="Shopping" displayName="Shopping" ref="A1:H43" totalsRowShown="0" dataDxfId="11" dataCellStyle="常规">
+  <autoFilter ref="A1:H43" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{50AC5584-B0DF-458D-84BD-9187946E94E8}" name="id" dataDxfId="10" dataCellStyle="常规"/>
     <tableColumn id="2" xr3:uid="{DF9341C8-8964-45E4-BD06-65D1F895C6EB}" name="植物名" dataDxfId="9" dataCellStyle="常规"/>
@@ -2285,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20B1F7-B588-42E6-AFFF-4684D8709164}">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3484,48 +3512,72 @@
       <c r="F42" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" t="s">
         <v>397</v>
       </c>
       <c r="H42">
         <v>39</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K43" s="1" t="s">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>580</v>
+      </c>
+      <c r="E43">
+        <v>150</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
+      </c>
+      <c r="G43" t="s">
+        <v>582</v>
+      </c>
+      <c r="H43">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K44" s="1" t="s">
+      <c r="K44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K45" s="1" t="s">
+      <c r="K45" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K46" s="1" t="s">
+      <c r="K46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K47" s="1" t="s">
+      <c r="K47" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K48" s="1" t="s">
+      <c r="K48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K49" s="1" t="s">
+      <c r="K49" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4084,39 +4136,47 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K161" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K162" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K163" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K164" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K165" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K166" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K167" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K168" t="s">
+        <v>578</v>
+      </c>
+      <c r="L168" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4135,7 +4195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68AE0FC-E84B-47FE-A402-DD552C51A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABD2AE4-F4EC-4B3F-A13A-5CBE0D499D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1785" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1785" windowWidth="35220" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -1605,9 +1605,6 @@
     <t>[{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Power","increment":"-5"}]</t>
   </si>
   <si>
-    <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
-  </si>
-  <si>
     <t>一个下巴？\r\n&lt;color=#00ff00&gt;+2肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n看起来令人毛骨悚然</t>
   </si>
   <si>
@@ -1843,6 +1840,10 @@
   </si>
   <si>
     <t>plantInfo_CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2315,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20B1F7-B588-42E6-AFFF-4684D8709164}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -3527,13 +3528,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E43">
         <v>150</v>
@@ -3542,7 +3543,7 @@
         <v>500</v>
       </c>
       <c r="G43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -4173,10 +4174,10 @@
     </row>
     <row r="168" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K168" t="s">
+        <v>577</v>
+      </c>
+      <c r="L168" t="s">
         <v>578</v>
-      </c>
-      <c r="L168" t="s">
-        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4195,8 +4196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4343,7 +4344,7 @@
         <v>455</v>
       </c>
       <c r="L4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4378,7 +4379,7 @@
         <v>456</v>
       </c>
       <c r="L5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4413,7 +4414,7 @@
         <v>457</v>
       </c>
       <c r="L6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4448,7 +4449,7 @@
         <v>458</v>
       </c>
       <c r="L7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4483,7 +4484,7 @@
         <v>459</v>
       </c>
       <c r="L8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4518,7 +4519,7 @@
         <v>460</v>
       </c>
       <c r="L9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4553,7 +4554,7 @@
         <v>461</v>
       </c>
       <c r="L10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4588,7 +4589,7 @@
         <v>462</v>
       </c>
       <c r="L11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4623,7 +4624,7 @@
         <v>463</v>
       </c>
       <c r="L12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4658,7 +4659,7 @@
         <v>464</v>
       </c>
       <c r="L13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4693,7 +4694,7 @@
         <v>465</v>
       </c>
       <c r="L14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4728,7 +4729,7 @@
         <v>466</v>
       </c>
       <c r="L15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4763,7 +4764,7 @@
         <v>467</v>
       </c>
       <c r="L16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4771,7 +4772,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -4798,7 +4799,7 @@
         <v>311</v>
       </c>
       <c r="L17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4833,7 +4834,7 @@
         <v>468</v>
       </c>
       <c r="L18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4868,7 +4869,7 @@
         <v>469</v>
       </c>
       <c r="L19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4903,7 +4904,7 @@
         <v>470</v>
       </c>
       <c r="L20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4938,7 +4939,7 @@
         <v>471</v>
       </c>
       <c r="L21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4973,7 +4974,7 @@
         <v>472</v>
       </c>
       <c r="L22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5008,7 +5009,7 @@
         <v>473</v>
       </c>
       <c r="L23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5043,7 +5044,7 @@
         <v>474</v>
       </c>
       <c r="L24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5078,7 +5079,7 @@
         <v>475</v>
       </c>
       <c r="L25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5113,7 +5114,7 @@
         <v>476</v>
       </c>
       <c r="L26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5148,7 +5149,7 @@
         <v>477</v>
       </c>
       <c r="L27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5183,7 +5184,7 @@
         <v>478</v>
       </c>
       <c r="L28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5218,7 +5219,7 @@
         <v>479</v>
       </c>
       <c r="L29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5253,7 +5254,7 @@
         <v>480</v>
       </c>
       <c r="L30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5288,7 +5289,7 @@
         <v>480</v>
       </c>
       <c r="L31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5323,7 +5324,7 @@
         <v>481</v>
       </c>
       <c r="L32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5358,7 +5359,7 @@
         <v>482</v>
       </c>
       <c r="L33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5393,7 +5394,7 @@
         <v>483</v>
       </c>
       <c r="L34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5428,7 +5429,7 @@
         <v>484</v>
       </c>
       <c r="L35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5463,7 +5464,7 @@
         <v>485</v>
       </c>
       <c r="L36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5498,7 +5499,7 @@
         <v>486</v>
       </c>
       <c r="L37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5533,7 +5534,7 @@
         <v>487</v>
       </c>
       <c r="L38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5541,7 +5542,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C39" t="s">
         <v>249</v>
@@ -5568,7 +5569,7 @@
         <v>488</v>
       </c>
       <c r="L39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5603,7 +5604,7 @@
         <v>489</v>
       </c>
       <c r="L40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5638,7 +5639,7 @@
         <v>490</v>
       </c>
       <c r="L41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5673,7 +5674,7 @@
         <v>491</v>
       </c>
       <c r="L42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5681,7 +5682,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C43" t="s">
         <v>259</v>
@@ -5708,7 +5709,7 @@
         <v>492</v>
       </c>
       <c r="L43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5743,7 +5744,7 @@
         <v>493</v>
       </c>
       <c r="L44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5751,7 +5752,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C45" t="s">
         <v>266</v>
@@ -5778,7 +5779,7 @@
         <v>494</v>
       </c>
       <c r="L45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5786,7 +5787,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C46" t="s">
         <v>267</v>
@@ -5813,7 +5814,7 @@
         <v>495</v>
       </c>
       <c r="L46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5821,7 +5822,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C47" t="s">
         <v>268</v>
@@ -5848,7 +5849,7 @@
         <v>496</v>
       </c>
       <c r="L47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5856,7 +5857,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C48" t="s">
         <v>270</v>
@@ -5883,7 +5884,7 @@
         <v>497</v>
       </c>
       <c r="L48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5918,7 +5919,7 @@
         <v>498</v>
       </c>
       <c r="L49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5926,7 +5927,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C50" t="s">
         <v>275</v>
@@ -5953,7 +5954,7 @@
         <v>499</v>
       </c>
       <c r="L50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5961,7 +5962,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C51" t="s">
         <v>277</v>
@@ -5988,7 +5989,7 @@
         <v>500</v>
       </c>
       <c r="L51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6023,7 +6024,7 @@
         <v>501</v>
       </c>
       <c r="L52" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6031,7 +6032,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C53" t="s">
         <v>281</v>
@@ -6058,7 +6059,7 @@
         <v>502</v>
       </c>
       <c r="L53" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6066,7 +6067,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C54" t="s">
         <v>284</v>
@@ -6093,7 +6094,7 @@
         <v>503</v>
       </c>
       <c r="L54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6128,7 +6129,7 @@
         <v>504</v>
       </c>
       <c r="L55" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6163,7 +6164,7 @@
         <v>505</v>
       </c>
       <c r="L56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6198,7 +6199,7 @@
         <v>506</v>
       </c>
       <c r="L57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6233,7 +6234,7 @@
         <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6268,7 +6269,7 @@
         <v>508</v>
       </c>
       <c r="L59" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6300,10 +6301,10 @@
         <v>40</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>509</v>
+        <v>582</v>
       </c>
       <c r="L60" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABD2AE4-F4EC-4B3F-A13A-5CBE0D499D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75E8EB-372A-4D2C-AEEE-35B749D5F597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1785" windowWidth="35220" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12510" yWindow="1920" windowWidth="27210" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="647">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -1019,831 +1019,1061 @@
     <t>品质</t>
   </si>
   <si>
+    <t>propDamageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantName_Peashooter</t>
+  </si>
+  <si>
+    <t>plantName_Repeater</t>
+  </si>
+  <si>
+    <t>plantName_Cactus</t>
+  </si>
+  <si>
+    <t>plantName_Blover</t>
+  </si>
+  <si>
+    <t>plantName_Cattail</t>
+  </si>
+  <si>
+    <t>plantName_CherryBomb</t>
+  </si>
+  <si>
+    <t>plantName_Chomper</t>
+  </si>
+  <si>
+    <t>plantName_CoffeeBean</t>
+  </si>
+  <si>
+    <t>plantName_CornpultCard</t>
+  </si>
+  <si>
+    <t>plantName_FumeShroom</t>
+  </si>
+  <si>
+    <t>plantName_GatlingPea</t>
+  </si>
+  <si>
+    <t>plantName_GloomShroom</t>
+  </si>
+  <si>
+    <t>plantName_GoldMagent</t>
+  </si>
+  <si>
+    <t>plantName_LilyPad</t>
+  </si>
+  <si>
+    <t>plantName_Gralic</t>
+  </si>
+  <si>
+    <t>plantName_Gravebuster</t>
+  </si>
+  <si>
+    <t>plantName_HypnoShroom</t>
+  </si>
+  <si>
+    <t>plantName_MagentShroom</t>
+  </si>
+  <si>
+    <t>plantName_Marigold</t>
+  </si>
+  <si>
+    <t>plantName_Plantern</t>
+  </si>
+  <si>
+    <t>plantName_PuffShroom</t>
+  </si>
+  <si>
+    <t>plantName_PumpkinHead</t>
+  </si>
+  <si>
+    <t>plantName_ScaredyShroom</t>
+  </si>
+  <si>
+    <t>plantName_SnowPea</t>
+  </si>
+  <si>
+    <t>plantName_Spikerock</t>
+  </si>
+  <si>
+    <t>plantName_Spikeweed</t>
+  </si>
+  <si>
+    <t>plantName_SplitPea</t>
+  </si>
+  <si>
+    <t>plantName_Starfruit</t>
+  </si>
+  <si>
+    <t>plantName_SunFlower</t>
+  </si>
+  <si>
+    <t>plantName_TallNut</t>
+  </si>
+  <si>
+    <t>plantName_Threepeater</t>
+  </si>
+  <si>
+    <t>plantName_Torchwood</t>
+  </si>
+  <si>
+    <t>plantName_TwinSunflower</t>
+  </si>
+  <si>
+    <t>plantName_WallNut</t>
+  </si>
+  <si>
+    <t>plantName_IceShroom</t>
+  </si>
+  <si>
+    <t>plantName_Jalapeno</t>
+  </si>
+  <si>
+    <t>plantName_DoomShroom</t>
+  </si>
+  <si>
+    <t>plantName_Squash</t>
+  </si>
+  <si>
+    <t>plantName_PotatoMine</t>
+  </si>
+  <si>
+    <t>plantInfo_Peashooter</t>
+  </si>
+  <si>
+    <t>plantInfo_Repeater</t>
+  </si>
+  <si>
+    <t>plantInfo_Cactus</t>
+  </si>
+  <si>
+    <t>plantInfo_Blover</t>
+  </si>
+  <si>
+    <t>plantInfo_Cattail</t>
+  </si>
+  <si>
+    <t>plantInfo_CherryBomb</t>
+  </si>
+  <si>
+    <t>plantInfo_Chomper</t>
+  </si>
+  <si>
+    <t>plantInfo_CoffeeBean</t>
+  </si>
+  <si>
+    <t>plantInfo_CornpultCard</t>
+  </si>
+  <si>
+    <t>plantInfo_FumeShroom</t>
+  </si>
+  <si>
+    <t>plantInfo_GatlingPea</t>
+  </si>
+  <si>
+    <t>plantInfo_GloomShroom</t>
+  </si>
+  <si>
+    <t>plantInfo_GoldMagent</t>
+  </si>
+  <si>
+    <t>plantInfo_LilyPad</t>
+  </si>
+  <si>
+    <t>plantInfo_Gralic</t>
+  </si>
+  <si>
+    <t>plantInfo_Gravebuster</t>
+  </si>
+  <si>
+    <t>plantInfo_HypnoShroom</t>
+  </si>
+  <si>
+    <t>plantInfo_MagentShroom</t>
+  </si>
+  <si>
+    <t>plantInfo_Marigold</t>
+  </si>
+  <si>
+    <t>plantInfo_Plantern</t>
+  </si>
+  <si>
+    <t>plantInfo_PuffShroom</t>
+  </si>
+  <si>
+    <t>plantInfo_PumpkinHead</t>
+  </si>
+  <si>
+    <t>plantInfo_ScaredyShroom</t>
+  </si>
+  <si>
+    <t>plantInfo_SnowPea</t>
+  </si>
+  <si>
+    <t>plantInfo_Spikerock</t>
+  </si>
+  <si>
+    <t>plantInfo_Spikeweed</t>
+  </si>
+  <si>
+    <t>plantInfo_SplitPea</t>
+  </si>
+  <si>
+    <t>plantInfo_Starfruit</t>
+  </si>
+  <si>
+    <t>plantInfo_SunFlower</t>
+  </si>
+  <si>
+    <t>plantInfo_TallNut</t>
+  </si>
+  <si>
+    <t>plantInfo_Threepeater</t>
+  </si>
+  <si>
+    <t>plantInfo_Torchwood</t>
+  </si>
+  <si>
+    <t>plantInfo_TwinSunflower</t>
+  </si>
+  <si>
+    <t>plantInfo_WallNut</t>
+  </si>
+  <si>
+    <t>plantInfo_IceShroom</t>
+  </si>
+  <si>
+    <t>plantInfo_Jalapeno</t>
+  </si>
+  <si>
+    <t>plantInfo_DoomShroom</t>
+  </si>
+  <si>
+    <t>plantInfo_Squash</t>
+  </si>
+  <si>
+    <t>plantInfo_PotatoMine</t>
+  </si>
+  <si>
+    <t>propInfo_jaw</t>
+  </si>
+  <si>
+    <t>propInfo_sadheart</t>
+  </si>
+  <si>
+    <t>propInfo_magnetic</t>
+  </si>
+  <si>
+    <t>propInfo_blackhole</t>
+  </si>
+  <si>
+    <t>propInfo_plate</t>
+  </si>
+  <si>
+    <t>propInfo_throat</t>
+  </si>
+  <si>
+    <t>propInfo_SeaShroom_head</t>
+  </si>
+  <si>
+    <t>propInfo_SunShroom_head</t>
+  </si>
+  <si>
+    <t>propInfo_beard</t>
+  </si>
+  <si>
+    <t>propInfo_glasses</t>
+  </si>
+  <si>
+    <t>propInfo_leaf</t>
+  </si>
+  <si>
+    <t>propInfo_smallflower</t>
+  </si>
+  <si>
+    <t>propInfo_fertilizer</t>
+  </si>
+  <si>
+    <t>propInfo_key</t>
+  </si>
+  <si>
+    <t>propInfo_wallet</t>
+  </si>
+  <si>
+    <t>propInfo_Diamond</t>
+  </si>
+  <si>
+    <t>propInfo_SunFlower</t>
+  </si>
+  <si>
+    <t>propInfo_basket</t>
+  </si>
+  <si>
+    <t>propInfo_rake</t>
+  </si>
+  <si>
+    <t>propInfo_wateringcan</t>
+  </si>
+  <si>
+    <t>propInfo_jackbox</t>
+  </si>
+  <si>
+    <t>propInfo_splash3</t>
+  </si>
+  <si>
+    <t>propInfo_SodRollCap</t>
+  </si>
+  <si>
+    <t>propInfo_Spikerock</t>
+  </si>
+  <si>
+    <t>propInfo_Stinky_turn1</t>
+  </si>
+  <si>
+    <t>propInfo_bugspray</t>
+  </si>
+  <si>
+    <t>propInfo_shovel</t>
+  </si>
+  <si>
+    <t>propInfo_cardSlot</t>
+  </si>
+  <si>
+    <t>propInfo_book</t>
+  </si>
+  <si>
+    <t>propInfo_cup</t>
+  </si>
+  <si>
+    <t>propInfo_sandwich</t>
+  </si>
+  <si>
+    <t>propInfo_lock</t>
+  </si>
+  <si>
+    <t>propInfo_radio</t>
+  </si>
+  <si>
+    <t>propInfo_WinterMelon</t>
+  </si>
+  <si>
+    <t>propInfo_melon</t>
+  </si>
+  <si>
+    <t>propInfo_Pot_Water</t>
+  </si>
+  <si>
+    <t>propInfo_Spinacia</t>
+  </si>
+  <si>
+    <t>propInfo_Marigold_petals</t>
+  </si>
+  <si>
+    <t>propInfo_TreeFood2</t>
+  </si>
+  <si>
+    <t>propInfo_basketball</t>
+  </si>
+  <si>
+    <t>propInfo_LawnMower</t>
+  </si>
+  <si>
+    <t>propInfo_bucket</t>
+  </si>
+  <si>
+    <t>propInfo_cone</t>
+  </si>
+  <si>
+    <t>propInfo_screendoor</t>
+  </si>
+  <si>
+    <t>propInfo_paper</t>
+  </si>
+  <si>
+    <t>propInfo_ladder</t>
+  </si>
+  <si>
+    <t>propInfo_casque</t>
+  </si>
+  <si>
+    <t>propInfo_guideboard</t>
+  </si>
+  <si>
+    <t>propInfo_dirttruck</t>
+  </si>
+  <si>
+    <t>propInfo_icetrap</t>
+  </si>
+  <si>
+    <t>propInfo_fire</t>
+  </si>
+  <si>
+    <t>propInfo_hammer</t>
+  </si>
+  <si>
+    <t>propInfo_PortalCard</t>
+  </si>
+  <si>
+    <t>propInfo_fogmachine</t>
+  </si>
+  <si>
+    <t>propInfo_lights</t>
+  </si>
+  <si>
+    <t>propInfo_mic</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"2"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"AttackSpeed","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"-4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"2"},{"attributeTypeString":"GoldCoins","increment":"10"},{"attributeTypeString":"Armor","increment":"1"},{"attributeTypeString":"Adrenaline","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Sunshine","increment":"50"},{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"Lucky","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"GoldCoins","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"GoldCoins","increment":"30"},{"attributeTypeString":"Lucky","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Lucky","increment":"3"},{"attributeTypeString":"Sunshine","increment":"50"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"3"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"4"},{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"-5"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"6"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"8"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"8"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Speed","increment":"-5"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"-6"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"15"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"GoldCoins","increment":"20"},{"attributeTypeString":"Lucky","increment":"3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"25"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"20"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"GoldCoins","increment":"50"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Botany","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"20"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Sunshine","increment":"100"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"3"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"PercentageDamage","increment":"8"},{"attributeTypeString":"Speed","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"Armor","increment":"6"},{"attributeTypeString":"Range","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"6"},{"attributeTypeString":"Armor","increment":"6"},{"attributeTypeString":"Range","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"15"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Speed","increment":"-8"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"25"},{"attributeTypeString":"GoldCoins","increment":"25"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Power","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"6"},{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-6"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"10"},{"attributeTypeString":"Lucky","increment":"8"},{"attributeTypeString":"GoldCoins","increment":"30"},{"attributeTypeString":"Range","increment":"-20"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"6"},{"attributeTypeString":"Range","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"6"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"32"},{"attributeTypeString":"Speed","increment":"30"},{"attributeTypeString":"Armor","increment":"7"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"GoldCoins","increment":"60"},{"attributeTypeString":"LifeRecovery","increment":"-10"},{"attributeTypeString":"AttackSpeed","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"30"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"Speed","increment":"15"},{"attributeTypeString":"AttackSpeed","increment":"15"},{"attributeTypeString":"Sunshine","increment":"200"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Lucky","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"40"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Lucky","increment":"6"},{"attributeTypeString":"LifeRecovery","increment":"6"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Sunshine","increment":"100"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Power","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>一个下巴？\r\n&lt;color=#00ff00&gt;+2肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n看起来令人毛骨悚然</t>
+  </si>
+  <si>
+    <t>正在哭泣的红心\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n她看起来好可怜</t>
+  </si>
+  <si>
+    <t>牵引金币的磁铁\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;金币&lt;/color&gt;了\r\n但是相互作用力之下，我的速度也收到了影响</t>
+  </si>
+  <si>
+    <t>吸收阳光的黑洞\r\n&lt;color=#ff0000&gt;-4植物学&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;阳光&lt;/color&gt;了\r\n植物好像非常害怕它</t>
+  </si>
+  <si>
+    <t>金属盘子\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n可以用来干饭</t>
+  </si>
+  <si>
+    <t>长牙齿的咽喉？\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5生命恢复&lt;/color&gt;\r\n看起来更像一条蛇</t>
+  </si>
+  <si>
+    <t>小海菇的帽子\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3最大生命值&lt;/color&gt;\r\n可以好好研究一下</t>
+  </si>
+  <si>
+    <t>阳光菇帽子\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n可以好好研究一下</t>
+  </si>
+  <si>
+    <t>戴夫的胡须\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n这是我的胡子</t>
+  </si>
+  <si>
+    <t>眼镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n戴上后视野会变得清晰</t>
+  </si>
+  <si>
+    <t>叶子\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n不知道属于哪个植物</t>
+  </si>
+  <si>
+    <t>小花\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n看起来很眼熟</t>
+  </si>
+  <si>
+    <t>肥料\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n应该能帮到植物们</t>
+  </si>
+  <si>
+    <t>车钥匙\r\n&lt;color=#9932CD&gt;可以免费刷新一次商品&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>钱袋\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n里面能装不少钱</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;钻石&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n亮闪亮闪的很漂亮</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;葵花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n向日葵的花瓣，不知道有没有葵花籽</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;篮子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n好像是某个投手的投射器</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;耙子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n这件兵器很趁手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;水壶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n对植物们很有帮助</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;小丑礼盒&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n一个会爆炸的礼盒，我得小心收藏</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一朵水花？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n哪个跳水队都比不过这一朵</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一卷草皮？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n铺开躺上去一定很舒服</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一根地刺&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n都不想踩在上面</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;蜗牛&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n应该对植物有所帮助，跑得太慢了</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;杀虫剂&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6生命恢复&lt;/color&gt;\r\n气味很难闻，可以帮助植物对抗虫子</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;铲子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以铲掉花园中的泥土，放置花盆</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;卡槽&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以增加出战植物的上限</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;书&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15植物学&lt;/color&gt;\r\n可以学到许多知识</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;奖杯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n荣誉的象征</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;三明治&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n看起来很好吃</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一把锁&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n可以对准</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;留声机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3护甲&lt;/color&gt;\r\n听听音乐放松一下</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;冰镇西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n吃太多会拉肚子</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n肚子都要被撑爆了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;水花盆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n可以在上面种荷叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;金盏花瓣&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n看看她是这么产生金币的</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;智慧树肥料&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n这个好</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;篮球&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n听说鸽鸽很会玩这个</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n并且对某直线上的僵尸造成{0}\r\n伤害冷却时间{1}</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;铁桶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自铁桶僵尸的战利品，但是会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;路障&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自路障僵尸的战利品，但是会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;铁栅栏&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8速度&lt;/color&gt;\r\n来自铁栅栏僵尸的战利品，会影响到我正常走路</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;报纸&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3力量&lt;/color&gt;\r\n来自读报僵尸的战利品，里面蕴含的知识可真不少</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;扶梯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6攻击速度&lt;/color&gt;\r\n来自扶梯僵尸的战利品，能攻击到更远的地方了</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;橄榄球头盔&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20范围&lt;/color&gt;\r\n来自橄榄球僵尸的战利品，会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;路牌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n来自巨人僵尸的战利品，这么重的玩意儿太影响我的移动速度了</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;推土车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;&lt;/color&gt;\r\n能托运泥土，锻炼身体，但是老了推不太动</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;冰碎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10攻击速度&lt;/color&gt;\r\n看起来就很冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;火焰&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15攻击速度&lt;/color&gt;\r\n自身每秒&lt;color=#ff0000&gt;{0}生命值&lt;/color&gt;\r\n火焰正在燃烧</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;传送门&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10幸运&lt;/color&gt;\r\n可在场上随机位置生成两个传送门，这很酷\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;雾机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n有概率产生雾，免疫远程攻击\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;灯光机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击率&lt;/color&gt;\r\n有灯光才有气氛\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;麦克风&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5力量&lt;/color&gt;\r\n使我变成大明星\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;音响&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n使我的声音传的更远\r\n</t>
+  </si>
+  <si>
+    <t>Pot_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basketball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guideboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screendoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icetrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CobCannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玉米加农炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop/Plants/CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantName_CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantInfo_CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerReminder</t>
+  </si>
+  <si>
+    <t>brokenEggshell</t>
+  </si>
+  <si>
+    <t>goggles</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>gong</t>
+  </si>
+  <si>
+    <t>gongStick</t>
+  </si>
+  <si>
+    <t>ignitedBomb</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>pennant</t>
+  </si>
+  <si>
+    <t>damagedSkateboard</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>actionBars</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>drumsticks</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>iceCake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batWings</t>
+  </si>
+  <si>
+    <t>hemline</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>brokenHat</t>
+  </si>
+  <si>
+    <t>pinecone</t>
+  </si>
+  <si>
+    <t>zombieRightHand</t>
+  </si>
+  <si>
+    <t>zombieLeftHand</t>
+  </si>
+  <si>
+    <t>imitator</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>zombieBanOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoleVaulting</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>unknownButton</t>
+  </si>
+  <si>
     <t>伤害类型</t>
-  </si>
-  <si>
-    <t>propDamageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantName_Peashooter</t>
-  </si>
-  <si>
-    <t>plantName_Repeater</t>
-  </si>
-  <si>
-    <t>plantName_Cactus</t>
-  </si>
-  <si>
-    <t>plantName_Blover</t>
-  </si>
-  <si>
-    <t>plantName_Cattail</t>
-  </si>
-  <si>
-    <t>plantName_CherryBomb</t>
-  </si>
-  <si>
-    <t>plantName_Chomper</t>
-  </si>
-  <si>
-    <t>plantName_CoffeeBean</t>
-  </si>
-  <si>
-    <t>plantName_CornpultCard</t>
-  </si>
-  <si>
-    <t>plantName_FumeShroom</t>
-  </si>
-  <si>
-    <t>plantName_GatlingPea</t>
-  </si>
-  <si>
-    <t>plantName_GloomShroom</t>
-  </si>
-  <si>
-    <t>plantName_GoldMagent</t>
-  </si>
-  <si>
-    <t>plantName_LilyPad</t>
-  </si>
-  <si>
-    <t>plantName_Gralic</t>
-  </si>
-  <si>
-    <t>plantName_Gravebuster</t>
-  </si>
-  <si>
-    <t>plantName_HypnoShroom</t>
-  </si>
-  <si>
-    <t>plantName_MagentShroom</t>
-  </si>
-  <si>
-    <t>plantName_Marigold</t>
-  </si>
-  <si>
-    <t>plantName_Plantern</t>
-  </si>
-  <si>
-    <t>plantName_PuffShroom</t>
-  </si>
-  <si>
-    <t>plantName_PumpkinHead</t>
-  </si>
-  <si>
-    <t>plantName_ScaredyShroom</t>
-  </si>
-  <si>
-    <t>plantName_SnowPea</t>
-  </si>
-  <si>
-    <t>plantName_Spikerock</t>
-  </si>
-  <si>
-    <t>plantName_Spikeweed</t>
-  </si>
-  <si>
-    <t>plantName_SplitPea</t>
-  </si>
-  <si>
-    <t>plantName_Starfruit</t>
-  </si>
-  <si>
-    <t>plantName_SunFlower</t>
-  </si>
-  <si>
-    <t>plantName_TallNut</t>
-  </si>
-  <si>
-    <t>plantName_Threepeater</t>
-  </si>
-  <si>
-    <t>plantName_Torchwood</t>
-  </si>
-  <si>
-    <t>plantName_TwinSunflower</t>
-  </si>
-  <si>
-    <t>plantName_WallNut</t>
-  </si>
-  <si>
-    <t>plantName_IceShroom</t>
-  </si>
-  <si>
-    <t>plantName_Jalapeno</t>
-  </si>
-  <si>
-    <t>plantName_DoomShroom</t>
-  </si>
-  <si>
-    <t>plantName_Squash</t>
-  </si>
-  <si>
-    <t>plantName_PotatoMine</t>
-  </si>
-  <si>
-    <t>plantInfo_Peashooter</t>
-  </si>
-  <si>
-    <t>plantInfo_Repeater</t>
-  </si>
-  <si>
-    <t>plantInfo_Cactus</t>
-  </si>
-  <si>
-    <t>plantInfo_Blover</t>
-  </si>
-  <si>
-    <t>plantInfo_Cattail</t>
-  </si>
-  <si>
-    <t>plantInfo_CherryBomb</t>
-  </si>
-  <si>
-    <t>plantInfo_Chomper</t>
-  </si>
-  <si>
-    <t>plantInfo_CoffeeBean</t>
-  </si>
-  <si>
-    <t>plantInfo_CornpultCard</t>
-  </si>
-  <si>
-    <t>plantInfo_FumeShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_GatlingPea</t>
-  </si>
-  <si>
-    <t>plantInfo_GloomShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_GoldMagent</t>
-  </si>
-  <si>
-    <t>plantInfo_LilyPad</t>
-  </si>
-  <si>
-    <t>plantInfo_Gralic</t>
-  </si>
-  <si>
-    <t>plantInfo_Gravebuster</t>
-  </si>
-  <si>
-    <t>plantInfo_HypnoShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_MagentShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_Marigold</t>
-  </si>
-  <si>
-    <t>plantInfo_Plantern</t>
-  </si>
-  <si>
-    <t>plantInfo_PuffShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_PumpkinHead</t>
-  </si>
-  <si>
-    <t>plantInfo_ScaredyShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_SnowPea</t>
-  </si>
-  <si>
-    <t>plantInfo_Spikerock</t>
-  </si>
-  <si>
-    <t>plantInfo_Spikeweed</t>
-  </si>
-  <si>
-    <t>plantInfo_SplitPea</t>
-  </si>
-  <si>
-    <t>plantInfo_Starfruit</t>
-  </si>
-  <si>
-    <t>plantInfo_SunFlower</t>
-  </si>
-  <si>
-    <t>plantInfo_TallNut</t>
-  </si>
-  <si>
-    <t>plantInfo_Threepeater</t>
-  </si>
-  <si>
-    <t>plantInfo_Torchwood</t>
-  </si>
-  <si>
-    <t>plantInfo_TwinSunflower</t>
-  </si>
-  <si>
-    <t>plantInfo_WallNut</t>
-  </si>
-  <si>
-    <t>plantInfo_IceShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_Jalapeno</t>
-  </si>
-  <si>
-    <t>plantInfo_DoomShroom</t>
-  </si>
-  <si>
-    <t>plantInfo_Squash</t>
-  </si>
-  <si>
-    <t>plantInfo_PotatoMine</t>
-  </si>
-  <si>
-    <t>propInfo_jaw</t>
-  </si>
-  <si>
-    <t>propInfo_sadheart</t>
-  </si>
-  <si>
-    <t>propInfo_magnetic</t>
-  </si>
-  <si>
-    <t>propInfo_blackhole</t>
-  </si>
-  <si>
-    <t>propInfo_plate</t>
-  </si>
-  <si>
-    <t>propInfo_throat</t>
-  </si>
-  <si>
-    <t>propInfo_SeaShroom_head</t>
-  </si>
-  <si>
-    <t>propInfo_SunShroom_head</t>
-  </si>
-  <si>
-    <t>propInfo_beard</t>
-  </si>
-  <si>
-    <t>propInfo_glasses</t>
-  </si>
-  <si>
-    <t>propInfo_leaf</t>
-  </si>
-  <si>
-    <t>propInfo_smallflower</t>
-  </si>
-  <si>
-    <t>propInfo_fertilizer</t>
-  </si>
-  <si>
-    <t>propInfo_key</t>
-  </si>
-  <si>
-    <t>propInfo_wallet</t>
-  </si>
-  <si>
-    <t>propInfo_Diamond</t>
-  </si>
-  <si>
-    <t>propInfo_SunFlower</t>
-  </si>
-  <si>
-    <t>propInfo_basket</t>
-  </si>
-  <si>
-    <t>propInfo_rake</t>
-  </si>
-  <si>
-    <t>propInfo_wateringcan</t>
-  </si>
-  <si>
-    <t>propInfo_jackbox</t>
-  </si>
-  <si>
-    <t>propInfo_splash3</t>
-  </si>
-  <si>
-    <t>propInfo_SodRollCap</t>
-  </si>
-  <si>
-    <t>propInfo_Spikerock</t>
-  </si>
-  <si>
-    <t>propInfo_Stinky_turn1</t>
-  </si>
-  <si>
-    <t>propInfo_bugspray</t>
-  </si>
-  <si>
-    <t>propInfo_shovel</t>
-  </si>
-  <si>
-    <t>propInfo_cardSlot</t>
-  </si>
-  <si>
-    <t>propInfo_book</t>
-  </si>
-  <si>
-    <t>propInfo_cup</t>
-  </si>
-  <si>
-    <t>propInfo_sandwich</t>
-  </si>
-  <si>
-    <t>propInfo_lock</t>
-  </si>
-  <si>
-    <t>propInfo_radio</t>
-  </si>
-  <si>
-    <t>propInfo_WinterMelon</t>
-  </si>
-  <si>
-    <t>propInfo_melon</t>
-  </si>
-  <si>
-    <t>propInfo_Pot_Water</t>
-  </si>
-  <si>
-    <t>propInfo_Spinacia</t>
-  </si>
-  <si>
-    <t>propInfo_Marigold_petals</t>
-  </si>
-  <si>
-    <t>propInfo_TreeFood2</t>
-  </si>
-  <si>
-    <t>propInfo_basketball</t>
-  </si>
-  <si>
-    <t>propInfo_LawnMower</t>
-  </si>
-  <si>
-    <t>propInfo_bucket</t>
-  </si>
-  <si>
-    <t>propInfo_cone</t>
-  </si>
-  <si>
-    <t>propInfo_screendoor</t>
-  </si>
-  <si>
-    <t>propInfo_paper</t>
-  </si>
-  <si>
-    <t>propInfo_ladder</t>
-  </si>
-  <si>
-    <t>propInfo_casque</t>
-  </si>
-  <si>
-    <t>propInfo_guideboard</t>
-  </si>
-  <si>
-    <t>propInfo_dirttruck</t>
-  </si>
-  <si>
-    <t>propInfo_icetrap</t>
-  </si>
-  <si>
-    <t>propInfo_fire</t>
-  </si>
-  <si>
-    <t>propInfo_hammer</t>
-  </si>
-  <si>
-    <t>propInfo_PortalCard</t>
-  </si>
-  <si>
-    <t>propInfo_fogmachine</t>
-  </si>
-  <si>
-    <t>propInfo_lights</t>
-  </si>
-  <si>
-    <t>propInfo_mic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>propInfo_speaker</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"2"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"AttackSpeed","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"-4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"2"},{"attributeTypeString":"GoldCoins","increment":"10"},{"attributeTypeString":"Armor","increment":"1"},{"attributeTypeString":"Adrenaline","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Sunshine","increment":"50"},{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"Power","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"Lucky","increment":"1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"GoldCoins","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"GoldCoins","increment":"30"},{"attributeTypeString":"Lucky","increment":"4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Lucky","increment":"3"},{"attributeTypeString":"Sunshine","increment":"50"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"3"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"4"},{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"-5"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"6"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"8"},{"attributeTypeString":"Power","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"8"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Speed","increment":"-5"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"-6"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"15"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"GoldCoins","increment":"20"},{"attributeTypeString":"Lucky","increment":"3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"25"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"20"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"GoldCoins","increment":"50"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Botany","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"20"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Sunshine","increment":"100"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"3"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"PercentageDamage","increment":"8"},{"attributeTypeString":"Speed","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"Armor","increment":"6"},{"attributeTypeString":"Range","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"6"},{"attributeTypeString":"Armor","increment":"6"},{"attributeTypeString":"Range","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"15"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Speed","increment":"-8"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"25"},{"attributeTypeString":"GoldCoins","increment":"25"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Power","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"6"},{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-6"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"10"},{"attributeTypeString":"Lucky","increment":"8"},{"attributeTypeString":"GoldCoins","increment":"30"},{"attributeTypeString":"Range","increment":"-20"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"6"},{"attributeTypeString":"Range","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"6"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"32"},{"attributeTypeString":"Speed","increment":"30"},{"attributeTypeString":"Armor","increment":"7"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"GoldCoins","increment":"60"},{"attributeTypeString":"LifeRecovery","increment":"-10"},{"attributeTypeString":"AttackSpeed","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"PercentageDamage","increment":"30"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"Speed","increment":"15"},{"attributeTypeString":"AttackSpeed","increment":"15"},{"attributeTypeString":"Sunshine","increment":"200"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Lucky","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"40"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Lucky","increment":"6"},{"attributeTypeString":"LifeRecovery","increment":"6"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Sunshine","increment":"100"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Power","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>一个下巴？\r\n&lt;color=#00ff00&gt;+2肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n看起来令人毛骨悚然</t>
-  </si>
-  <si>
-    <t>正在哭泣的红心\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n她看起来好可怜</t>
-  </si>
-  <si>
-    <t>牵引金币的磁铁\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;金币&lt;/color&gt;了\r\n但是相互作用力之下，我的速度也收到了影响</t>
-  </si>
-  <si>
-    <t>吸收阳光的黑洞\r\n&lt;color=#ff0000&gt;-4植物学&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;阳光&lt;/color&gt;了\r\n植物好像非常害怕它</t>
-  </si>
-  <si>
-    <t>金属盘子\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n可以用来干饭</t>
-  </si>
-  <si>
-    <t>长牙齿的咽喉？\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5生命恢复&lt;/color&gt;\r\n看起来更像一条蛇</t>
-  </si>
-  <si>
-    <t>小海菇的帽子\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3最大生命值&lt;/color&gt;\r\n可以好好研究一下</t>
-  </si>
-  <si>
-    <t>阳光菇帽子\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n可以好好研究一下</t>
-  </si>
-  <si>
-    <t>戴夫的胡须\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n这是我的胡子</t>
-  </si>
-  <si>
-    <t>眼镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n戴上后视野会变得清晰</t>
-  </si>
-  <si>
-    <t>叶子\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n不知道属于哪个植物</t>
-  </si>
-  <si>
-    <t>小花\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n看起来很眼熟</t>
-  </si>
-  <si>
-    <t>肥料\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n应该能帮到植物们</t>
-  </si>
-  <si>
-    <t>车钥匙\r\n&lt;color=#9932CD&gt;可以免费刷新一次商品&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>钱袋\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n里面能装不少钱</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;钻石&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n亮闪亮闪的很漂亮</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;葵花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n向日葵的花瓣，不知道有没有葵花籽</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;篮子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n好像是某个投手的投射器</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;耙子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n这件兵器很趁手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;水壶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n对植物们很有帮助</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;小丑礼盒&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n一个会爆炸的礼盒，我得小心收藏</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;一朵水花？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n哪个跳水队都比不过这一朵</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;一卷草皮？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n铺开躺上去一定很舒服</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;一根地刺&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n都不想踩在上面</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;蜗牛&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n应该对植物有所帮助，跑得太慢了</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;杀虫剂&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6生命恢复&lt;/color&gt;\r\n气味很难闻，可以帮助植物对抗虫子</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;铲子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以铲掉花园中的泥土，放置花盆</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;卡槽&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以增加出战植物的上限</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;书&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15植物学&lt;/color&gt;\r\n可以学到许多知识</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;奖杯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n荣誉的象征</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;三明治&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n看起来很好吃</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;一把锁&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n可以对准</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;留声机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3护甲&lt;/color&gt;\r\n听听音乐放松一下</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;冰镇西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n吃太多会拉肚子</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n肚子都要被撑爆了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;水花盆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n可以在上面种荷叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎蛋壳\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n可以看出孕育出来了新的生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险提醒\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5伤害&lt;/color&gt;\r\n前面的区域很危险，以后再来探索吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;金盏花瓣&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n看看她是这么产生金币的</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;智慧树肥料&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n这个好</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;篮球&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n听说鸽鸽很会玩这个</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n并且对某直线上的僵尸造成{0}\r\n伤害冷却时间{1}</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;铁桶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自铁桶僵尸的战利品，但是会影响到我的视野</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;路障&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自路障僵尸的战利品，但是会影响到我的视野</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;铁栅栏&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8速度&lt;/color&gt;\r\n来自铁栅栏僵尸的战利品，会影响到我正常走路</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;报纸&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3力量&lt;/color&gt;\r\n来自读报僵尸的战利品，里面蕴含的知识可真不少</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;扶梯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6攻击速度&lt;/color&gt;\r\n来自扶梯僵尸的战利品，能攻击到更远的地方了</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;橄榄球头盔&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20范围&lt;/color&gt;\r\n来自橄榄球僵尸的战利品，会影响到我的视野</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;路牌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n来自巨人僵尸的战利品，这么重的玩意儿太影响我的移动速度了</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;推土车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;&lt;/color&gt;\r\n能托运泥土，锻炼身体，但是老了推不太动</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;冰碎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10攻击速度&lt;/color&gt;\r\n看起来就很冷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;火焰&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15攻击速度&lt;/color&gt;\r\n自身每秒&lt;color=#ff0000&gt;{0}生命值&lt;/color&gt;\r\n火焰正在燃烧</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;传送门&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10幸运&lt;/color&gt;\r\n可在场上随机位置生成两个传送门，这很酷\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;雾机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n有概率产生雾，免疫远程攻击\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;灯光机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击率&lt;/color&gt;\r\n有灯光才有气氛\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;麦克风&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5力量&lt;/color&gt;\r\n使我变成大明星\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;音响&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n使我的声音传的更远\r\n</t>
-  </si>
-  <si>
-    <t>Pot_Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basketball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bucket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guideboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screendoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icetrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CobCannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 玉米加农炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop/Plants/CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantName_CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantInfo_CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n可以有效的保护我的脑子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣棍\r\n&lt;color=#00ff00&gt;+3生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3植物学&lt;/color&gt;\r\n敲锣用的锣棍,敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣点燃的炸弹\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n感觉立马会爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n看起来很美味的南瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2暴击率&lt;/color&gt;\r\n飞机的机翼，速度应该很快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损滑板\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n破损的滑板，用了可能会摔跤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄油\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击伤害&lt;/color&gt;\r\n听说玉米投手有可能会投射黄油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵杆\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n好像是游戏操作杆，似乎损坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;锦旗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n僵尸的锦旗，看起来他们很喜欢脑子\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;录音机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n应该也可以用来播放磁带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;假面&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5暴击率&lt;/color&gt;\r\n假面超人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;鸡腿&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8生命恢复&lt;/color&gt;\r\n喷香的大鸡腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n天上掉下来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰块&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n亮晶晶的冰块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;蝠翼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;裙摆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;能有效保护我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;伞&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;最靓的仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎的帽子\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n勉强能挡住一点点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;松果&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n可爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸左手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的左手，看起来充满力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸右手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的右手，看起来充满力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;模仿者&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿者\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n不知道什么的底座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁僵尸令\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n此处禁止僵尸\r\n&lt;color=#00ff00&gt;僵尸数量减少10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;撑杆跳杆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n撑杆跳僵尸的杆杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n火焰皮肤的小推车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;未知按钮&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n不知道控制什么的按钮，刺激</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1910,11 +2140,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2033,8 +2268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}" name="Shopping___副本" displayName="Shopping___副本" ref="A1:J60" totalsRowShown="0">
-  <autoFilter ref="A1:J60" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}" name="Shopping___副本" displayName="Shopping___副本" ref="A1:J92" totalsRowShown="0">
+  <autoFilter ref="A1:J92" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{41AEE3DD-9591-4853-9451-0185E1142C81}" name="id" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{0E6A0219-B161-4DFA-86C2-D1B6C6B1DF9E}" name="唯一标识"/>
@@ -2381,7 +2616,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2415,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2430,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2441,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2456,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2467,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2482,7 +2717,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2493,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2508,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2519,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2534,7 +2769,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -2545,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2560,7 +2795,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -2571,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2586,7 +2821,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -2600,7 +2835,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2615,7 +2850,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -2629,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2644,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -2658,7 +2893,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2673,7 +2908,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -2687,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2702,7 +2937,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -2716,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2731,7 +2966,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -2745,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2760,7 +2995,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H16">
         <v>13</v>
@@ -2774,7 +3009,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2789,7 +3024,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H17">
         <v>14</v>
@@ -2803,7 +3038,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2818,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -2832,7 +3067,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2847,7 +3082,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H19">
         <v>16</v>
@@ -2861,7 +3096,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2876,7 +3111,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H20">
         <v>17</v>
@@ -2890,7 +3125,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2905,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H21">
         <v>18</v>
@@ -2919,7 +3154,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2934,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H22">
         <v>19</v>
@@ -2948,7 +3183,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2963,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -2977,7 +3212,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -2992,7 +3227,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H24">
         <v>21</v>
@@ -3006,7 +3241,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -3021,7 +3256,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H25">
         <v>22</v>
@@ -3035,7 +3270,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -3050,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H26">
         <v>23</v>
@@ -3064,7 +3299,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -3079,7 +3314,7 @@
         <v>44</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H27">
         <v>24</v>
@@ -3093,7 +3328,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -3108,7 +3343,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H28">
         <v>25</v>
@@ -3122,7 +3357,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -3137,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H29">
         <v>26</v>
@@ -3151,7 +3386,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -3166,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -3180,7 +3415,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -3195,7 +3430,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -3209,7 +3444,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -3224,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H32">
         <v>29</v>
@@ -3238,7 +3473,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -3253,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -3267,7 +3502,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -3282,7 +3517,7 @@
         <v>54</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H34">
         <v>31</v>
@@ -3296,7 +3531,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -3311,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -3325,7 +3560,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -3340,7 +3575,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -3354,7 +3589,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -3369,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H37">
         <v>34</v>
@@ -3383,7 +3618,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -3398,7 +3633,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H38">
         <v>35</v>
@@ -3412,7 +3647,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -3427,7 +3662,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H39">
         <v>36</v>
@@ -3441,7 +3676,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -3456,7 +3691,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H40">
         <v>37</v>
@@ -3470,7 +3705,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -3485,7 +3720,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H41">
         <v>38</v>
@@ -3499,7 +3734,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -3514,7 +3749,7 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H42">
         <v>39</v>
@@ -3528,13 +3763,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E43">
         <v>150</v>
@@ -3543,7 +3778,7 @@
         <v>500</v>
       </c>
       <c r="G43" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -4174,10 +4409,10 @@
     </row>
     <row r="168" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K168" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L168" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -4194,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="K52" workbookViewId="0">
+      <selection activeCell="X91" sqref="X91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4236,13 +4471,13 @@
         <v>314</v>
       </c>
       <c r="G1" t="s">
-        <v>315</v>
+        <v>611</v>
       </c>
       <c r="H1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" t="s">
         <v>317</v>
-      </c>
-      <c r="I1" t="s">
-        <v>318</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>312</v>
@@ -4268,7 +4503,7 @@
         <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" t="s">
         <v>309</v>
@@ -4326,7 +4561,7 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F4" t="s">
         <v>166</v>
@@ -4341,10 +4576,10 @@
         <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4361,7 +4596,7 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F5" t="s">
         <v>166</v>
@@ -4376,10 +4611,10 @@
         <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4396,7 +4631,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F6" t="s">
         <v>166</v>
@@ -4411,10 +4646,10 @@
         <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4431,7 +4666,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F7" t="s">
         <v>166</v>
@@ -4446,10 +4681,10 @@
         <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4466,7 +4701,7 @@
         <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F8" t="s">
         <v>166</v>
@@ -4481,10 +4716,10 @@
         <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4501,7 +4736,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F9" t="s">
         <v>166</v>
@@ -4516,10 +4751,10 @@
         <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4536,7 +4771,7 @@
         <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F10" t="s">
         <v>166</v>
@@ -4551,10 +4786,10 @@
         <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4571,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F11" t="s">
         <v>166</v>
@@ -4586,10 +4821,10 @@
         <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4606,7 +4841,7 @@
         <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F12" t="s">
         <v>166</v>
@@ -4621,10 +4856,10 @@
         <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4641,7 +4876,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F13" t="s">
         <v>166</v>
@@ -4656,10 +4891,10 @@
         <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4676,7 +4911,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F14" t="s">
         <v>166</v>
@@ -4691,10 +4926,10 @@
         <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4711,7 +4946,7 @@
         <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F15" t="s">
         <v>166</v>
@@ -4726,10 +4961,10 @@
         <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4746,7 +4981,7 @@
         <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F16" t="s">
         <v>166</v>
@@ -4761,10 +4996,10 @@
         <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4772,7 +5007,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -4781,7 +5016,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F17" t="s">
         <v>166</v>
@@ -4799,7 +5034,7 @@
         <v>311</v>
       </c>
       <c r="L17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4816,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F18" t="s">
         <v>166</v>
@@ -4831,10 +5066,10 @@
         <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4851,7 +5086,7 @@
         <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F19" t="s">
         <v>202</v>
@@ -4866,10 +5101,10 @@
         <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4886,7 +5121,7 @@
         <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F20" t="s">
         <v>202</v>
@@ -4901,10 +5136,10 @@
         <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4921,7 +5156,7 @@
         <v>207</v>
       </c>
       <c r="E21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F21" t="s">
         <v>202</v>
@@ -4936,10 +5171,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4956,7 +5191,7 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F22" t="s">
         <v>202</v>
@@ -4971,10 +5206,10 @@
         <v>40</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4991,7 +5226,7 @@
         <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F23" t="s">
         <v>202</v>
@@ -5006,10 +5241,10 @@
         <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5026,7 +5261,7 @@
         <v>215</v>
       </c>
       <c r="E24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24" t="s">
         <v>202</v>
@@ -5041,10 +5276,10 @@
         <v>40</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5061,7 +5296,7 @@
         <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F25" t="s">
         <v>202</v>
@@ -5076,10 +5311,10 @@
         <v>40</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5096,7 +5331,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F26" t="s">
         <v>202</v>
@@ -5111,10 +5346,10 @@
         <v>40</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5131,7 +5366,7 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F27" t="s">
         <v>202</v>
@@ -5146,10 +5381,10 @@
         <v>40</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5166,7 +5401,7 @@
         <v>201</v>
       </c>
       <c r="E28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F28" t="s">
         <v>202</v>
@@ -5181,10 +5416,10 @@
         <v>40</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5201,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F29" t="s">
         <v>202</v>
@@ -5216,10 +5451,10 @@
         <v>40</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5236,7 +5471,7 @@
         <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F30" t="s">
         <v>202</v>
@@ -5251,10 +5486,10 @@
         <v>40</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5271,7 +5506,7 @@
         <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F31" t="s">
         <v>202</v>
@@ -5286,10 +5521,10 @@
         <v>40</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5306,7 +5541,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F32" t="s">
         <v>202</v>
@@ -5321,10 +5556,10 @@
         <v>40</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L32" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5341,7 +5576,7 @@
         <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F33" t="s">
         <v>202</v>
@@ -5356,10 +5591,10 @@
         <v>40</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5376,7 +5611,7 @@
         <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -5391,10 +5626,10 @@
         <v>40</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5411,7 +5646,7 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F35" t="s">
         <v>202</v>
@@ -5426,10 +5661,10 @@
         <v>40</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L35" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5446,7 +5681,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F36" t="s">
         <v>202</v>
@@ -5461,10 +5696,10 @@
         <v>40</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L36" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5481,7 +5716,7 @@
         <v>244</v>
       </c>
       <c r="E37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F37" t="s">
         <v>245</v>
@@ -5496,10 +5731,10 @@
         <v>40</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5516,7 +5751,7 @@
         <v>248</v>
       </c>
       <c r="E38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F38" t="s">
         <v>245</v>
@@ -5531,10 +5766,10 @@
         <v>40</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5542,7 +5777,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C39" t="s">
         <v>249</v>
@@ -5551,7 +5786,7 @@
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F39" t="s">
         <v>245</v>
@@ -5566,10 +5801,10 @@
         <v>40</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L39" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5586,7 +5821,7 @@
         <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F40" t="s">
         <v>245</v>
@@ -5601,10 +5836,10 @@
         <v>40</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L40" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5621,7 +5856,7 @@
         <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F41" t="s">
         <v>245</v>
@@ -5636,10 +5871,10 @@
         <v>40</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L41" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5656,7 +5891,7 @@
         <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F42" t="s">
         <v>245</v>
@@ -5671,10 +5906,10 @@
         <v>40</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L42" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5682,7 +5917,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C43" t="s">
         <v>259</v>
@@ -5691,7 +5926,7 @@
         <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -5706,10 +5941,10 @@
         <v>40</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L43" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5726,7 +5961,7 @@
         <v>263</v>
       </c>
       <c r="E44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F44" t="s">
         <v>245</v>
@@ -5741,10 +5976,10 @@
         <v>265</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L44" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5752,7 +5987,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C45" t="s">
         <v>266</v>
@@ -5761,7 +5996,7 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F45" t="s">
         <v>245</v>
@@ -5776,10 +6011,10 @@
         <v>40</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L45" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5787,7 +6022,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C46" t="s">
         <v>267</v>
@@ -5796,7 +6031,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F46" t="s">
         <v>245</v>
@@ -5811,10 +6046,10 @@
         <v>40</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L46" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5822,7 +6057,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C47" t="s">
         <v>268</v>
@@ -5831,7 +6066,7 @@
         <v>269</v>
       </c>
       <c r="E47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F47" t="s">
         <v>245</v>
@@ -5846,10 +6081,10 @@
         <v>40</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L47" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5857,7 +6092,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C48" t="s">
         <v>270</v>
@@ -5866,7 +6101,7 @@
         <v>271</v>
       </c>
       <c r="E48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -5881,10 +6116,10 @@
         <v>40</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L48" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5901,7 +6136,7 @@
         <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F49" t="s">
         <v>245</v>
@@ -5916,10 +6151,10 @@
         <v>40</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L49" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5927,7 +6162,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C50" t="s">
         <v>275</v>
@@ -5936,7 +6171,7 @@
         <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F50" t="s">
         <v>245</v>
@@ -5951,10 +6186,10 @@
         <v>40</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L50" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5962,7 +6197,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C51" t="s">
         <v>277</v>
@@ -5971,7 +6206,7 @@
         <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F51" t="s">
         <v>245</v>
@@ -5986,10 +6221,10 @@
         <v>40</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L51" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6006,7 +6241,7 @@
         <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F52" t="s">
         <v>245</v>
@@ -6021,10 +6256,10 @@
         <v>40</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L52" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6032,7 +6267,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C53" t="s">
         <v>281</v>
@@ -6041,7 +6276,7 @@
         <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F53" t="s">
         <v>283</v>
@@ -6056,10 +6291,10 @@
         <v>40</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L53" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6067,7 +6302,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C54" t="s">
         <v>284</v>
@@ -6076,7 +6311,7 @@
         <v>285</v>
       </c>
       <c r="E54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F54" t="s">
         <v>283</v>
@@ -6091,10 +6326,10 @@
         <v>40</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L54" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6111,7 +6346,7 @@
         <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F55" t="s">
         <v>283</v>
@@ -6126,10 +6361,10 @@
         <v>202</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L55" t="s">
-        <v>560</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6146,7 +6381,7 @@
         <v>292</v>
       </c>
       <c r="E56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F56" t="s">
         <v>283</v>
@@ -6161,10 +6396,10 @@
         <v>40</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L56" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6181,7 +6416,7 @@
         <v>295</v>
       </c>
       <c r="E57" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F57" t="s">
         <v>283</v>
@@ -6196,10 +6431,10 @@
         <v>40</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L57" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6216,7 +6451,7 @@
         <v>298</v>
       </c>
       <c r="E58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F58" t="s">
         <v>283</v>
@@ -6231,10 +6466,10 @@
         <v>40</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L58" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6251,7 +6486,7 @@
         <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F59" t="s">
         <v>283</v>
@@ -6266,10 +6501,10 @@
         <v>40</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L59" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6286,7 +6521,7 @@
         <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>454</v>
+        <v>612</v>
       </c>
       <c r="F60" t="s">
         <v>283</v>
@@ -6301,17 +6536,1137 @@
         <v>40</v>
       </c>
       <c r="J60" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L60" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>580</v>
+      </c>
+      <c r="C61" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/brokenEggshell</v>
+      </c>
+      <c r="D61" s="6">
+        <v>25</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_brokenEggshell</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="L61" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>579</v>
+      </c>
+      <c r="C62" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/dangerReminder</v>
+      </c>
+      <c r="D62" s="6">
+        <v>22</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_dangerReminder</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="L62" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>581</v>
+      </c>
+      <c r="C63" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/goggles</v>
+      </c>
+      <c r="D63" s="6">
+        <v>20</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_goggles</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="L63" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
         <v>582</v>
       </c>
-      <c r="L60" t="s">
-        <v>565</v>
+      <c r="C64" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/staff</v>
+      </c>
+      <c r="D64" s="6">
+        <v>28</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_staff</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="L64" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>583</v>
+      </c>
+      <c r="C65" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/shell</v>
+      </c>
+      <c r="D65" s="6">
+        <v>22</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_shell</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="L65" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>584</v>
+      </c>
+      <c r="C66" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/gong</v>
+      </c>
+      <c r="D66" s="6">
+        <v>24</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_gong</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="L66" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>585</v>
+      </c>
+      <c r="C67" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/gongStick</v>
+      </c>
+      <c r="D67" s="6">
+        <v>24</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_gongStick</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="L67" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>586</v>
+      </c>
+      <c r="C68" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/ignitedBomb</v>
+      </c>
+      <c r="D68" s="6">
+        <v>25</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_ignitedBomb</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="L68" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>587</v>
+      </c>
+      <c r="C69" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/pumpkin</v>
+      </c>
+      <c r="D69" s="6">
+        <v>30</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_pumpkin</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="L69" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>588</v>
+      </c>
+      <c r="C70" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/wing</v>
+      </c>
+      <c r="D70" s="6">
+        <v>24</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_wing</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="L70" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>589</v>
+      </c>
+      <c r="C71" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/pennant</v>
+      </c>
+      <c r="D71" s="6">
+        <v>55</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_pennant</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="L71" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>590</v>
+      </c>
+      <c r="C72" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/damagedSkateboard</v>
+      </c>
+      <c r="D72" s="6">
+        <v>22</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_damagedSkateboard</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="L72" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>591</v>
+      </c>
+      <c r="C73" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/butter</v>
+      </c>
+      <c r="D73" s="6">
+        <v>20</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_butter</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="L73" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>592</v>
+      </c>
+      <c r="C74" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/actionBars</v>
+      </c>
+      <c r="D74" s="6">
+        <v>22</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_actionBars</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="L74" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>593</v>
+      </c>
+      <c r="C75" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/recorder</v>
+      </c>
+      <c r="D75" s="6">
+        <v>50</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_recorder</v>
+      </c>
+      <c r="F75" s="6">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="L75" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>594</v>
+      </c>
+      <c r="C76" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/mask</v>
+      </c>
+      <c r="D76" s="6">
+        <v>70</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_mask</v>
+      </c>
+      <c r="F76" s="6">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="L76" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>595</v>
+      </c>
+      <c r="C77" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/drumsticks</v>
+      </c>
+      <c r="D77" s="6">
+        <v>66</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_drumsticks</v>
+      </c>
+      <c r="F77" s="6">
+        <v>2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="L77" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>596</v>
+      </c>
+      <c r="C78" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/cloud</v>
+      </c>
+      <c r="D78" s="6">
+        <v>45</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_cloud</v>
+      </c>
+      <c r="F78" s="6">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="L78" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>597</v>
+      </c>
+      <c r="C79" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/iceCake</v>
+      </c>
+      <c r="D79" s="6">
+        <v>50</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_iceCake</v>
+      </c>
+      <c r="F79" s="6">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" s="5"/>
+      <c r="L79" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>598</v>
+      </c>
+      <c r="C80" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/batWings</v>
+      </c>
+      <c r="D80" s="6">
+        <v>45</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_batWings</v>
+      </c>
+      <c r="F80" s="6">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s">
+        <v>40</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="L80" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>599</v>
+      </c>
+      <c r="C81" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/hemline</v>
+      </c>
+      <c r="D81" s="6">
+        <v>47</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_hemline</v>
+      </c>
+      <c r="F81" s="6">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="L81" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>600</v>
+      </c>
+      <c r="C82" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/umbrella</v>
+      </c>
+      <c r="D82" s="6">
+        <v>52</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_umbrella</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="L82" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>601</v>
+      </c>
+      <c r="C83" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/brokenHat</v>
+      </c>
+      <c r="D83" s="6">
+        <v>26</v>
+      </c>
+      <c r="E83" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_brokenHat</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="L83" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>602</v>
+      </c>
+      <c r="C84" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/pinecone</v>
+      </c>
+      <c r="D84" s="6">
+        <v>150</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_pinecone</v>
+      </c>
+      <c r="F84" s="6">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s">
+        <v>40</v>
+      </c>
+      <c r="J84" s="5"/>
+      <c r="L84" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>603</v>
+      </c>
+      <c r="C85" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/zombieRightHand</v>
+      </c>
+      <c r="D85" s="6">
+        <v>120</v>
+      </c>
+      <c r="E85" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_zombieRightHand</v>
+      </c>
+      <c r="F85" s="6">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" s="5"/>
+      <c r="L85" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>604</v>
+      </c>
+      <c r="C86" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/zombieLeftHand</v>
+      </c>
+      <c r="D86" s="6">
+        <v>120</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_zombieLeftHand</v>
+      </c>
+      <c r="F86" s="6">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="L86" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>605</v>
+      </c>
+      <c r="C87" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/imitator</v>
+      </c>
+      <c r="D87" s="6">
+        <v>300</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_imitator</v>
+      </c>
+      <c r="F87" s="6">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="5"/>
+      <c r="L87" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>606</v>
+      </c>
+      <c r="C88" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/base</v>
+      </c>
+      <c r="D88" s="6">
+        <v>16</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_base</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="L88" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>607</v>
+      </c>
+      <c r="C89" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/zombieBanOrder</v>
+      </c>
+      <c r="D89" s="6">
+        <v>15</v>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_zombieBanOrder</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="L89" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>608</v>
+      </c>
+      <c r="C90" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/PoleVaulting</v>
+      </c>
+      <c r="D90" s="6">
+        <v>130</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_PoleVaulting</v>
+      </c>
+      <c r="F90" s="6">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="L90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>609</v>
+      </c>
+      <c r="C91" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/cart</v>
+      </c>
+      <c r="D91" s="6">
+        <v>45</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_cart</v>
+      </c>
+      <c r="F91" s="6">
+        <v>2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="L91" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>610</v>
+      </c>
+      <c r="C92" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/unknownButton</v>
+      </c>
+      <c r="D92" s="6">
+        <v>56</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_unknownButton</v>
+      </c>
+      <c r="F92" s="6">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="L92" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:I60 D4:D60" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:I60 D4:D60 G61:I92" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75E8EB-372A-4D2C-AEEE-35B749D5F597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D17E34-74EF-42E3-81FD-E78E9DF45960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="1920" windowWidth="27210" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -21,17 +21,50 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>sorrow t</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{77E6A2D2-2C60-4397-B9C7-08B0A4290EB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>sorrow t:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+道具类型
+0，普通属性
+1，小推车， value1 伤害 
+2，火焰  ，value1 伤害
+3，木槌 ， value1 伤害
+4，演唱会
+5，僵尸增减 value1 增减百分比</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="682">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -1000,9 +1033,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>defalutDamage</t>
-  </si>
-  <si>
     <t>coolingTime</t>
   </si>
   <si>
@@ -1019,14 +1049,6 @@
     <t>品质</t>
   </si>
   <si>
-    <t>propDamageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1924,156 +1946,277 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>unknownButton</t>
+  </si>
+  <si>
+    <t>propInfo_speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎蛋壳\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n可以看出孕育出来了新的生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险提醒\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5伤害&lt;/color&gt;\r\n前面的区域很危险，以后再来探索吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n可以有效的保护我的脑子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣棍\r\n&lt;color=#00ff00&gt;+3生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3植物学&lt;/color&gt;\r\n敲锣用的锣棍,敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣点燃的炸弹\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n感觉立马会爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n看起来很美味的南瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2暴击率&lt;/color&gt;\r\n飞机的机翼，速度应该很快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损滑板\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n破损的滑板，用了可能会摔跤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄油\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击伤害&lt;/color&gt;\r\n听说玉米投手有可能会投射黄油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵杆\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n好像是游戏操作杆，似乎损坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;录音机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n应该也可以用来播放磁带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;假面&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5暴击率&lt;/color&gt;\r\n假面超人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;鸡腿&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8生命恢复&lt;/color&gt;\r\n喷香的大鸡腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n天上掉下来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰块&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n亮晶晶的冰块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;蝠翼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;裙摆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;能有效保护我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;伞&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;最靓的仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎的帽子\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n勉强能挡住一点点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;松果&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n可爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸左手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的左手，看起来充满力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸右手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的右手，看起来充满力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;模仿者&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿者\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n不知道什么的底座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁僵尸令\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n此处禁止僵尸\r\n&lt;color=#00ff00&gt;僵尸数量减少10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;撑杆跳杆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n撑杆跳僵尸的杆杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n火焰皮肤的小推车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;未知按钮&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n不知道控制什么的按钮，刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;锦旗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n僵尸的锦旗，看起来他们很喜欢脑子\r\n&lt;color=#ff0000&gt;僵尸数量增多10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Power","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"3"},{"attributeTypeString":"PercentageDamage","increment":"6"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Botany","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"4"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"3"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"Speed","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"4"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"GoldCoins","increment":"5"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Range","increment":"-10"},{"attributeTypeString":"CriticalHitRate","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"8"},{"attributeTypeString":"LifeRecovery","increment":"8"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"6"},{"attributeTypeString":"Range","increment":"6"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Range","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"1"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Range","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-10"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"CriticalDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"50"},{"attributeTypeString":"LifeRecovery","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Power","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Speed","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>zamboni</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰车轮胎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n从冰车上写下来的轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PoleVaulting</t>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>unknownButton</t>
-  </si>
-  <si>
-    <t>伤害类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propInfo_speaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎蛋壳\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n可以看出孕育出来了新的生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>危险提醒\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5伤害&lt;/color&gt;\r\n前面的区域很危险，以后再来探索吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝壳\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n可以有效的保护我的脑子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣棍\r\n&lt;color=#00ff00&gt;+3生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3植物学&lt;/color&gt;\r\n敲锣用的锣棍,敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣点燃的炸弹\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n感觉立马会爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n看起来很美味的南瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2暴击率&lt;/color&gt;\r\n飞机的机翼，速度应该很快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破损滑板\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n破损的滑板，用了可能会摔跤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄油\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击伤害&lt;/color&gt;\r\n听说玉米投手有可能会投射黄油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操纵杆\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n好像是游戏操作杆，似乎损坏了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;锦旗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n僵尸的锦旗，看起来他们很喜欢脑子\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;录音机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n应该也可以用来播放磁带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;假面&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5暴击率&lt;/color&gt;\r\n假面超人！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;鸡腿&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8生命恢复&lt;/color&gt;\r\n喷香的大鸡腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n天上掉下来的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;冰块&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n亮晶晶的冰块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;蝠翼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;裙摆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;能有效保护我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;伞&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;最靓的仔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎的帽子\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n勉强能挡住一点点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;松果&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n可爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;僵尸左手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的左手，看起来充满力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;僵尸右手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的右手，看起来充满力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;模仿者&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模仿者\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n不知道什么的底座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁僵尸令\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n此处禁止僵尸\r\n&lt;color=#00ff00&gt;僵尸数量减少10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;撑杆跳杆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n撑杆跳僵尸的杆杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n火焰皮肤的小推车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;未知按钮&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n不知道控制什么的按钮，刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2081,7 +2224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2112,6 +2255,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2140,14 +2298,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2155,12 +2314,25 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{3C308844-11D1-4F6C-A9B1-5C82DB9D8054}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2251,35 +2423,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}" name="Shopping" displayName="Shopping" ref="A1:H43" totalsRowShown="0" dataDxfId="11" dataCellStyle="常规">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}" name="Shopping" displayName="Shopping" ref="A1:H43" totalsRowShown="0" dataDxfId="15" dataCellStyle="常规">
   <autoFilter ref="A1:H43" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AC5584-B0DF-458D-84BD-9187946E94E8}" name="id" dataDxfId="10" dataCellStyle="常规"/>
-    <tableColumn id="2" xr3:uid="{DF9341C8-8964-45E4-BD06-65D1F895C6EB}" name="植物名" dataDxfId="9" dataCellStyle="常规"/>
-    <tableColumn id="3" xr3:uid="{6F456206-C581-4EFB-BC4F-F8639AA6BE97}" name="卡片背景路径" dataDxfId="8" dataCellStyle="常规"/>
-    <tableColumn id="4" xr3:uid="{2022E7B0-0AA5-45B4-8747-4655D1368B44}" name="植物图片路径" dataDxfId="7" dataCellStyle="常规"/>
-    <tableColumn id="5" xr3:uid="{CA5CE116-EFD9-4395-8713-1321B84A4763}" name="默认价格" dataDxfId="6" dataCellStyle="常规"/>
-    <tableColumn id="6" xr3:uid="{B8419F74-8DC0-4200-B8DB-CB44135DA68B}" name="默认消耗阳光" dataDxfId="5" dataCellStyle="常规"/>
-    <tableColumn id="7" xr3:uid="{6FE903FE-BAE1-405B-88AE-D7577F63EC7C}" name="描述" dataDxfId="4" dataCellStyle="常规"/>
-    <tableColumn id="8" xr3:uid="{C73B882D-DDCD-4685-9A03-23211CFAD34A}" name="植物类型" dataDxfId="3" dataCellStyle="常规"/>
+    <tableColumn id="1" xr3:uid="{50AC5584-B0DF-458D-84BD-9187946E94E8}" name="id" dataDxfId="14" dataCellStyle="常规"/>
+    <tableColumn id="2" xr3:uid="{DF9341C8-8964-45E4-BD06-65D1F895C6EB}" name="植物名" dataDxfId="13" dataCellStyle="常规"/>
+    <tableColumn id="3" xr3:uid="{6F456206-C581-4EFB-BC4F-F8639AA6BE97}" name="卡片背景路径" dataDxfId="12" dataCellStyle="常规"/>
+    <tableColumn id="4" xr3:uid="{2022E7B0-0AA5-45B4-8747-4655D1368B44}" name="植物图片路径" dataDxfId="11" dataCellStyle="常规"/>
+    <tableColumn id="5" xr3:uid="{CA5CE116-EFD9-4395-8713-1321B84A4763}" name="默认价格" dataDxfId="10" dataCellStyle="常规"/>
+    <tableColumn id="6" xr3:uid="{B8419F74-8DC0-4200-B8DB-CB44135DA68B}" name="默认消耗阳光" dataDxfId="9" dataCellStyle="常规"/>
+    <tableColumn id="7" xr3:uid="{6FE903FE-BAE1-405B-88AE-D7577F63EC7C}" name="描述" dataDxfId="8" dataCellStyle="常规"/>
+    <tableColumn id="8" xr3:uid="{C73B882D-DDCD-4685-9A03-23211CFAD34A}" name="植物类型" dataDxfId="7" dataCellStyle="常规"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}" name="Shopping___副本" displayName="Shopping___副本" ref="A1:J92" totalsRowShown="0">
-  <autoFilter ref="A1:J92" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}" name="Shopping___副本" displayName="Shopping___副本" ref="A1:J93" totalsRowShown="0">
+  <autoFilter ref="A1:J93" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{41AEE3DD-9591-4853-9451-0185E1142C81}" name="id" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{41AEE3DD-9591-4853-9451-0185E1142C81}" name="id" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{0E6A0219-B161-4DFA-86C2-D1B6C6B1DF9E}" name="唯一标识"/>
     <tableColumn id="3" xr3:uid="{3AD8CC7E-FD3E-47AD-A58A-526646F0EE37}" name="商店道具图标"/>
-    <tableColumn id="4" xr3:uid="{3FBB882A-65E9-46D4-8CBD-66295CF0BD65}" name="默认价格"/>
-    <tableColumn id="5" xr3:uid="{58FF4BB7-45A3-44B8-B7E4-EC54CD7EC71E}" name="描述" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{770ABD48-BAB8-4FE3-B7A4-4FD8A5DEA6FB}" name="品质"/>
-    <tableColumn id="8" xr3:uid="{62EF3F61-3178-4E3A-A889-D2B146084494}" name="伤害类型" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{267AFA58-60A3-441B-8856-2F57BC021061}" name="默认伤害"/>
-    <tableColumn id="10" xr3:uid="{0834F76E-B902-4E06-808D-EF26683A35CE}" name="冷却时间"/>
+    <tableColumn id="4" xr3:uid="{3FBB882A-65E9-46D4-8CBD-66295CF0BD65}" name="默认价格" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{58FF4BB7-45A3-44B8-B7E4-EC54CD7EC71E}" name="描述" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{770ABD48-BAB8-4FE3-B7A4-4FD8A5DEA6FB}" name="品质" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{62EF3F61-3178-4E3A-A889-D2B146084494}" name="道具类型" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{267AFA58-60A3-441B-8856-2F57BC021061}" name="默认参数1" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{0834F76E-B902-4E06-808D-EF26683A35CE}" name="冷却时间" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{1FD06617-773E-4492-8657-B374CF0FE9A0}" name="获得道具对属性的增改，之前设计json更改，修改起来比较麻烦就不改了" dataCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2616,7 +2788,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2650,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2665,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2676,7 +2848,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2691,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2702,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2717,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2728,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2743,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2754,7 +2926,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2769,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -2780,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2795,7 +2967,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -2806,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2821,7 +2993,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -2835,7 +3007,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2850,7 +3022,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -2864,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2879,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -2893,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2908,7 +3080,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -2922,7 +3094,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2937,7 +3109,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -2951,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2966,7 +3138,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -2980,7 +3152,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2995,7 +3167,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H16">
         <v>13</v>
@@ -3009,7 +3181,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -3024,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H17">
         <v>14</v>
@@ -3038,7 +3210,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -3053,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -3067,7 +3239,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -3082,7 +3254,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H19">
         <v>16</v>
@@ -3096,7 +3268,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -3111,7 +3283,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H20">
         <v>17</v>
@@ -3125,7 +3297,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -3140,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H21">
         <v>18</v>
@@ -3154,7 +3326,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -3169,7 +3341,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H22">
         <v>19</v>
@@ -3183,7 +3355,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -3198,7 +3370,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -3212,7 +3384,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -3227,7 +3399,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H24">
         <v>21</v>
@@ -3241,7 +3413,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -3256,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H25">
         <v>22</v>
@@ -3270,7 +3442,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -3285,7 +3457,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H26">
         <v>23</v>
@@ -3299,7 +3471,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -3314,7 +3486,7 @@
         <v>44</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H27">
         <v>24</v>
@@ -3328,7 +3500,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -3343,7 +3515,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H28">
         <v>25</v>
@@ -3357,7 +3529,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -3372,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H29">
         <v>26</v>
@@ -3386,7 +3558,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -3401,7 +3573,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -3415,7 +3587,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -3430,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -3444,7 +3616,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -3459,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H32">
         <v>29</v>
@@ -3473,7 +3645,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -3488,7 +3660,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -3502,7 +3674,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -3517,7 +3689,7 @@
         <v>54</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H34">
         <v>31</v>
@@ -3531,7 +3703,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -3546,7 +3718,7 @@
         <v>44</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H35">
         <v>32</v>
@@ -3560,7 +3732,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -3575,7 +3747,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -3589,7 +3761,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -3604,7 +3776,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H37">
         <v>34</v>
@@ -3618,7 +3790,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -3633,7 +3805,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H38">
         <v>35</v>
@@ -3647,7 +3819,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -3662,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H39">
         <v>36</v>
@@ -3676,7 +3848,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -3691,7 +3863,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H40">
         <v>37</v>
@@ -3705,7 +3877,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -3720,7 +3892,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H41">
         <v>38</v>
@@ -3734,7 +3906,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -3749,7 +3921,7 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H42">
         <v>39</v>
@@ -3763,13 +3935,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E43">
         <v>150</v>
@@ -3778,7 +3950,7 @@
         <v>500</v>
       </c>
       <c r="G43" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -4409,10 +4581,10 @@
     </row>
     <row r="168" spans="11:12" x14ac:dyDescent="0.2">
       <c r="K168" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L168" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -4428,11 +4600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:L92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K52" workbookViewId="0">
-      <selection activeCell="X91" sqref="X91"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4440,11 +4612,11 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57.125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
@@ -4459,28 +4631,28 @@
         <v>304</v>
       </c>
       <c r="C1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="I1" t="s">
         <v>314</v>
       </c>
-      <c r="G1" t="s">
-        <v>611</v>
-      </c>
-      <c r="H1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" t="s">
-        <v>317</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4493,23 +4665,23 @@
       <c r="C2" t="s">
         <v>306</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I2" t="s">
-        <v>310</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>308</v>
@@ -4525,22 +4697,22 @@
       <c r="C3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -4557,29 +4729,29 @@
       <c r="C4" t="s">
         <v>164</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4592,29 +4764,29 @@
       <c r="C5" t="s">
         <v>168</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4627,29 +4799,29 @@
       <c r="C6" t="s">
         <v>171</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4662,29 +4834,29 @@
       <c r="C7" t="s">
         <v>173</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4697,29 +4869,29 @@
       <c r="C8" t="s">
         <v>175</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4732,29 +4904,29 @@
       <c r="C9" t="s">
         <v>178</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>402</v>
-      </c>
-      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4767,29 +4939,29 @@
       <c r="C10" t="s">
         <v>180</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>403</v>
-      </c>
-      <c r="F10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4802,29 +4974,29 @@
       <c r="C11" t="s">
         <v>183</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4837,29 +5009,29 @@
       <c r="C12" t="s">
         <v>185</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>405</v>
-      </c>
-      <c r="F12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4872,29 +5044,29 @@
       <c r="C13" t="s">
         <v>187</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L13" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4907,29 +5079,29 @@
       <c r="C14" t="s">
         <v>189</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>407</v>
-      </c>
-      <c r="F14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="G14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4942,29 +5114,29 @@
       <c r="C15" t="s">
         <v>191</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>408</v>
-      </c>
-      <c r="F15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L15" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4977,29 +5149,29 @@
       <c r="C16" t="s">
         <v>194</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>409</v>
-      </c>
-      <c r="F16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5007,34 +5179,34 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>410</v>
-      </c>
-      <c r="F17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="G17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L17" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5047,29 +5219,29 @@
       <c r="C18" t="s">
         <v>198</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>411</v>
-      </c>
-      <c r="F18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5082,29 +5254,29 @@
       <c r="C19" t="s">
         <v>200</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>412</v>
-      </c>
-      <c r="F19" t="s">
+        <v>409</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="G19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L19" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5117,29 +5289,29 @@
       <c r="C20" t="s">
         <v>203</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>413</v>
-      </c>
-      <c r="F20" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="G20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L20" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5152,29 +5324,29 @@
       <c r="C21" t="s">
         <v>206</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
-      </c>
-      <c r="F21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="G21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5187,29 +5359,29 @@
       <c r="C22" t="s">
         <v>209</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>415</v>
-      </c>
-      <c r="F22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L22" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5222,29 +5394,29 @@
       <c r="C23" t="s">
         <v>211</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>416</v>
-      </c>
-      <c r="F23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="G23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L23" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5257,29 +5429,29 @@
       <c r="C24" t="s">
         <v>214</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F24" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="G24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5292,29 +5464,29 @@
       <c r="C25" t="s">
         <v>217</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>418</v>
-      </c>
-      <c r="F25" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="G25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5327,29 +5499,29 @@
       <c r="C26" t="s">
         <v>220</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>419</v>
-      </c>
-      <c r="F26" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="G26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L26" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5362,29 +5534,29 @@
       <c r="C27" t="s">
         <v>221</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>420</v>
-      </c>
-      <c r="F27" t="s">
+        <v>417</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="G27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L27" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5397,29 +5569,29 @@
       <c r="C28" t="s">
         <v>223</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E28" t="s">
-        <v>421</v>
-      </c>
-      <c r="F28" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="G28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L28" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5432,29 +5604,29 @@
       <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>422</v>
-      </c>
-      <c r="F29" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="G29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L29" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5467,29 +5639,29 @@
       <c r="C30" t="s">
         <v>227</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>423</v>
-      </c>
-      <c r="F30" t="s">
+        <v>420</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="G30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5502,29 +5674,29 @@
       <c r="C31" t="s">
         <v>230</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" t="s">
+        <v>421</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="G31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5537,29 +5709,29 @@
       <c r="C32" t="s">
         <v>232</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>425</v>
-      </c>
-      <c r="F32" t="s">
+        <v>422</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="G32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5572,29 +5744,29 @@
       <c r="C33" t="s">
         <v>234</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>426</v>
-      </c>
-      <c r="F33" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="G33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L33" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5607,29 +5779,29 @@
       <c r="C34" t="s">
         <v>236</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>427</v>
-      </c>
-      <c r="F34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="G34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L34" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5642,29 +5814,29 @@
       <c r="C35" t="s">
         <v>239</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>428</v>
-      </c>
-      <c r="F35" t="s">
+        <v>425</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="G35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5677,29 +5849,29 @@
       <c r="C36" t="s">
         <v>241</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>429</v>
-      </c>
-      <c r="F36" t="s">
+        <v>426</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="G36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L36" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5712,29 +5884,29 @@
       <c r="C37" t="s">
         <v>243</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E37" t="s">
-        <v>430</v>
-      </c>
-      <c r="F37" t="s">
+        <v>427</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="G37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L37" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5747,29 +5919,29 @@
       <c r="C38" t="s">
         <v>247</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E38" t="s">
-        <v>431</v>
-      </c>
-      <c r="F38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="G38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L38" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5777,34 +5949,34 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C39" t="s">
         <v>249</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>432</v>
-      </c>
-      <c r="F39" t="s">
+        <v>429</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="G39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L39" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5817,29 +5989,29 @@
       <c r="C40" t="s">
         <v>251</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>433</v>
-      </c>
-      <c r="F40" t="s">
+        <v>430</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="G40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L40" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5852,29 +6024,29 @@
       <c r="C41" t="s">
         <v>254</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>434</v>
-      </c>
-      <c r="F41" t="s">
+        <v>431</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="G41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L41" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5887,29 +6059,29 @@
       <c r="C42" t="s">
         <v>257</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>435</v>
-      </c>
-      <c r="F42" t="s">
+        <v>432</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="G42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L42" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5917,34 +6089,34 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C43" t="s">
         <v>259</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>436</v>
-      </c>
-      <c r="F43" t="s">
+        <v>433</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="G43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L43" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5957,29 +6129,29 @@
       <c r="C44" t="s">
         <v>262</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E44" t="s">
-        <v>437</v>
-      </c>
-      <c r="F44" t="s">
+        <v>434</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="4" t="s">
         <v>265</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L44" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5987,34 +6159,34 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C45" t="s">
         <v>266</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>438</v>
-      </c>
-      <c r="F45" t="s">
+        <v>435</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="G45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L45" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6022,34 +6194,34 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C46" t="s">
         <v>267</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>439</v>
-      </c>
-      <c r="F46" t="s">
+        <v>436</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="G46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L46" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6057,34 +6229,34 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C47" t="s">
         <v>268</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>269</v>
       </c>
       <c r="E47" t="s">
-        <v>440</v>
-      </c>
-      <c r="F47" t="s">
+        <v>437</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L47" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6092,34 +6264,34 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C48" t="s">
         <v>270</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>271</v>
       </c>
       <c r="E48" t="s">
-        <v>441</v>
-      </c>
-      <c r="F48" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="G48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L48" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6132,29 +6304,29 @@
       <c r="C49" t="s">
         <v>273</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>442</v>
-      </c>
-      <c r="F49" t="s">
+        <v>439</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G49" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="G49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L49" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6162,34 +6334,34 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C50" t="s">
         <v>275</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>443</v>
-      </c>
-      <c r="F50" t="s">
+        <v>440</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="G50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L50" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6197,34 +6369,34 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C51" t="s">
         <v>277</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>444</v>
-      </c>
-      <c r="F51" t="s">
+        <v>441</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="G51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L51" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6237,29 +6409,29 @@
       <c r="C52" t="s">
         <v>280</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>445</v>
-      </c>
-      <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L52" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6267,34 +6439,34 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C53" t="s">
         <v>281</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>446</v>
-      </c>
-      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G53" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="G53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L53" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6302,34 +6474,34 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C54" t="s">
         <v>284</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>285</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
-      </c>
-      <c r="F54" t="s">
+        <v>444</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L54" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6342,29 +6514,29 @@
       <c r="C55" t="s">
         <v>288</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
-      </c>
-      <c r="F55" t="s">
+        <v>445</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="4" t="s">
         <v>202</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L55" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6377,29 +6549,29 @@
       <c r="C56" t="s">
         <v>291</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>292</v>
       </c>
       <c r="E56" t="s">
-        <v>449</v>
-      </c>
-      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="G56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L56" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6412,29 +6584,29 @@
       <c r="C57" t="s">
         <v>294</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>295</v>
       </c>
       <c r="E57" t="s">
-        <v>450</v>
-      </c>
-      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="H57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L57" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6447,29 +6619,29 @@
       <c r="C58" t="s">
         <v>297</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>298</v>
       </c>
       <c r="E58" t="s">
-        <v>451</v>
-      </c>
-      <c r="F58" t="s">
+        <v>448</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H58" t="s">
-        <v>40</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L58" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6482,29 +6654,29 @@
       <c r="C59" t="s">
         <v>300</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>452</v>
-      </c>
-      <c r="F59" t="s">
+        <v>449</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H59" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="H59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L59" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6517,29 +6689,29 @@
       <c r="C60" t="s">
         <v>302</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>612</v>
-      </c>
-      <c r="F60" t="s">
+        <v>607</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="H60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L60" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6547,34 +6719,36 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C61" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/brokenEggshell</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>25</v>
       </c>
-      <c r="E61" s="4" t="str">
+      <c r="E61" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_brokenEggshell</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="4">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" t="s">
-        <v>40</v>
-      </c>
-      <c r="I61" t="s">
-        <v>40</v>
-      </c>
-      <c r="J61" s="5"/>
+      <c r="G61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>646</v>
+      </c>
       <c r="L61" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6582,34 +6756,36 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C62" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/dangerReminder</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <v>22</v>
       </c>
-      <c r="E62" s="4" t="str">
+      <c r="E62" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_dangerReminder</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="4">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s">
-        <v>40</v>
-      </c>
-      <c r="I62" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62" s="5"/>
+      <c r="G62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="L62" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6617,34 +6793,36 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C63" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/goggles</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>20</v>
       </c>
-      <c r="E63" s="4" t="str">
+      <c r="E63" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_goggles</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="4">
         <v>1</v>
       </c>
-      <c r="G63" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63" t="s">
-        <v>40</v>
-      </c>
-      <c r="J63" s="5"/>
+      <c r="G63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="L63" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6652,34 +6830,36 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C64" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/staff</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="4">
         <v>28</v>
       </c>
-      <c r="E64" s="4" t="str">
+      <c r="E64" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_staff</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="4">
         <v>1</v>
       </c>
-      <c r="G64" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" t="s">
-        <v>40</v>
-      </c>
-      <c r="J64" s="5"/>
+      <c r="G64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>649</v>
+      </c>
       <c r="L64" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6687,34 +6867,36 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C65" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/shell</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <v>22</v>
       </c>
-      <c r="E65" s="4" t="str">
+      <c r="E65" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_shell</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="4">
         <v>1</v>
       </c>
-      <c r="G65" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65" s="5"/>
+      <c r="G65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>650</v>
+      </c>
       <c r="L65" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6722,34 +6904,36 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C66" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/gong</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="4">
         <v>24</v>
       </c>
-      <c r="E66" s="4" t="str">
+      <c r="E66" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_gong</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="4">
         <v>1</v>
       </c>
-      <c r="G66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s">
-        <v>40</v>
-      </c>
-      <c r="J66" s="5"/>
+      <c r="G66" s="4">
+        <v>5</v>
+      </c>
+      <c r="H66" s="4">
+        <v>5</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="L66" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6757,34 +6941,36 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C67" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/gongStick</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="4">
         <v>24</v>
       </c>
-      <c r="E67" s="4" t="str">
+      <c r="E67" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_gongStick</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="4">
         <v>1</v>
       </c>
-      <c r="G67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s">
-        <v>40</v>
-      </c>
-      <c r="J67" s="5"/>
+      <c r="G67" s="4">
+        <v>5</v>
+      </c>
+      <c r="H67" s="4">
+        <v>5</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>652</v>
+      </c>
       <c r="L67" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6792,34 +6978,36 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C68" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/ignitedBomb</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>25</v>
       </c>
-      <c r="E68" s="4" t="str">
+      <c r="E68" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_ignitedBomb</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="4">
         <v>1</v>
       </c>
-      <c r="G68" t="s">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s">
-        <v>40</v>
-      </c>
-      <c r="J68" s="5"/>
+      <c r="G68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>653</v>
+      </c>
       <c r="L68" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6827,34 +7015,36 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C69" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/pumpkin</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="4">
         <v>30</v>
       </c>
-      <c r="E69" s="4" t="str">
+      <c r="E69" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_pumpkin</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="4">
         <v>1</v>
       </c>
-      <c r="G69" t="s">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s">
-        <v>40</v>
-      </c>
-      <c r="J69" s="5"/>
+      <c r="G69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>654</v>
+      </c>
       <c r="L69" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6862,34 +7052,36 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C70" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/wing</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>24</v>
       </c>
-      <c r="E70" s="4" t="str">
+      <c r="E70" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_wing</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="4">
         <v>1</v>
       </c>
-      <c r="G70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s">
-        <v>40</v>
-      </c>
-      <c r="J70" s="5"/>
+      <c r="G70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>655</v>
+      </c>
       <c r="L70" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6897,34 +7089,36 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C71" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/pennant</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <v>55</v>
       </c>
-      <c r="E71" s="4" t="str">
+      <c r="E71" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_pennant</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="4">
         <v>1</v>
       </c>
-      <c r="G71" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s">
-        <v>40</v>
-      </c>
-      <c r="J71" s="5"/>
+      <c r="G71" s="4">
+        <v>5</v>
+      </c>
+      <c r="H71" s="4">
+        <v>10</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="L71" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6932,34 +7126,36 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C72" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/damagedSkateboard</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>22</v>
       </c>
-      <c r="E72" s="4" t="str">
+      <c r="E72" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_damagedSkateboard</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="4">
         <v>1</v>
       </c>
-      <c r="G72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="5"/>
+      <c r="G72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>657</v>
+      </c>
       <c r="L72" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6967,34 +7163,36 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C73" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/butter</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>20</v>
       </c>
-      <c r="E73" s="4" t="str">
+      <c r="E73" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_butter</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="4">
         <v>1</v>
       </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="5"/>
+      <c r="G73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="L73" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7002,34 +7200,36 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C74" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/actionBars</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>22</v>
       </c>
-      <c r="E74" s="4" t="str">
+      <c r="E74" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_actionBars</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="4">
         <v>1</v>
       </c>
-      <c r="G74" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="5"/>
+      <c r="G74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>659</v>
+      </c>
       <c r="L74" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7037,34 +7237,36 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C75" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/recorder</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="4">
         <v>50</v>
       </c>
-      <c r="E75" s="4" t="str">
+      <c r="E75" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_recorder</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="4">
         <v>2</v>
       </c>
-      <c r="G75" t="s">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" s="5"/>
+      <c r="G75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>660</v>
+      </c>
       <c r="L75" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7072,34 +7274,36 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C76" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/mask</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>70</v>
       </c>
-      <c r="E76" s="4" t="str">
+      <c r="E76" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_mask</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="4">
         <v>2</v>
       </c>
-      <c r="G76" t="s">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s">
-        <v>40</v>
-      </c>
-      <c r="J76" s="5"/>
+      <c r="G76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="L76" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7107,34 +7311,36 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C77" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/drumsticks</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <v>66</v>
       </c>
-      <c r="E77" s="4" t="str">
+      <c r="E77" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_drumsticks</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="4">
         <v>2</v>
       </c>
-      <c r="G77" t="s">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s">
-        <v>40</v>
-      </c>
-      <c r="J77" s="5"/>
+      <c r="G77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>662</v>
+      </c>
       <c r="L77" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7142,34 +7348,36 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C78" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/cloud</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>45</v>
       </c>
-      <c r="E78" s="4" t="str">
+      <c r="E78" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_cloud</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="4">
         <v>2</v>
       </c>
-      <c r="G78" t="s">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s">
-        <v>40</v>
-      </c>
-      <c r="J78" s="5"/>
+      <c r="G78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>663</v>
+      </c>
       <c r="L78" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7177,34 +7385,36 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C79" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/iceCake</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="4">
         <v>50</v>
       </c>
-      <c r="E79" s="4" t="str">
+      <c r="E79" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_iceCake</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="4">
         <v>2</v>
       </c>
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s">
-        <v>40</v>
-      </c>
-      <c r="J79" s="5"/>
+      <c r="G79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>664</v>
+      </c>
       <c r="L79" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7212,34 +7422,36 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C80" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/batWings</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>45</v>
       </c>
-      <c r="E80" s="4" t="str">
+      <c r="E80" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_batWings</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="4">
         <v>2</v>
       </c>
-      <c r="G80" t="s">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s">
-        <v>40</v>
-      </c>
-      <c r="J80" s="5"/>
+      <c r="G80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>665</v>
+      </c>
       <c r="L80" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7247,34 +7459,36 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C81" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/hemline</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <v>47</v>
       </c>
-      <c r="E81" s="4" t="str">
+      <c r="E81" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_hemline</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="4">
         <v>2</v>
       </c>
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s">
-        <v>40</v>
-      </c>
-      <c r="J81" s="5"/>
+      <c r="G81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>666</v>
+      </c>
       <c r="L81" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7282,34 +7496,36 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C82" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/umbrella</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <v>52</v>
       </c>
-      <c r="E82" s="4" t="str">
+      <c r="E82" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_umbrella</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="4">
         <v>2</v>
       </c>
-      <c r="G82" t="s">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J82" s="5"/>
+      <c r="G82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>667</v>
+      </c>
       <c r="L82" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7317,34 +7533,36 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C83" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/brokenHat</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>26</v>
       </c>
-      <c r="E83" s="4" t="str">
+      <c r="E83" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_brokenHat</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="4">
         <v>1</v>
       </c>
-      <c r="G83" t="s">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s">
-        <v>40</v>
-      </c>
-      <c r="J83" s="5"/>
+      <c r="G83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="L83" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7352,34 +7570,36 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C84" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/pinecone</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>150</v>
       </c>
-      <c r="E84" s="4" t="str">
+      <c r="E84" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_pinecone</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="4">
         <v>3</v>
       </c>
-      <c r="G84" t="s">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s">
-        <v>40</v>
-      </c>
-      <c r="J84" s="5"/>
+      <c r="G84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>669</v>
+      </c>
       <c r="L84" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7387,34 +7607,36 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C85" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/zombieRightHand</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <v>120</v>
       </c>
-      <c r="E85" s="4" t="str">
+      <c r="E85" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_zombieRightHand</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="4">
         <v>3</v>
       </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s">
-        <v>40</v>
-      </c>
-      <c r="J85" s="5"/>
+      <c r="G85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>670</v>
+      </c>
       <c r="L85" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7422,34 +7644,36 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C86" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/zombieLeftHand</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <v>120</v>
       </c>
-      <c r="E86" s="4" t="str">
+      <c r="E86" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_zombieLeftHand</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="4">
         <v>3</v>
       </c>
-      <c r="G86" t="s">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s">
-        <v>40</v>
-      </c>
-      <c r="J86" s="5"/>
+      <c r="G86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>671</v>
+      </c>
       <c r="L86" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7457,34 +7681,36 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C87" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/imitator</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>300</v>
       </c>
-      <c r="E87" s="4" t="str">
+      <c r="E87" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_imitator</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="4">
         <v>4</v>
       </c>
-      <c r="G87" t="s">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s">
-        <v>40</v>
-      </c>
-      <c r="J87" s="5"/>
+      <c r="G87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>672</v>
+      </c>
       <c r="L87" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7492,34 +7718,36 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C88" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/base</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="4">
         <v>16</v>
       </c>
-      <c r="E88" s="4" t="str">
+      <c r="E88" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_base</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="4">
         <v>1</v>
       </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88" s="5"/>
+      <c r="G88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>673</v>
+      </c>
       <c r="L88" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7527,34 +7755,36 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C89" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/zombieBanOrder</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="4">
         <v>15</v>
       </c>
-      <c r="E89" s="4" t="str">
+      <c r="E89" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_zombieBanOrder</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="4">
         <v>1</v>
       </c>
-      <c r="G89" t="s">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s">
-        <v>40</v>
-      </c>
-      <c r="J89" s="5"/>
+      <c r="G89" s="4">
+        <v>5</v>
+      </c>
+      <c r="H89" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>674</v>
+      </c>
       <c r="L89" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7562,34 +7792,36 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="C90" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/PoleVaulting</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="4">
         <v>130</v>
       </c>
-      <c r="E90" s="4" t="str">
+      <c r="E90" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_PoleVaulting</v>
       </c>
-      <c r="F90" s="6">
-        <v>2</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s">
-        <v>40</v>
-      </c>
-      <c r="J90" s="5"/>
+      <c r="F90" s="4">
+        <v>3</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>675</v>
+      </c>
       <c r="L90" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7597,34 +7829,36 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C91" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/cart</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="4">
         <v>45</v>
       </c>
-      <c r="E91" s="4" t="str">
+      <c r="E91" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_cart</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="4">
         <v>2</v>
       </c>
-      <c r="G91" t="s">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s">
-        <v>40</v>
-      </c>
-      <c r="J91" s="5"/>
+      <c r="G91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="L91" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7632,44 +7866,84 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C92" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>Shop/Props/unknownButton</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="4">
         <v>56</v>
       </c>
-      <c r="E92" s="4" t="str">
+      <c r="E92" t="str">
         <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
         <v>propInfo_unknownButton</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="4">
         <v>2</v>
       </c>
-      <c r="G92" t="s">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s">
-        <v>40</v>
-      </c>
-      <c r="J92" s="5"/>
+      <c r="G92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>680</v>
+      </c>
       <c r="L92" t="s">
-        <v>646</v>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>677</v>
+      </c>
+      <c r="C93" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>Shop/Props/zamboni</v>
+      </c>
+      <c r="D93" s="4">
+        <v>100</v>
+      </c>
+      <c r="E93" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",Shopping___副本[[#This Row],[唯一标识]])</f>
+        <v>propInfo_zamboni</v>
+      </c>
+      <c r="F93" s="4">
+        <v>3</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="L93" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:I60 D4:D60 G61:I92" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:I60 D4:D60 G61:I65 G68:I70 I66 I67 G72:I88 I71 G90:I92 I89" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D17E34-74EF-42E3-81FD-E78E9DF45960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CC6BD4-67CA-4526-A540-DBBEC745C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -2721,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20B1F7-B588-42E6-AFFF-4684D8709164}">
-  <dimension ref="A1:L168"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M168" sqref="K10:M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2739,7 +2739,7 @@
     <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3030,8 +3030,11 @@
       <c r="K11" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3088,8 +3091,11 @@
       <c r="K13" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3204,8 +3210,11 @@
       <c r="K17" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3234,7 +3243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3263,7 +3272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3292,7 +3301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3320,8 +3329,11 @@
       <c r="K21" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3379,7 +3391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3436,8 +3448,11 @@
       <c r="K25" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3466,7 +3481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3495,7 +3510,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3524,7 +3539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3552,8 +3567,11 @@
       <c r="K29" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3582,7 +3600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3611,7 +3629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3668,8 +3686,11 @@
       <c r="K33" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3698,7 +3719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3727,7 +3748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3756,7 +3777,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3784,8 +3805,11 @@
       <c r="K37" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3814,7 +3838,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3843,7 +3867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3872,7 +3896,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3900,8 +3924,11 @@
       <c r="K41" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -3930,7 +3957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -3959,632 +3986,728 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K45" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K47" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K50" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K51" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K52" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K53" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K54" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K55" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K56" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K57" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K59" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K60" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K61" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K62" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K63" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K64" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K65" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K66" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K67" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K68" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K69" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K70" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K71" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K72" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K73" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K74" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K75" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K76" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K77" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K78" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K79" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K80" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K81" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K82" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K83" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K85" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K87" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K88" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K89" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K90" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K91" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K92" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K93" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K94" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K95" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K96" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K97" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K98" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K99" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K100" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K101" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K102" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K103" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K104" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K105" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K106" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K107" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K108" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K109" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="110" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K110" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K111" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K112" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K113" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K114" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K115" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K116" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K117" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K118" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K119" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K120" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K121" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K122" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K123" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K124" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K125" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K126" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K127" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K128" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K129" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K130" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K131" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K132" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K133" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K134" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K135" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K136" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K137" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K138" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K139" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K140" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K141" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M141">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K142" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K143" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K144" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K145" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M145">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K146" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K147" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K148" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K149" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K150" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K151" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K152" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K153" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K154" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K155" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K156" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K157" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="M157">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K158" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K160" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K161" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="M161">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K162" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K163" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K164" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K165" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="166" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="M165">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K166" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K167" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="168" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K168" t="s">
         <v>570</v>
       </c>
       <c r="L168" t="s">
         <v>571</v>
+      </c>
+      <c r="M168">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4603,7 +4726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CC6BD4-67CA-4526-A540-DBBEC745C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9824DEB-9314-41F4-A541-D35A51C024EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="683">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -2217,6 +2226,10 @@
   </si>
   <si>
     <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop/Plants/normalBg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2723,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20B1F7-B588-42E6-AFFF-4684D8709164}">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M168" sqref="K10:M168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2825,7 +2838,7 @@
         <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9824DEB-9314-41F4-A541-D35A51C024EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F4A98-1682-484F-ACCB-27E479C77E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="684">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -2230,6 +2230,10 @@
   </si>
   <si>
     <t>Shop/Plants/normalBg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2737,7 +2741,7 @@
   <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2777,6 +2781,9 @@
       <c r="H1" t="s">
         <v>79</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2803,6 +2810,9 @@
       <c r="H2" t="s">
         <v>315</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2829,6 +2839,9 @@
       <c r="H3" t="s">
         <v>80</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2855,6 +2868,9 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2881,6 +2897,9 @@
       <c r="H5">
         <v>2</v>
       </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2907,6 +2926,9 @@
       <c r="H6">
         <v>3</v>
       </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2933,6 +2955,9 @@
       <c r="H7">
         <v>4</v>
       </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2959,6 +2984,9 @@
       <c r="H8">
         <v>5</v>
       </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2985,6 +3013,9 @@
       <c r="H9">
         <v>6</v>
       </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3011,6 +3042,9 @@
       <c r="H10">
         <v>7</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="K10" t="s">
         <v>79</v>
       </c>
@@ -3040,6 +3074,9 @@
       <c r="H11">
         <v>8</v>
       </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>82</v>
       </c>
@@ -3072,6 +3109,9 @@
       <c r="H12">
         <v>9</v>
       </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>83</v>
       </c>
@@ -3101,6 +3141,9 @@
       <c r="H13">
         <v>10</v>
       </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>84</v>
       </c>
@@ -3133,6 +3176,9 @@
       <c r="H14">
         <v>11</v>
       </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>85</v>
       </c>
@@ -3162,6 +3208,9 @@
       <c r="H15">
         <v>12</v>
       </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>86</v>
       </c>
@@ -3191,6 +3240,9 @@
       <c r="H16">
         <v>13</v>
       </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>83</v>
       </c>
@@ -3220,6 +3272,9 @@
       <c r="H17">
         <v>14</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>87</v>
       </c>
@@ -3252,6 +3307,9 @@
       <c r="H18">
         <v>15</v>
       </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>85</v>
       </c>
@@ -3281,6 +3339,9 @@
       <c r="H19">
         <v>16</v>
       </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>88</v>
       </c>
@@ -3310,6 +3371,9 @@
       <c r="H20">
         <v>17</v>
       </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>83</v>
       </c>
@@ -3339,6 +3403,9 @@
       <c r="H21">
         <v>18</v>
       </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>89</v>
       </c>
@@ -3371,6 +3438,9 @@
       <c r="H22">
         <v>19</v>
       </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>85</v>
       </c>
@@ -3400,6 +3470,9 @@
       <c r="H23">
         <v>20</v>
       </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>90</v>
       </c>
@@ -3429,6 +3502,9 @@
       <c r="H24">
         <v>21</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3458,6 +3534,9 @@
       <c r="H25">
         <v>22</v>
       </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>91</v>
       </c>
@@ -3490,6 +3569,9 @@
       <c r="H26">
         <v>23</v>
       </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>85</v>
       </c>
@@ -3519,6 +3601,9 @@
       <c r="H27">
         <v>24</v>
       </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>92</v>
       </c>
@@ -3548,6 +3633,9 @@
       <c r="H28">
         <v>25</v>
       </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>83</v>
       </c>
@@ -3577,6 +3665,9 @@
       <c r="H29">
         <v>26</v>
       </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>93</v>
       </c>
@@ -3609,6 +3700,9 @@
       <c r="H30">
         <v>27</v>
       </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>85</v>
       </c>
@@ -3638,6 +3732,9 @@
       <c r="H31">
         <v>28</v>
       </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3667,6 +3764,9 @@
       <c r="H32">
         <v>29</v>
       </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>83</v>
       </c>
@@ -3696,6 +3796,9 @@
       <c r="H33">
         <v>30</v>
       </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
       <c r="K33" s="1" t="s">
         <v>95</v>
       </c>
@@ -3728,6 +3831,9 @@
       <c r="H34">
         <v>31</v>
       </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>85</v>
       </c>
@@ -3757,6 +3863,9 @@
       <c r="H35">
         <v>32</v>
       </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
       <c r="K35" s="1" t="s">
         <v>96</v>
       </c>
@@ -3786,6 +3895,9 @@
       <c r="H36">
         <v>33</v>
       </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
       <c r="K36" s="1" t="s">
         <v>83</v>
       </c>
@@ -3815,6 +3927,9 @@
       <c r="H37">
         <v>34</v>
       </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
       <c r="K37" s="1" t="s">
         <v>97</v>
       </c>
@@ -3847,6 +3962,9 @@
       <c r="H38">
         <v>35</v>
       </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
       <c r="K38" s="1" t="s">
         <v>85</v>
       </c>
@@ -3876,6 +3994,9 @@
       <c r="H39">
         <v>36</v>
       </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
       <c r="K39" s="1" t="s">
         <v>98</v>
       </c>
@@ -3905,6 +4026,9 @@
       <c r="H40">
         <v>37</v>
       </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
       <c r="K40" s="1" t="s">
         <v>83</v>
       </c>
@@ -3934,6 +4058,9 @@
       <c r="H41">
         <v>38</v>
       </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
       <c r="K41" s="1" t="s">
         <v>99</v>
       </c>
@@ -3966,6 +4093,9 @@
       <c r="H42">
         <v>39</v>
       </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
       <c r="K42" t="s">
         <v>85</v>
       </c>
@@ -3994,6 +4124,9 @@
       </c>
       <c r="H43">
         <v>40</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
       </c>
       <c r="K43" t="s">
         <v>100</v>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F4A98-1682-484F-ACCB-27E479C77E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C8251-D3A1-460A-A9BC-33E74EC80799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2741,7 +2732,7 @@
   <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2898,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -3014,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -3110,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>83</v>
@@ -3273,7 +3264,7 @@
         <v>14</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>87</v>
@@ -3308,7 +3299,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>85</v>
@@ -3340,7 +3331,7 @@
         <v>16</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>88</v>
@@ -3570,7 +3561,7 @@
         <v>23</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>85</v>
@@ -3733,7 +3724,7 @@
         <v>28</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>94</v>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C8251-D3A1-460A-A9BC-33E74EC80799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48CA6E9-582E-4412-924D-5F0312E0A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="686">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -2225,6 +2234,14 @@
   </si>
   <si>
     <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大购买个数，0无限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2322,7 +2339,10 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{3C308844-11D1-4F6C-A9B1-5C82DB9D8054}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2431,35 +2451,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}" name="Shopping" displayName="Shopping" ref="A1:H43" totalsRowShown="0" dataDxfId="15" dataCellStyle="常规">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}" name="Shopping" displayName="Shopping" ref="A1:H43" totalsRowShown="0" dataDxfId="16" dataCellStyle="常规">
   <autoFilter ref="A1:H43" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AC5584-B0DF-458D-84BD-9187946E94E8}" name="id" dataDxfId="14" dataCellStyle="常规"/>
-    <tableColumn id="2" xr3:uid="{DF9341C8-8964-45E4-BD06-65D1F895C6EB}" name="植物名" dataDxfId="13" dataCellStyle="常规"/>
-    <tableColumn id="3" xr3:uid="{6F456206-C581-4EFB-BC4F-F8639AA6BE97}" name="卡片背景路径" dataDxfId="12" dataCellStyle="常规"/>
-    <tableColumn id="4" xr3:uid="{2022E7B0-0AA5-45B4-8747-4655D1368B44}" name="植物图片路径" dataDxfId="11" dataCellStyle="常规"/>
-    <tableColumn id="5" xr3:uid="{CA5CE116-EFD9-4395-8713-1321B84A4763}" name="默认价格" dataDxfId="10" dataCellStyle="常规"/>
-    <tableColumn id="6" xr3:uid="{B8419F74-8DC0-4200-B8DB-CB44135DA68B}" name="默认消耗阳光" dataDxfId="9" dataCellStyle="常规"/>
-    <tableColumn id="7" xr3:uid="{6FE903FE-BAE1-405B-88AE-D7577F63EC7C}" name="描述" dataDxfId="8" dataCellStyle="常规"/>
-    <tableColumn id="8" xr3:uid="{C73B882D-DDCD-4685-9A03-23211CFAD34A}" name="植物类型" dataDxfId="7" dataCellStyle="常规"/>
+    <tableColumn id="1" xr3:uid="{50AC5584-B0DF-458D-84BD-9187946E94E8}" name="id" dataDxfId="15" dataCellStyle="常规"/>
+    <tableColumn id="2" xr3:uid="{DF9341C8-8964-45E4-BD06-65D1F895C6EB}" name="植物名" dataDxfId="14" dataCellStyle="常规"/>
+    <tableColumn id="3" xr3:uid="{6F456206-C581-4EFB-BC4F-F8639AA6BE97}" name="卡片背景路径" dataDxfId="13" dataCellStyle="常规"/>
+    <tableColumn id="4" xr3:uid="{2022E7B0-0AA5-45B4-8747-4655D1368B44}" name="植物图片路径" dataDxfId="12" dataCellStyle="常规"/>
+    <tableColumn id="5" xr3:uid="{CA5CE116-EFD9-4395-8713-1321B84A4763}" name="默认价格" dataDxfId="11" dataCellStyle="常规"/>
+    <tableColumn id="6" xr3:uid="{B8419F74-8DC0-4200-B8DB-CB44135DA68B}" name="默认消耗阳光" dataDxfId="10" dataCellStyle="常规"/>
+    <tableColumn id="7" xr3:uid="{6FE903FE-BAE1-405B-88AE-D7577F63EC7C}" name="描述" dataDxfId="9" dataCellStyle="常规"/>
+    <tableColumn id="8" xr3:uid="{C73B882D-DDCD-4685-9A03-23211CFAD34A}" name="植物类型" dataDxfId="8" dataCellStyle="常规"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}" name="Shopping___副本" displayName="Shopping___副本" ref="A1:J93" totalsRowShown="0">
-  <autoFilter ref="A1:J93" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{41AEE3DD-9591-4853-9451-0185E1142C81}" name="id" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}" name="Shopping___副本" displayName="Shopping___副本" ref="A1:K93" totalsRowShown="0">
+  <autoFilter ref="A1:K93" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{41AEE3DD-9591-4853-9451-0185E1142C81}" name="id" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0E6A0219-B161-4DFA-86C2-D1B6C6B1DF9E}" name="唯一标识"/>
     <tableColumn id="3" xr3:uid="{3AD8CC7E-FD3E-47AD-A58A-526646F0EE37}" name="商店道具图标"/>
-    <tableColumn id="4" xr3:uid="{3FBB882A-65E9-46D4-8CBD-66295CF0BD65}" name="默认价格" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{58FF4BB7-45A3-44B8-B7E4-EC54CD7EC71E}" name="描述" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{770ABD48-BAB8-4FE3-B7A4-4FD8A5DEA6FB}" name="品质" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{62EF3F61-3178-4E3A-A889-D2B146084494}" name="道具类型" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{267AFA58-60A3-441B-8856-2F57BC021061}" name="默认参数1" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{0834F76E-B902-4E06-808D-EF26683A35CE}" name="冷却时间" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3FBB882A-65E9-46D4-8CBD-66295CF0BD65}" name="默认价格" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{58FF4BB7-45A3-44B8-B7E4-EC54CD7EC71E}" name="描述" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{770ABD48-BAB8-4FE3-B7A4-4FD8A5DEA6FB}" name="品质" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{62EF3F61-3178-4E3A-A889-D2B146084494}" name="道具类型" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{267AFA58-60A3-441B-8856-2F57BC021061}" name="默认参数1" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{0834F76E-B902-4E06-808D-EF26683A35CE}" name="冷却时间" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{14C8C239-2BEA-4D19-9C23-304FCD9A733A}" name="最大购买个数，0无限制" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{1FD06617-773E-4492-8657-B374CF0FE9A0}" name="获得道具对属性的增改，之前设计json更改，修改起来比较麻烦就不改了" dataCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2731,7 +2752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20B1F7-B588-42E6-AFFF-4684D8709164}">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -4861,10 +4882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="E61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4878,12 +4899,13 @@
     <col min="7" max="7" width="29.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.125" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="26.375" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="57.125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -4911,11 +4933,14 @@
       <c r="I1" t="s">
         <v>314</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
+        <v>685</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -4943,11 +4968,14 @@
       <c r="I2" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -4975,11 +5003,14 @@
       <c r="I3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5007,14 +5038,17 @@
       <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5042,14 +5076,17 @@
       <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5077,14 +5114,17 @@
       <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5112,14 +5152,17 @@
       <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5147,14 +5190,17 @@
       <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5182,14 +5228,17 @@
       <c r="I9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5217,14 +5266,17 @@
       <c r="I10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5252,14 +5304,17 @@
       <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5287,14 +5342,17 @@
       <c r="I12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5322,14 +5380,17 @@
       <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5357,14 +5418,17 @@
       <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5392,14 +5456,17 @@
       <c r="I15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5427,14 +5494,17 @@
       <c r="I16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5462,14 +5532,17 @@
       <c r="I17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5497,14 +5570,17 @@
       <c r="I18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5532,14 +5608,17 @@
       <c r="I19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5567,14 +5646,17 @@
       <c r="I20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5602,14 +5684,17 @@
       <c r="I21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5637,14 +5722,17 @@
       <c r="I22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5672,14 +5760,17 @@
       <c r="I23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5707,14 +5798,17 @@
       <c r="I24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5742,14 +5836,17 @@
       <c r="I25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5777,14 +5874,17 @@
       <c r="I26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -5812,14 +5912,17 @@
       <c r="I27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -5847,14 +5950,17 @@
       <c r="I28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5882,14 +5988,17 @@
       <c r="I29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -5917,14 +6026,17 @@
       <c r="I30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -5952,14 +6064,17 @@
       <c r="I31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -5987,14 +6102,17 @@
       <c r="I32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -6022,14 +6140,17 @@
       <c r="I33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -6057,14 +6178,17 @@
       <c r="I34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -6092,14 +6216,17 @@
       <c r="I35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -6127,14 +6254,17 @@
       <c r="I36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -6162,14 +6292,17 @@
       <c r="I37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -6197,14 +6330,17 @@
       <c r="I38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -6232,14 +6368,17 @@
       <c r="I39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -6267,14 +6406,17 @@
       <c r="I40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4">
+        <v>4</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -6302,14 +6444,17 @@
       <c r="I41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -6337,14 +6482,17 @@
       <c r="I42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -6372,14 +6520,17 @@
       <c r="I43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -6407,14 +6558,17 @@
       <c r="I44" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -6442,14 +6596,17 @@
       <c r="I45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -6477,14 +6634,17 @@
       <c r="I46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -6512,14 +6672,17 @@
       <c r="I47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -6547,14 +6710,17 @@
       <c r="I48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -6582,14 +6748,17 @@
       <c r="I49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -6617,14 +6786,17 @@
       <c r="I50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -6652,14 +6824,17 @@
       <c r="I51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -6687,14 +6862,17 @@
       <c r="I52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -6722,14 +6900,17 @@
       <c r="I53" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -6757,14 +6938,17 @@
       <c r="I54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -6792,14 +6976,17 @@
       <c r="I55" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -6827,14 +7014,17 @@
       <c r="I56" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -6862,14 +7052,17 @@
       <c r="I57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="4">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -6897,14 +7090,17 @@
       <c r="I58" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -6932,14 +7128,17 @@
       <c r="I59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -6967,14 +7166,17 @@
       <c r="I60" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -7004,14 +7206,17 @@
       <c r="I61" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -7041,14 +7246,17 @@
       <c r="I62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -7078,14 +7286,17 @@
       <c r="I63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -7115,14 +7326,17 @@
       <c r="I64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -7152,14 +7366,17 @@
       <c r="I65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -7189,14 +7406,17 @@
       <c r="I66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -7226,14 +7446,17 @@
       <c r="I67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -7263,14 +7486,17 @@
       <c r="I68" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -7300,14 +7526,17 @@
       <c r="I69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -7337,14 +7566,17 @@
       <c r="I70" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -7374,14 +7606,17 @@
       <c r="I71" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -7411,14 +7646,17 @@
       <c r="I72" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -7448,14 +7686,17 @@
       <c r="I73" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -7485,14 +7726,17 @@
       <c r="I74" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -7522,14 +7766,17 @@
       <c r="I75" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -7559,14 +7806,17 @@
       <c r="I76" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -7596,14 +7846,17 @@
       <c r="I77" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -7633,14 +7886,17 @@
       <c r="I78" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -7670,14 +7926,17 @@
       <c r="I79" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -7707,14 +7966,17 @@
       <c r="I80" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -7744,14 +8006,17 @@
       <c r="I81" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -7781,14 +8046,17 @@
       <c r="I82" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -7818,14 +8086,17 @@
       <c r="I83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -7855,14 +8126,17 @@
       <c r="I84" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K84" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -7892,14 +8166,17 @@
       <c r="I85" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
@@ -7929,14 +8206,17 @@
       <c r="I86" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K86" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -7966,14 +8246,17 @@
       <c r="I87" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
@@ -8003,14 +8286,17 @@
       <c r="I88" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -8040,14 +8326,17 @@
       <c r="I89" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="4">
+        <v>4</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
@@ -8077,14 +8366,17 @@
       <c r="I90" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
@@ -8114,14 +8406,17 @@
       <c r="I91" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
@@ -8151,14 +8446,17 @@
       <c r="I92" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
@@ -8188,10 +8486,13 @@
       <c r="I93" s="4">
         <v>0</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>678</v>
       </c>
     </row>
@@ -8199,7 +8500,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:I60 D4:D60 G61:I65 G68:I70 I66 I67 G72:I88 I71 G90:I92 I89" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:I60 D4:D60 G61:I65 G68:I70 I66 I67 G72:I88 I71 G90:I92 I89 J4:J5 J41:J43 J45:J52 J61:J88 J8:J39 J90:J93" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48CA6E9-582E-4412-924D-5F0312E0A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741F01C-D4A3-46DA-9035-0BA251C30E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="694">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -1781,467 +1772,498 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;color=#ff0000&gt;传送门&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10幸运&lt;/color&gt;\r\n可在场上随机位置生成两个传送门，这很酷\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;雾机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n有概率产生雾，免疫远程攻击\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;灯光机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击率&lt;/color&gt;\r\n有灯光才有气氛\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;麦克风&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5力量&lt;/color&gt;\r\n使我变成大明星\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;音响&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n使我的声音传的更远\r\n</t>
+  </si>
+  <si>
+    <t>Pot_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basketball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guideboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screendoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icetrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CobCannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玉米加农炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop/Plants/CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantName_CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantInfo_CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerReminder</t>
+  </si>
+  <si>
+    <t>brokenEggshell</t>
+  </si>
+  <si>
+    <t>goggles</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>gong</t>
+  </si>
+  <si>
+    <t>gongStick</t>
+  </si>
+  <si>
+    <t>ignitedBomb</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>pennant</t>
+  </si>
+  <si>
+    <t>damagedSkateboard</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>actionBars</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>drumsticks</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>iceCake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batWings</t>
+  </si>
+  <si>
+    <t>hemline</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>brokenHat</t>
+  </si>
+  <si>
+    <t>pinecone</t>
+  </si>
+  <si>
+    <t>zombieRightHand</t>
+  </si>
+  <si>
+    <t>zombieLeftHand</t>
+  </si>
+  <si>
+    <t>imitator</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>zombieBanOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>unknownButton</t>
+  </si>
+  <si>
+    <t>propInfo_speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎蛋壳\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n可以看出孕育出来了新的生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险提醒\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5伤害&lt;/color&gt;\r\n前面的区域很危险，以后再来探索吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n可以有效的保护我的脑子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣棍\r\n&lt;color=#00ff00&gt;+3生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3植物学&lt;/color&gt;\r\n敲锣用的锣棍,敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣点燃的炸弹\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n感觉立马会爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n看起来很美味的南瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2暴击率&lt;/color&gt;\r\n飞机的机翼，速度应该很快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损滑板\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n破损的滑板，用了可能会摔跤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄油\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击伤害&lt;/color&gt;\r\n听说玉米投手有可能会投射黄油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵杆\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n好像是游戏操作杆，似乎损坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;录音机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n应该也可以用来播放磁带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;假面&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5暴击率&lt;/color&gt;\r\n假面超人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;鸡腿&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8生命恢复&lt;/color&gt;\r\n喷香的大鸡腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n天上掉下来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰块&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n亮晶晶的冰块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;蝠翼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;裙摆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;能有效保护我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;伞&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;最靓的仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎的帽子\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n勉强能挡住一点点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;松果&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n可爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸左手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的左手，看起来充满力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸右手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的右手，看起来充满力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;模仿者&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿者\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n不知道什么的底座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁僵尸令\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n此处禁止僵尸\r\n&lt;color=#00ff00&gt;僵尸数量减少10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;撑杆跳杆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n撑杆跳僵尸的杆杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n火焰皮肤的小推车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;未知按钮&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n不知道控制什么的按钮，刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;锦旗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n僵尸的锦旗，看起来他们很喜欢脑子\r\n&lt;color=#ff0000&gt;僵尸数量增多10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Power","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"3"},{"attributeTypeString":"PercentageDamage","increment":"6"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Botany","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"4"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"3"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"Speed","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"4"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"GoldCoins","increment":"5"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Range","increment":"-10"},{"attributeTypeString":"CriticalHitRate","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"8"},{"attributeTypeString":"LifeRecovery","increment":"8"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"6"},{"attributeTypeString":"Range","increment":"6"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Range","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"1"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Range","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-10"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"CriticalDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"50"},{"attributeTypeString":"LifeRecovery","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Power","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Speed","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>zamboni</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰车轮胎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n从冰车上写下来的轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoleVaulting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop/Plants/normalBg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大购买个数，0无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置购买道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontProp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpleGarlic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"4"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"4"}]</t>
+  </si>
+  <si>
     <t>&lt;color=#ff0000&gt;火焰&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15攻击速度&lt;/color&gt;\r\n自身每秒&lt;color=#ff0000&gt;{0}生命值&lt;/color&gt;\r\n火焰正在燃烧</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;传送门&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10幸运&lt;/color&gt;\r\n可在场上随机位置生成两个传送门，这很酷\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;雾机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n有概率产生雾，免疫远程攻击\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;灯光机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击率&lt;/color&gt;\r\n有灯光才有气氛\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;麦克风&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5力量&lt;/color&gt;\r\n使我变成大明星\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;音响&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n使我的声音传的更远\r\n</t>
-  </si>
-  <si>
-    <t>Pot_Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basketball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bucket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guideboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screendoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icetrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CobCannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 玉米加农炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop/Plants/CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantName_CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantInfo_CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dangerReminder</t>
-  </si>
-  <si>
-    <t>brokenEggshell</t>
-  </si>
-  <si>
-    <t>goggles</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
-    <t>gong</t>
-  </si>
-  <si>
-    <t>gongStick</t>
-  </si>
-  <si>
-    <t>ignitedBomb</t>
-  </si>
-  <si>
-    <t>pumpkin</t>
-  </si>
-  <si>
-    <t>wing</t>
-  </si>
-  <si>
-    <t>pennant</t>
-  </si>
-  <si>
-    <t>damagedSkateboard</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>actionBars</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>drumsticks</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>iceCake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batWings</t>
-  </si>
-  <si>
-    <t>hemline</t>
-  </si>
-  <si>
-    <t>umbrella</t>
-  </si>
-  <si>
-    <t>brokenHat</t>
-  </si>
-  <si>
-    <t>pinecone</t>
-  </si>
-  <si>
-    <t>zombieRightHand</t>
-  </si>
-  <si>
-    <t>zombieLeftHand</t>
-  </si>
-  <si>
-    <t>imitator</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>zombieBanOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>unknownButton</t>
-  </si>
-  <si>
-    <t>propInfo_speaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎蛋壳\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n可以看出孕育出来了新的生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>危险提醒\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5伤害&lt;/color&gt;\r\n前面的区域很危险，以后再来探索吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝壳\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n可以有效的保护我的脑子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣棍\r\n&lt;color=#00ff00&gt;+3生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3植物学&lt;/color&gt;\r\n敲锣用的锣棍,敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣点燃的炸弹\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n感觉立马会爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n看起来很美味的南瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2暴击率&lt;/color&gt;\r\n飞机的机翼，速度应该很快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破损滑板\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n破损的滑板，用了可能会摔跤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄油\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击伤害&lt;/color&gt;\r\n听说玉米投手有可能会投射黄油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操纵杆\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n好像是游戏操作杆，似乎损坏了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;录音机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n应该也可以用来播放磁带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;假面&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5暴击率&lt;/color&gt;\r\n假面超人！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;鸡腿&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8生命恢复&lt;/color&gt;\r\n喷香的大鸡腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n天上掉下来的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;冰块&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n亮晶晶的冰块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;蝠翼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;裙摆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;能有效保护我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;伞&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;最靓的仔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎的帽子\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n勉强能挡住一点点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;松果&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n可爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;僵尸左手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的左手，看起来充满力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;僵尸右手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的右手，看起来充满力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;模仿者&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模仿者\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n不知道什么的底座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁僵尸令\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n此处禁止僵尸\r\n&lt;color=#00ff00&gt;僵尸数量减少10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;撑杆跳杆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n撑杆跳僵尸的杆杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n火焰皮肤的小推车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;未知按钮&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n不知道控制什么的按钮，刺激</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;锦旗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n僵尸的锦旗，看起来他们很喜欢脑子\r\n&lt;color=#ff0000&gt;僵尸数量增多10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Power","increment":"-1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"CriticalDamage","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"3"},{"attributeTypeString":"PercentageDamage","increment":"6"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Botany","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"4"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"3"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"Speed","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"4"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"GoldCoins","increment":"5"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Range","increment":"-10"},{"attributeTypeString":"CriticalHitRate","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"8"},{"attributeTypeString":"LifeRecovery","increment":"8"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"6"},{"attributeTypeString":"Range","increment":"6"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Range","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"1"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Range","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-10"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"CriticalDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"50"},{"attributeTypeString":"LifeRecovery","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Power","increment":"-1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Speed","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>zamboni</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;冰车轮胎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n从冰车上写下来的轮胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoleVaulting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop/Plants/normalBg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大购买个数，0无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫皮大蒜\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;自身每秒-1生命值&lt;/color&gt;\r\n吃了一直放屁，感觉中毒了\r\n&lt;color=#00ff00&gt;每个使屁持续时机增加1s，对处于其中的僵尸造成{0}((1+植物学/25)*伤害%)伤害&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;薄荷&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n吃了感觉凉凉的\r\n使&lt;color=#00ff00&gt;紫皮大蒜&lt;/color&gt;的臭屁附带&lt;color=#00ff00&gt;8%减速效果&lt;/color&gt;，可叠加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2339,7 +2361,10 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{3C308844-11D1-4F6C-A9B1-5C82DB9D8054}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2451,36 +2476,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}" name="Shopping" displayName="Shopping" ref="A1:H43" totalsRowShown="0" dataDxfId="16" dataCellStyle="常规">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}" name="Shopping" displayName="Shopping" ref="A1:H43" totalsRowShown="0" dataDxfId="17" dataCellStyle="常规">
   <autoFilter ref="A1:H43" xr:uid="{20DF42B1-4CEE-44A6-810B-FAC20329CA5F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50AC5584-B0DF-458D-84BD-9187946E94E8}" name="id" dataDxfId="15" dataCellStyle="常规"/>
-    <tableColumn id="2" xr3:uid="{DF9341C8-8964-45E4-BD06-65D1F895C6EB}" name="植物名" dataDxfId="14" dataCellStyle="常规"/>
-    <tableColumn id="3" xr3:uid="{6F456206-C581-4EFB-BC4F-F8639AA6BE97}" name="卡片背景路径" dataDxfId="13" dataCellStyle="常规"/>
-    <tableColumn id="4" xr3:uid="{2022E7B0-0AA5-45B4-8747-4655D1368B44}" name="植物图片路径" dataDxfId="12" dataCellStyle="常规"/>
-    <tableColumn id="5" xr3:uid="{CA5CE116-EFD9-4395-8713-1321B84A4763}" name="默认价格" dataDxfId="11" dataCellStyle="常规"/>
-    <tableColumn id="6" xr3:uid="{B8419F74-8DC0-4200-B8DB-CB44135DA68B}" name="默认消耗阳光" dataDxfId="10" dataCellStyle="常规"/>
-    <tableColumn id="7" xr3:uid="{6FE903FE-BAE1-405B-88AE-D7577F63EC7C}" name="描述" dataDxfId="9" dataCellStyle="常规"/>
-    <tableColumn id="8" xr3:uid="{C73B882D-DDCD-4685-9A03-23211CFAD34A}" name="植物类型" dataDxfId="8" dataCellStyle="常规"/>
+    <tableColumn id="1" xr3:uid="{50AC5584-B0DF-458D-84BD-9187946E94E8}" name="id" dataDxfId="16" dataCellStyle="常规"/>
+    <tableColumn id="2" xr3:uid="{DF9341C8-8964-45E4-BD06-65D1F895C6EB}" name="植物名" dataDxfId="15" dataCellStyle="常规"/>
+    <tableColumn id="3" xr3:uid="{6F456206-C581-4EFB-BC4F-F8639AA6BE97}" name="卡片背景路径" dataDxfId="14" dataCellStyle="常规"/>
+    <tableColumn id="4" xr3:uid="{2022E7B0-0AA5-45B4-8747-4655D1368B44}" name="植物图片路径" dataDxfId="13" dataCellStyle="常规"/>
+    <tableColumn id="5" xr3:uid="{CA5CE116-EFD9-4395-8713-1321B84A4763}" name="默认价格" dataDxfId="12" dataCellStyle="常规"/>
+    <tableColumn id="6" xr3:uid="{B8419F74-8DC0-4200-B8DB-CB44135DA68B}" name="默认消耗阳光" dataDxfId="11" dataCellStyle="常规"/>
+    <tableColumn id="7" xr3:uid="{6FE903FE-BAE1-405B-88AE-D7577F63EC7C}" name="描述" dataDxfId="10" dataCellStyle="常规"/>
+    <tableColumn id="8" xr3:uid="{C73B882D-DDCD-4685-9A03-23211CFAD34A}" name="植物类型" dataDxfId="9" dataCellStyle="常规"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}" name="Shopping___副本" displayName="Shopping___副本" ref="A1:K93" totalsRowShown="0">
-  <autoFilter ref="A1:K93" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{41AEE3DD-9591-4853-9451-0185E1142C81}" name="id" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}" name="Shopping___副本" displayName="Shopping___副本" ref="A1:L93" totalsRowShown="0">
+  <autoFilter ref="A1:L93" xr:uid="{9B2FB9CB-2279-4E26-9A55-6C0185E9B767}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{41AEE3DD-9591-4853-9451-0185E1142C81}" name="id" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{0E6A0219-B161-4DFA-86C2-D1B6C6B1DF9E}" name="唯一标识"/>
     <tableColumn id="3" xr3:uid="{3AD8CC7E-FD3E-47AD-A58A-526646F0EE37}" name="商店道具图标"/>
-    <tableColumn id="4" xr3:uid="{3FBB882A-65E9-46D4-8CBD-66295CF0BD65}" name="默认价格" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{58FF4BB7-45A3-44B8-B7E4-EC54CD7EC71E}" name="描述" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{770ABD48-BAB8-4FE3-B7A4-4FD8A5DEA6FB}" name="品质" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{62EF3F61-3178-4E3A-A889-D2B146084494}" name="道具类型" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{267AFA58-60A3-441B-8856-2F57BC021061}" name="默认参数1" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0834F76E-B902-4E06-808D-EF26683A35CE}" name="冷却时间" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{14C8C239-2BEA-4D19-9C23-304FCD9A733A}" name="最大购买个数，0无限制" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3FBB882A-65E9-46D4-8CBD-66295CF0BD65}" name="默认价格" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{58FF4BB7-45A3-44B8-B7E4-EC54CD7EC71E}" name="描述" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{770ABD48-BAB8-4FE3-B7A4-4FD8A5DEA6FB}" name="品质" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{62EF3F61-3178-4E3A-A889-D2B146084494}" name="道具类型" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{267AFA58-60A3-441B-8856-2F57BC021061}" name="默认参数1" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0834F76E-B902-4E06-808D-EF26683A35CE}" name="冷却时间" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{14C8C239-2BEA-4D19-9C23-304FCD9A733A}" name="最大购买个数，0无限制" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{D6C42A6F-89E8-4EA3-B5EA-D16CFBAB3DA0}" name="前置购买道具" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{1FD06617-773E-4492-8657-B374CF0FE9A0}" name="获得道具对属性的增改，之前设计json更改，修改起来比较麻烦就不改了" dataCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2794,7 +2820,7 @@
         <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2863,7 +2889,7 @@
         <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -4117,13 +4143,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E43">
         <v>150</v>
@@ -4132,7 +4158,7 @@
         <v>500</v>
       </c>
       <c r="G43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -4859,10 +4885,10 @@
     </row>
     <row r="168" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K168" t="s">
+        <v>569</v>
+      </c>
+      <c r="L168" t="s">
         <v>570</v>
-      </c>
-      <c r="L168" t="s">
-        <v>571</v>
       </c>
       <c r="M168">
         <v>40</v>
@@ -4882,10 +4908,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L64" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4893,19 +4922,20 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39.375" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
-    <col min="11" max="11" width="57.125" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="19.125" customWidth="1"/>
+    <col min="12" max="12" width="57.125" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -4925,22 +4955,25 @@
         <v>313</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="I1" t="s">
         <v>314</v>
       </c>
       <c r="J1" t="s">
+        <v>684</v>
+      </c>
+      <c r="K1" t="s">
         <v>685</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -4960,22 +4993,25 @@
         <v>307</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>309</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="K2" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -5006,11 +5042,14 @@
       <c r="J3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5041,14 +5080,15 @@
       <c r="J4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5079,14 +5119,15 @@
       <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5117,14 +5158,15 @@
       <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5155,14 +5197,15 @@
       <c r="J7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5193,14 +5236,15 @@
       <c r="J8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5231,14 +5275,15 @@
       <c r="J9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5269,14 +5314,15 @@
       <c r="J10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5307,14 +5353,15 @@
       <c r="J11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5345,14 +5392,15 @@
       <c r="J12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5383,14 +5431,15 @@
       <c r="J13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5421,14 +5470,15 @@
       <c r="J14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5459,14 +5509,15 @@
       <c r="J15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5497,19 +5548,20 @@
       <c r="J16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -5535,14 +5587,15 @@
       <c r="J17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5573,14 +5626,15 @@
       <c r="J18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5611,14 +5665,15 @@
       <c r="J19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4"/>
+      <c r="L19" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5649,14 +5704,15 @@
       <c r="J20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4"/>
+      <c r="L20" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5687,14 +5743,15 @@
       <c r="J21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4"/>
+      <c r="L21" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5725,14 +5782,15 @@
       <c r="J22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4"/>
+      <c r="L22" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5763,14 +5821,15 @@
       <c r="J23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5801,14 +5860,15 @@
       <c r="J24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5839,14 +5899,15 @@
       <c r="J25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5877,14 +5938,15 @@
       <c r="J26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -5915,14 +5977,15 @@
       <c r="J27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4"/>
+      <c r="L27" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -5953,14 +6016,15 @@
       <c r="J28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="4"/>
+      <c r="L28" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5991,14 +6055,15 @@
       <c r="J29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4"/>
+      <c r="L29" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -6029,14 +6094,15 @@
       <c r="J30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="4"/>
+      <c r="L30" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -6067,14 +6133,15 @@
       <c r="J31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4"/>
+      <c r="L31" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -6105,14 +6172,15 @@
       <c r="J32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4"/>
+      <c r="L32" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -6143,14 +6211,15 @@
       <c r="J33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="4"/>
+      <c r="L33" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -6181,14 +6250,15 @@
       <c r="J34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4"/>
+      <c r="L34" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -6219,14 +6289,15 @@
       <c r="J35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -6257,14 +6328,15 @@
       <c r="J36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4"/>
+      <c r="L36" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -6295,14 +6367,15 @@
       <c r="J37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="4"/>
+      <c r="L37" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -6333,19 +6406,20 @@
       <c r="J38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4"/>
+      <c r="L38" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C39" t="s">
         <v>249</v>
@@ -6371,14 +6445,15 @@
       <c r="J39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="4"/>
+      <c r="L39" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -6409,14 +6484,15 @@
       <c r="J40" s="4">
         <v>4</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4"/>
+      <c r="L40" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="M40" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -6447,14 +6523,15 @@
       <c r="J41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="4"/>
+      <c r="L41" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -6485,19 +6562,20 @@
       <c r="J42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4"/>
+      <c r="L42" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C43" t="s">
         <v>259</v>
@@ -6523,14 +6601,15 @@
       <c r="J43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4"/>
+      <c r="L43" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -6561,19 +6640,20 @@
       <c r="J44" s="4">
         <v>0</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="4"/>
+      <c r="L44" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C45" t="s">
         <v>266</v>
@@ -6599,19 +6679,20 @@
       <c r="J45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="4"/>
+      <c r="L45" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C46" t="s">
         <v>267</v>
@@ -6637,19 +6718,20 @@
       <c r="J46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4"/>
+      <c r="L46" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C47" t="s">
         <v>268</v>
@@ -6675,19 +6757,20 @@
       <c r="J47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4"/>
+      <c r="L47" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C48" t="s">
         <v>270</v>
@@ -6713,14 +6796,15 @@
       <c r="J48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="4"/>
+      <c r="L48" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -6751,19 +6835,20 @@
       <c r="J49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4"/>
+      <c r="L49" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C50" t="s">
         <v>275</v>
@@ -6789,19 +6874,20 @@
       <c r="J50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="4"/>
+      <c r="L50" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C51" t="s">
         <v>277</v>
@@ -6827,14 +6913,15 @@
       <c r="J51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="4"/>
+      <c r="L51" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -6865,19 +6952,20 @@
       <c r="J52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4"/>
+      <c r="L52" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C53" t="s">
         <v>281</v>
@@ -6903,19 +6991,20 @@
       <c r="J53" s="4">
         <v>0</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="4"/>
+      <c r="L53" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C54" t="s">
         <v>284</v>
@@ -6941,14 +7030,15 @@
       <c r="J54" s="4">
         <v>0</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="4"/>
+      <c r="L54" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="M54" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -6979,14 +7069,15 @@
       <c r="J55" s="4">
         <v>1</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="4"/>
+      <c r="L55" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="M55" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -7017,14 +7108,15 @@
       <c r="J56" s="4">
         <v>1</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4"/>
+      <c r="L56" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="M56" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -7055,14 +7147,15 @@
       <c r="J57" s="4">
         <v>1</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="4"/>
+      <c r="L57" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="M57" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -7093,14 +7186,15 @@
       <c r="J58" s="4">
         <v>1</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4"/>
+      <c r="L58" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="M58" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -7131,14 +7225,15 @@
       <c r="J59" s="4">
         <v>1</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4"/>
+      <c r="L59" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="M59" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -7152,7 +7247,7 @@
         <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>283</v>
@@ -7169,19 +7264,20 @@
       <c r="J60" s="4">
         <v>1</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="M60" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K60" s="4"/>
+      <c r="L60" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="N60" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C61" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7209,19 +7305,20 @@
       <c r="J61" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="M61" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K61" s="4"/>
+      <c r="L61" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="N61" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C62" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7249,19 +7346,20 @@
       <c r="J62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="M62" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K62" s="4"/>
+      <c r="L62" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="N62" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C63" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7289,19 +7387,20 @@
       <c r="J63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="M63" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K63" s="4"/>
+      <c r="L63" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="N63" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C64" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7329,19 +7428,20 @@
       <c r="J64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="M64" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K64" s="4"/>
+      <c r="L64" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="N64" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C65" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7369,19 +7469,20 @@
       <c r="J65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="M65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K65" s="4"/>
+      <c r="L65" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="N65" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C66" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7409,19 +7510,20 @@
       <c r="J66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="M66" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K66" s="4"/>
+      <c r="L66" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="N66" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C67" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7449,19 +7551,20 @@
       <c r="J67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="M67" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K67" s="4"/>
+      <c r="L67" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="N67" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C68" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7489,19 +7592,20 @@
       <c r="J68" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="M68" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K68" s="4"/>
+      <c r="L68" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="N68" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C69" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7529,19 +7633,20 @@
       <c r="J69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="M69" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K69" s="4"/>
+      <c r="L69" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="N69" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C70" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7569,19 +7674,20 @@
       <c r="J70" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="M70" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K70" s="4"/>
+      <c r="L70" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="N70" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C71" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7609,19 +7715,20 @@
       <c r="J71" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="M71" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K71" s="4"/>
+      <c r="L71" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="N71" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C72" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7649,19 +7756,20 @@
       <c r="J72" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="M72" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K72" s="4"/>
+      <c r="L72" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="N72" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C73" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7689,19 +7797,20 @@
       <c r="J73" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="M73" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K73" s="4"/>
+      <c r="L73" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="N73" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C74" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7729,19 +7838,20 @@
       <c r="J74" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K74" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="M74" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K74" s="4"/>
+      <c r="L74" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="N74" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C75" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7769,19 +7879,20 @@
       <c r="J75" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="M75" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K75" s="4"/>
+      <c r="L75" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="N75" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C76" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7809,19 +7920,20 @@
       <c r="J76" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="M76" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K76" s="4"/>
+      <c r="L76" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="N76" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C77" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7849,19 +7961,20 @@
       <c r="J77" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="M77" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K77" s="4"/>
+      <c r="L77" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="N77" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C78" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7889,19 +8002,20 @@
       <c r="J78" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="M78" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K78" s="4"/>
+      <c r="L78" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="N78" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C79" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7929,19 +8043,20 @@
       <c r="J79" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K79" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="M79" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K79" s="4"/>
+      <c r="L79" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="N79" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C80" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7969,19 +8084,20 @@
       <c r="J80" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="M80" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K80" s="4"/>
+      <c r="L80" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="N80" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C81" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8009,19 +8125,20 @@
       <c r="J81" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="M81" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K81" s="4"/>
+      <c r="L81" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="N81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C82" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8049,19 +8166,20 @@
       <c r="J82" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K82" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="M82" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K82" s="4"/>
+      <c r="L82" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="N82" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C83" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8089,19 +8207,20 @@
       <c r="J83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="M83" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K83" s="4"/>
+      <c r="L83" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="N83" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C84" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8129,19 +8248,20 @@
       <c r="J84" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K84" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="M84" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K84" s="4"/>
+      <c r="L84" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="N84" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C85" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8169,19 +8289,20 @@
       <c r="J85" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="M85" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K85" s="4"/>
+      <c r="L85" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="N85" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C86" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8209,19 +8330,20 @@
       <c r="J86" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="M86" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K86" s="4"/>
+      <c r="L86" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="N86" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C87" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8249,19 +8371,20 @@
       <c r="J87" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K87" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="M87" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K87" s="4"/>
+      <c r="L87" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="N87" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C88" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8289,19 +8412,20 @@
       <c r="J88" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K88" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="M88" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K88" s="4"/>
+      <c r="L88" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="N88" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C89" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8327,21 +8451,22 @@
         <v>40</v>
       </c>
       <c r="J89" s="4">
-        <v>4</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="M89" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="N89" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C90" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8369,19 +8494,20 @@
       <c r="J90" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K90" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="M90" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K90" s="4"/>
+      <c r="L90" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="N90" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C91" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8409,19 +8535,20 @@
       <c r="J91" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K91" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="M91" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K91" s="4"/>
+      <c r="L91" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="N91" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C92" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8449,19 +8576,20 @@
       <c r="J92" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K92" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="M92" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K92" s="4"/>
+      <c r="L92" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="N92" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C93" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8489,11 +8617,96 @@
       <c r="J93" s="4">
         <v>0</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="M93" t="s">
-        <v>678</v>
+      <c r="K93" s="4"/>
+      <c r="L93" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="N93" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>687</v>
+      </c>
+      <c r="C94" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B94)</f>
+        <v>Shop/Props/purpleGarlic</v>
+      </c>
+      <c r="D94" s="4">
+        <v>25</v>
+      </c>
+      <c r="E94" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B94)</f>
+        <v>propInfo_purpleGarlic</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4">
+        <v>6</v>
+      </c>
+      <c r="H94" s="4">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1</v>
+      </c>
+      <c r="J94" s="4">
+        <v>4</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="L94" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="N94" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>688</v>
+      </c>
+      <c r="C95" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B95)</f>
+        <v>Shop/Props/mint</v>
+      </c>
+      <c r="D95" s="4">
+        <v>64</v>
+      </c>
+      <c r="E95" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B95)</f>
+        <v>propInfo_mint</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>8</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>6</v>
+      </c>
+      <c r="K95" t="s">
+        <v>687</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="N95" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741F01C-D4A3-46DA-9035-0BA251C30E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82118BA-58A3-4772-BADD-D4D39F5597C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="706">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -2259,11 +2268,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紫皮大蒜\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;自身每秒-1生命值&lt;/color&gt;\r\n吃了一直放屁，感觉中毒了\r\n&lt;color=#00ff00&gt;每个使屁持续时机增加1s，对处于其中的僵尸造成{0}((1+植物学/25)*伤害%)伤害&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#0000ff&gt;薄荷&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n吃了感觉凉凉的\r\n使&lt;color=#00ff00&gt;紫皮大蒜&lt;/color&gt;的臭屁附带&lt;color=#00ff00&gt;8%减速效果&lt;/color&gt;，可叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireStar</t>
+  </si>
+  <si>
+    <t>fireSeed</t>
+  </si>
+  <si>
+    <t>fireBall</t>
+  </si>
+  <si>
+    <t>fireElf</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"2"},{"attributeTypeString":"CriticalHitRate","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"8"},{"attributeTypeString":"CriticalHitRate","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"20"},{"attributeTypeString":"CriticalHitRate","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>火星\r\n&lt;color=#00ff00&gt;+2暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火星造成{0}伤害 （1 + 暴击率 / 10）* 暴击伤害 ，冷却时间5s&lt;/color&gt;\r\n火星可以进化为&lt;color=#0000ff&gt;火苗&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;火苗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火苗造成{0}伤害 （3 + 暴击率 / 10）* 暴击伤害 ，冷却时间4s&lt;/color&gt;\r\n火苗可以进化为&lt;color=#9932CD&gt;火团&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;火团&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火团造成{0}伤害 （5 + 暴击率 / 10）* 暴击伤害 ，冷却时间3s&lt;/color&gt;\r\n火团可以进化为&lt;color=#ff0000&gt;火精灵&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;火精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n火精灵是火焰的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 暴击伤害 / 100）火柱造成{1}伤害 （10+ 暴击率 / 5）* 暴击伤害 ，冷却时间2s&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫皮大蒜\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;自身每秒-1生命值&lt;/color&gt;\r\n吃了一直放屁，感觉中毒了\r\n&lt;color=#00ff00&gt;每个使屁持续时机增加1s，对处于其中的僵尸造成{0}((1+植物学/5)*伤害%)伤害&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4908,13 +4957,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K92" sqref="K92"/>
+      <selection pane="bottomRight" activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8663,7 +8712,7 @@
         <v>689</v>
       </c>
       <c r="N94" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8706,7 +8755,176 @@
         <v>690</v>
       </c>
       <c r="N95" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
         <v>693</v>
+      </c>
+      <c r="C96" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B96)</f>
+        <v>Shop/Props/fireStar</v>
+      </c>
+      <c r="D96" s="4">
+        <v>24</v>
+      </c>
+      <c r="E96" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B96)</f>
+        <v>propInfo_fireStar</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4">
+        <v>7</v>
+      </c>
+      <c r="H96" s="4">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4">
+        <v>5</v>
+      </c>
+      <c r="J96" s="4">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="N96" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>694</v>
+      </c>
+      <c r="C97" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B97)</f>
+        <v>Shop/Props/fireSeed</v>
+      </c>
+      <c r="D97" s="4">
+        <v>66</v>
+      </c>
+      <c r="E97" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B97)</f>
+        <v>propInfo_fireSeed</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4">
+        <v>7</v>
+      </c>
+      <c r="H97" s="4">
+        <v>3</v>
+      </c>
+      <c r="I97" s="4">
+        <v>4</v>
+      </c>
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>693</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="N97" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>695</v>
+      </c>
+      <c r="C98" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B98)</f>
+        <v>Shop/Props/fireBall</v>
+      </c>
+      <c r="D98" s="4">
+        <v>144</v>
+      </c>
+      <c r="E98" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B98)</f>
+        <v>propInfo_fireBall</v>
+      </c>
+      <c r="F98" s="4">
+        <v>3</v>
+      </c>
+      <c r="G98" s="4">
+        <v>7</v>
+      </c>
+      <c r="H98" s="4">
+        <v>5</v>
+      </c>
+      <c r="I98" s="4">
+        <v>3</v>
+      </c>
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>694</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="N98" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>696</v>
+      </c>
+      <c r="C99" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B99)</f>
+        <v>Shop/Props/fireElf</v>
+      </c>
+      <c r="D99" s="4">
+        <v>299</v>
+      </c>
+      <c r="E99" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B99)</f>
+        <v>propInfo_fireElf</v>
+      </c>
+      <c r="F99" s="4">
+        <v>4</v>
+      </c>
+      <c r="G99" s="4">
+        <v>7</v>
+      </c>
+      <c r="H99" s="4">
+        <v>10</v>
+      </c>
+      <c r="I99" s="4">
+        <v>2</v>
+      </c>
+      <c r="J99" s="4">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>695</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="N99" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82118BA-58A3-4772-BADD-D4D39F5597C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8A9AC-B99C-48E4-AEC6-6D5F51B5E7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="721">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -1489,830 +1489,881 @@
     <t>[{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-3"}]</t>
   </si>
   <si>
+    <t>[{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"Lucky","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"GoldCoins","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"GoldCoins","increment":"30"},{"attributeTypeString":"Lucky","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Lucky","increment":"3"},{"attributeTypeString":"Sunshine","increment":"50"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"3"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"4"},{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"-5"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"6"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"8"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"8"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Speed","increment":"-5"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"-6"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"15"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"GoldCoins","increment":"20"},{"attributeTypeString":"Lucky","increment":"3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"25"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"20"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"GoldCoins","increment":"50"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Botany","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"20"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Sunshine","increment":"100"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"3"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"PercentageDamage","increment":"8"},{"attributeTypeString":"Speed","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"Armor","increment":"6"},{"attributeTypeString":"Range","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"6"},{"attributeTypeString":"Armor","increment":"6"},{"attributeTypeString":"Range","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"15"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Speed","increment":"-8"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"25"},{"attributeTypeString":"GoldCoins","increment":"25"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Power","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"6"},{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-6"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"10"},{"attributeTypeString":"Lucky","increment":"8"},{"attributeTypeString":"GoldCoins","increment":"30"},{"attributeTypeString":"Range","increment":"-20"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"6"},{"attributeTypeString":"Range","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"6"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"32"},{"attributeTypeString":"Speed","increment":"30"},{"attributeTypeString":"Armor","increment":"7"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"GoldCoins","increment":"60"},{"attributeTypeString":"LifeRecovery","increment":"-10"},{"attributeTypeString":"AttackSpeed","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"30"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"Speed","increment":"15"},{"attributeTypeString":"AttackSpeed","increment":"15"},{"attributeTypeString":"Sunshine","increment":"200"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Lucky","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"40"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Lucky","increment":"6"},{"attributeTypeString":"LifeRecovery","increment":"6"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Sunshine","increment":"100"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Power","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>一个下巴？\r\n&lt;color=#00ff00&gt;+2肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n看起来令人毛骨悚然</t>
+  </si>
+  <si>
+    <t>正在哭泣的红心\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n她看起来好可怜</t>
+  </si>
+  <si>
+    <t>牵引金币的磁铁\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;金币&lt;/color&gt;了\r\n但是相互作用力之下，我的速度也收到了影响</t>
+  </si>
+  <si>
+    <t>吸收阳光的黑洞\r\n&lt;color=#ff0000&gt;-4植物学&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;阳光&lt;/color&gt;了\r\n植物好像非常害怕它</t>
+  </si>
+  <si>
+    <t>金属盘子\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n可以用来干饭</t>
+  </si>
+  <si>
+    <t>长牙齿的咽喉？\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5生命恢复&lt;/color&gt;\r\n看起来更像一条蛇</t>
+  </si>
+  <si>
+    <t>小海菇的帽子\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3最大生命值&lt;/color&gt;\r\n可以好好研究一下</t>
+  </si>
+  <si>
+    <t>阳光菇帽子\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n可以好好研究一下</t>
+  </si>
+  <si>
+    <t>戴夫的胡须\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n这是我的胡子</t>
+  </si>
+  <si>
+    <t>眼镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n戴上后视野会变得清晰</t>
+  </si>
+  <si>
+    <t>叶子\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n不知道属于哪个植物</t>
+  </si>
+  <si>
+    <t>小花\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n看起来很眼熟</t>
+  </si>
+  <si>
+    <t>肥料\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n应该能帮到植物们</t>
+  </si>
+  <si>
+    <t>车钥匙\r\n&lt;color=#9932CD&gt;可以免费刷新一次商品&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>钱袋\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n里面能装不少钱</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;钻石&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n亮闪亮闪的很漂亮</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;葵花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n向日葵的花瓣，不知道有没有葵花籽</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;篮子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n好像是某个投手的投射器</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;耙子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n这件兵器很趁手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;水壶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n对植物们很有帮助</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;小丑礼盒&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n一个会爆炸的礼盒，我得小心收藏</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一朵水花？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n哪个跳水队都比不过这一朵</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一卷草皮？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n铺开躺上去一定很舒服</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一根地刺&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n都不想踩在上面</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;蜗牛&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n应该对植物有所帮助，跑得太慢了</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;杀虫剂&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6生命恢复&lt;/color&gt;\r\n气味很难闻，可以帮助植物对抗虫子</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;铲子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以铲掉花园中的泥土，放置花盆</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;卡槽&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以增加出战植物的上限</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;书&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15植物学&lt;/color&gt;\r\n可以学到许多知识</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;奖杯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n荣誉的象征</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;三明治&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n看起来很好吃</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;一把锁&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n可以对准</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;留声机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3护甲&lt;/color&gt;\r\n听听音乐放松一下</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;冰镇西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n吃太多会拉肚子</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n肚子都要被撑爆了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;水花盆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n可以在上面种荷叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;金盏花瓣&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n看看她是这么产生金币的</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;智慧树肥料&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n这个好</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;篮球&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n听说鸽鸽很会玩这个</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n并且对某直线上的僵尸造成{0}\r\n伤害冷却时间{1}</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;铁桶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自铁桶僵尸的战利品，但是会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;路障&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自路障僵尸的战利品，但是会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;铁栅栏&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8速度&lt;/color&gt;\r\n来自铁栅栏僵尸的战利品，会影响到我正常走路</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;报纸&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3力量&lt;/color&gt;\r\n来自读报僵尸的战利品，里面蕴含的知识可真不少</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;扶梯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6攻击速度&lt;/color&gt;\r\n来自扶梯僵尸的战利品，能攻击到更远的地方了</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;橄榄球头盔&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20范围&lt;/color&gt;\r\n来自橄榄球僵尸的战利品，会影响到我的视野</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;路牌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n来自巨人僵尸的战利品，这么重的玩意儿太影响我的移动速度了</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;推土车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;&lt;/color&gt;\r\n能托运泥土，锻炼身体，但是老了推不太动</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;冰碎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10攻击速度&lt;/color&gt;\r\n看起来就很冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;传送门&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10幸运&lt;/color&gt;\r\n可在场上随机位置生成两个传送门，这很酷\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;雾机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n有概率产生雾，免疫远程攻击\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;灯光机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击率&lt;/color&gt;\r\n有灯光才有气氛\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;麦克风&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5力量&lt;/color&gt;\r\n使我变成大明星\r\n</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;音响&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n使我的声音传的更远\r\n</t>
+  </si>
+  <si>
+    <t>Pot_Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basketball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guideboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screendoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icetrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CobCannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玉米加农炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop/Plants/CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantName_CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantInfo_CobCannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerReminder</t>
+  </si>
+  <si>
+    <t>brokenEggshell</t>
+  </si>
+  <si>
+    <t>goggles</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>gong</t>
+  </si>
+  <si>
+    <t>gongStick</t>
+  </si>
+  <si>
+    <t>ignitedBomb</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>pennant</t>
+  </si>
+  <si>
+    <t>damagedSkateboard</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>actionBars</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>drumsticks</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>iceCake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batWings</t>
+  </si>
+  <si>
+    <t>hemline</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>brokenHat</t>
+  </si>
+  <si>
+    <t>pinecone</t>
+  </si>
+  <si>
+    <t>zombieRightHand</t>
+  </si>
+  <si>
+    <t>zombieLeftHand</t>
+  </si>
+  <si>
+    <t>imitator</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>zombieBanOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>unknownButton</t>
+  </si>
+  <si>
+    <t>propInfo_speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎蛋壳\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n可以看出孕育出来了新的生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险提醒\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5伤害&lt;/color&gt;\r\n前面的区域很危险，以后再来探索吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n可以有效的保护我的脑子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣棍\r\n&lt;color=#00ff00&gt;+3生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3植物学&lt;/color&gt;\r\n敲锣用的锣棍,敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锣点燃的炸弹\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n感觉立马会爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n看起来很美味的南瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2暴击率&lt;/color&gt;\r\n飞机的机翼，速度应该很快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损滑板\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n破损的滑板，用了可能会摔跤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄油\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击伤害&lt;/color&gt;\r\n听说玉米投手有可能会投射黄油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵杆\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n好像是游戏操作杆，似乎损坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;录音机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n应该也可以用来播放磁带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;假面&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5暴击率&lt;/color&gt;\r\n假面超人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;鸡腿&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8生命恢复&lt;/color&gt;\r\n喷香的大鸡腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n天上掉下来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰块&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n亮晶晶的冰块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;蝠翼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;裙摆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;能有效保护我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;伞&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;最靓的仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎的帽子\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n勉强能挡住一点点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;松果&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n可爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸左手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的左手，看起来充满力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;僵尸右手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的右手，看起来充满力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;模仿者&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿者\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n不知道什么的底座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁僵尸令\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n此处禁止僵尸\r\n&lt;color=#00ff00&gt;僵尸数量减少10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;撑杆跳杆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n撑杆跳僵尸的杆杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n火焰皮肤的小推车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;未知按钮&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n不知道控制什么的按钮，刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;锦旗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n僵尸的锦旗，看起来他们很喜欢脑子\r\n&lt;color=#ff0000&gt;僵尸数量增多10%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Power","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"3"},{"attributeTypeString":"PercentageDamage","increment":"6"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Botany","increment":"-3"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"4"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"3"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"Speed","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"4"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"GoldCoins","increment":"5"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Range","increment":"-10"},{"attributeTypeString":"CriticalHitRate","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"8"},{"attributeTypeString":"LifeRecovery","increment":"8"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"6"},{"attributeTypeString":"Range","increment":"6"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Range","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"1"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Range","increment":"-10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-10"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"CriticalDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"50"},{"attributeTypeString":"LifeRecovery","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Power","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Speed","increment":"5"}]</t>
+  </si>
+  <si>
+    <t>zamboni</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;冰车轮胎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n从冰车上写下来的轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoleVaulting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop/Plants/normalBg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大购买个数，0无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置购买道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontProp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpleGarlic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"4"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;火焰&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15攻击速度&lt;/color&gt;\r\n自身每秒&lt;color=#ff0000&gt;{0}生命值&lt;/color&gt;\r\n火焰正在燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;薄荷&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n吃了感觉凉凉的\r\n使&lt;color=#00ff00&gt;紫皮大蒜&lt;/color&gt;的臭屁附带&lt;color=#00ff00&gt;8%减速效果&lt;/color&gt;，可叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireStar</t>
+  </si>
+  <si>
+    <t>fireSeed</t>
+  </si>
+  <si>
+    <t>fireBall</t>
+  </si>
+  <si>
+    <t>fireElf</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"2"},{"attributeTypeString":"CriticalHitRate","increment":"1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"8"},{"attributeTypeString":"CriticalHitRate","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"20"},{"attributeTypeString":"CriticalHitRate","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>火星\r\n&lt;color=#00ff00&gt;+2暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火星造成{0}伤害 （1 + 暴击率 / 10）* 暴击伤害 ，冷却时间5s&lt;/color&gt;\r\n火星可以进化为&lt;color=#0000ff&gt;火苗&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;火苗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火苗造成{0}伤害 （3 + 暴击率 / 10）* 暴击伤害 ，冷却时间4s&lt;/color&gt;\r\n火苗可以进化为&lt;color=#9932CD&gt;火团&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;火团&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火团造成{0}伤害 （5 + 暴击率 / 10）* 暴击伤害 ，冷却时间3s&lt;/color&gt;\r\n火团可以进化为&lt;color=#ff0000&gt;火精灵&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫皮大蒜\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;自身每秒-1生命值&lt;/color&gt;\r\n吃了一直放屁，感觉中毒了\r\n&lt;color=#00ff00&gt;每个使屁持续时机增加1s，对处于其中的僵尸造成{0}((1+植物学/5)*伤害%)伤害&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterDroplet</t>
+  </si>
+  <si>
+    <t>waterBead</t>
+  </si>
+  <si>
+    <t>waterSplash</t>
+  </si>
+  <si>
+    <t>waterElf</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"2"},{"attributeTypeString":"LifeRecovery","increment":"2"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"10"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"20"}]</t>
+  </si>
+  <si>
+    <t>水滴\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤水滴冲锋造成{0}伤害 （1 + 生命恢复 / 5 + 生命值 / 6），冷却时间8s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水滴可以进化为&lt;color=#0000ff&gt;水珠&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;水珠&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤水珠冲锋造成{0}伤害 （3+ 生命恢复 / 5 + 生命值 / 6），冷却时间6s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水珠可以进化为&lt;color=#9932CD&gt;水花&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;水花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n\r\n&lt;color=#00ff00&gt;召唤水花冲锋造成{0}伤害 （5 + 生命恢复 / 5 + 生命值 / 6），冷却时间4s\r\n减速（比例：生命恢复）和击退（力度：生命值）敌人&lt;/color&gt;\r\n水花可以进化为&lt;color=#ff0000&gt;水精灵&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;火精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n火精灵是火焰的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 暴击伤害 / 100）火柱造成{1}伤害 （10+ 暴击率 / 5）* 暴击伤害 ，冷却时间2s&lt;/color&gt;\r\n燃尽一切吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;水精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20生命恢复&lt;/color&gt;\r\n水精灵是水的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 生命值 / 100）水流造成{1}伤害 （10 + 生命恢复 / 2.5 + 生命值 / 3），冷却时间2s&lt;/color&gt;\r\n大坝谁修哈！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkCloud</t>
+  </si>
+  <si>
     <t>[{"attributeTypeString":"Sunshine","increment":"50"},{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"Power","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"3"},{"attributeTypeString":"Lucky","increment":"1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"GoldCoins","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"GoldCoins","increment":"30"},{"attributeTypeString":"Lucky","increment":"4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Lucky","increment":"3"},{"attributeTypeString":"Sunshine","increment":"50"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"3"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"4"},{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"-5"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"6"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"8"},{"attributeTypeString":"Power","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"8"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Speed","increment":"-5"},{"attributeTypeString":"Adrenaline","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"-6"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"15"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"GoldCoins","increment":"20"},{"attributeTypeString":"Lucky","increment":"3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"25"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"20"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"GoldCoins","increment":"50"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Botany","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"20"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Sunshine","increment":"100"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"3"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"PercentageDamage","increment":"8"},{"attributeTypeString":"Speed","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"Armor","increment":"6"},{"attributeTypeString":"Range","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"6"},{"attributeTypeString":"Armor","increment":"6"},{"attributeTypeString":"Range","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"15"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Speed","increment":"-8"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"25"},{"attributeTypeString":"GoldCoins","increment":"25"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Power","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"6"},{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-6"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"10"},{"attributeTypeString":"Lucky","increment":"8"},{"attributeTypeString":"GoldCoins","increment":"30"},{"attributeTypeString":"Range","increment":"-20"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"6"},{"attributeTypeString":"Range","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"6"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Botany","increment":"10"},{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"32"},{"attributeTypeString":"Speed","increment":"30"},{"attributeTypeString":"Armor","increment":"7"},{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"GoldCoins","increment":"60"},{"attributeTypeString":"LifeRecovery","increment":"-10"},{"attributeTypeString":"AttackSpeed","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"PercentageDamage","increment":"30"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"Speed","increment":"15"},{"attributeTypeString":"AttackSpeed","increment":"15"},{"attributeTypeString":"Sunshine","increment":"200"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Lucky","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"40"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Lucky","increment":"6"},{"attributeTypeString":"LifeRecovery","increment":"6"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Sunshine","increment":"100"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"20"},{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"GoldCoins","increment":"100"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Power","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>一个下巴？\r\n&lt;color=#00ff00&gt;+2肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n看起来令人毛骨悚然</t>
-  </si>
-  <si>
-    <t>正在哭泣的红心\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n她看起来好可怜</t>
-  </si>
-  <si>
-    <t>牵引金币的磁铁\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;金币&lt;/color&gt;了\r\n但是相互作用力之下，我的速度也收到了影响</t>
-  </si>
-  <si>
-    <t>吸收阳光的黑洞\r\n&lt;color=#ff0000&gt;-4植物学&lt;/color&gt;\r\n有了它我就不需要一个一个点击收集&lt;color=#ff00ff&gt;阳光&lt;/color&gt;了\r\n植物好像非常害怕它</t>
-  </si>
-  <si>
-    <t>金属盘子\r\n&lt;color=#00ff00&gt;+2最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n可以用来干饭</t>
-  </si>
-  <si>
-    <t>长牙齿的咽喉？\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5生命恢复&lt;/color&gt;\r\n看起来更像一条蛇</t>
-  </si>
-  <si>
-    <t>小海菇的帽子\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3最大生命值&lt;/color&gt;\r\n可以好好研究一下</t>
-  </si>
-  <si>
-    <t>阳光菇帽子\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n可以好好研究一下</t>
-  </si>
-  <si>
-    <t>戴夫的胡须\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n这是我的胡子</t>
-  </si>
-  <si>
-    <t>眼镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n戴上后视野会变得清晰</t>
-  </si>
-  <si>
-    <t>叶子\r\n&lt;color=#00ff00&gt;+3植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n不知道属于哪个植物</t>
-  </si>
-  <si>
-    <t>小花\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n看起来很眼熟</t>
-  </si>
-  <si>
-    <t>肥料\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n应该能帮到植物们</t>
-  </si>
-  <si>
-    <t>车钥匙\r\n&lt;color=#9932CD&gt;可以免费刷新一次商品&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>钱袋\r\n&lt;color=#00ff00&gt;+10金币&lt;/color&gt;\r\n里面能装不少钱</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;钻石&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n亮闪亮闪的很漂亮</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;葵花&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50阳光&lt;/color&gt;\r\n向日葵的花瓣，不知道有没有葵花籽</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;篮子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n好像是某个投手的投射器</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;耙子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n这件兵器很趁手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;水壶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n对植物们很有帮助</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;小丑礼盒&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2最大生命值&lt;/color&gt;\r\n一个会爆炸的礼盒，我得小心收藏</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;一朵水花？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n哪个跳水队都比不过这一朵</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;一卷草皮？&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n铺开躺上去一定很舒服</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;一根地刺&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n都不想踩在上面</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;蜗牛&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3肾上腺素&lt;/color&gt;\r\n应该对植物有所帮助，跑得太慢了</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;杀虫剂&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6生命恢复&lt;/color&gt;\r\n气味很难闻，可以帮助植物对抗虫子</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;铲子&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以铲掉花园中的泥土，放置花盆</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;卡槽&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n可以增加出战植物的上限</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;书&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15植物学&lt;/color&gt;\r\n可以学到许多知识</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;奖杯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3幸运&lt;/color&gt;\r\n荣誉的象征</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;三明治&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n看起来很好吃</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;一把锁&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3攻击速度&lt;/color&gt;\r\n可以对准</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;留声机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3护甲&lt;/color&gt;\r\n听听音乐放松一下</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;冰镇西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n吃太多会拉肚子</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;西瓜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n肚子都要被撑爆了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;水花盆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n可以在上面种荷叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;金盏花瓣&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n看看她是这么产生金币的</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;智慧树肥料&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n这个好</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;篮球&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n听说鸽鸽很会玩这个</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n并且对某直线上的僵尸造成{0}\r\n伤害冷却时间{1}</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;铁桶&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自铁桶僵尸的战利品，但是会影响到我的视野</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;路障&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n来自路障僵尸的战利品，但是会影响到我的视野</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;铁栅栏&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-8速度&lt;/color&gt;\r\n来自铁栅栏僵尸的战利品，会影响到我正常走路</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;报纸&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3力量&lt;/color&gt;\r\n来自读报僵尸的战利品，里面蕴含的知识可真不少</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;扶梯&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-6攻击速度&lt;/color&gt;\r\n来自扶梯僵尸的战利品，能攻击到更远的地方了</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;橄榄球头盔&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30金币&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20范围&lt;/color&gt;\r\n来自橄榄球僵尸的战利品，会影响到我的视野</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;路牌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n来自巨人僵尸的战利品，这么重的玩意儿太影响我的移动速度了</t>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;推土车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10植物学&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;&lt;/color&gt;\r\n能托运泥土，锻炼身体，但是老了推不太动</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;冰碎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+32肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+60金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+7护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10攻击速度&lt;/color&gt;\r\n看起来就很冷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;传送门&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10幸运&lt;/color&gt;\r\n可在场上随机位置生成两个传送门，这很酷\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;雾机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+40最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n有概率产生雾，免疫远程攻击\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;灯光机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击率&lt;/color&gt;\r\n有灯光才有气氛\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;麦克风&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5力量&lt;/color&gt;\r\n使我变成大明星\r\n</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;音响&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10速度&lt;/color&gt;\r\n使我的声音传的更远\r\n</t>
-  </si>
-  <si>
-    <t>Pot_Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basketball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bucket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guideboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screendoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icetrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CobCannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 玉米加农炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop/Plants/CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantName_CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantInfo_CobCannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"20"},{"attributeTypeString":"Power","increment":"10"},{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"AttackSpeed","increment":"20"},{"attributeTypeString":"Speed","increment":"-10"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dangerReminder</t>
-  </si>
-  <si>
-    <t>brokenEggshell</t>
-  </si>
-  <si>
-    <t>goggles</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
-    <t>gong</t>
-  </si>
-  <si>
-    <t>gongStick</t>
-  </si>
-  <si>
-    <t>ignitedBomb</t>
-  </si>
-  <si>
-    <t>pumpkin</t>
-  </si>
-  <si>
-    <t>wing</t>
-  </si>
-  <si>
-    <t>pennant</t>
-  </si>
-  <si>
-    <t>damagedSkateboard</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>actionBars</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>drumsticks</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>iceCake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batWings</t>
-  </si>
-  <si>
-    <t>hemline</t>
-  </si>
-  <si>
-    <t>umbrella</t>
-  </si>
-  <si>
-    <t>brokenHat</t>
-  </si>
-  <si>
-    <t>pinecone</t>
-  </si>
-  <si>
-    <t>zombieRightHand</t>
-  </si>
-  <si>
-    <t>zombieLeftHand</t>
-  </si>
-  <si>
-    <t>imitator</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>zombieBanOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>unknownButton</t>
-  </si>
-  <si>
-    <t>propInfo_speaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎蛋壳\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2护甲&lt;/color&gt;\r\n可以看出孕育出来了新的生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>危险提醒\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5伤害&lt;/color&gt;\r\n前面的区域很危险，以后再来探索吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖\r\n&lt;color=#00ff00&gt;+15暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3暴击率&lt;/color&gt;\r\n是一根可以施展魔法的法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;木槌&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n鼠标左键使用木槌造成{0}伤害\r\n冷却时间{1}s\r\n这太哇塞了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;菠菜&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#9932CD&gt;解锁击退，并且僵尸尸体飞行造成碰撞伤害(每有一个伤害增加25%,最大100%)&lt;/color&gt;\r\n吃了它我能把僵尸直接干飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护目镜\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n能有效保护眼睛\r\n&lt;color=#9932CD&gt;可以攻击会飞的气球僵尸了&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝壳\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n可以有效的保护我的脑子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3速度&lt;/color&gt;\r\n敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣棍\r\n&lt;color=#00ff00&gt;+3生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-3植物学&lt;/color&gt;\r\n敲锣用的锣棍,敲响锣鼓会吸引更多僵尸\r\n&lt;color=#ff0000&gt;僵尸数量增多5%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锣点燃的炸弹\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+3暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n感觉立马会爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜\r\n&lt;color=#00ff00&gt;+4最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n看起来很美味的南瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2暴击率&lt;/color&gt;\r\n飞机的机翼，速度应该很快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破损滑板\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n破损的滑板，用了可能会摔跤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄油\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10暴击伤害&lt;/color&gt;\r\n听说玉米投手有可能会投射黄油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操纵杆\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n好像是游戏操作杆，似乎损坏了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;录音机&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5幸运&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5金币&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5植物学&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;\r\n应该也可以用来播放磁带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;假面&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5暴击率&lt;/color&gt;\r\n假面超人！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;鸡腿&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8生命恢复&lt;/color&gt;\r\n喷香的大鸡腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+6范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1暴击率&lt;/color&gt;\r\n天上掉下来的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;冰块&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5肾上腺素&lt;/color&gt;\r\n亮晶晶的冰块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;蝠翼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2力量&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;裙摆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;能有效保护我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;伞&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;最靓的仔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎的帽子\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10范围&lt;/color&gt;\r\n勉强能挡住一点点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;松果&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5护甲&lt;/color&gt;\r\n可爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;僵尸左手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的左手，看起来充满力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;僵尸右手&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-10肾上腺素&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5幸运&lt;/color&gt;\r\n僵尸的右手，看起来充满力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;模仿者&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+50最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模仿者\r\n&lt;color=#00ff00&gt;+1力量&lt;/color&gt;\r\n不知道什么的底座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁僵尸令\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1力量&lt;/color&gt;\r\n此处禁止僵尸\r\n&lt;color=#00ff00&gt;僵尸数量减少10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;撑杆跳杆&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n撑杆跳僵尸的杆杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;小推车&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n火焰皮肤的小推车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;未知按钮&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n不知道控制什么的按钮，刺激</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;锦旗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2幸运&lt;/color&gt;\r\n僵尸的锦旗，看起来他们很喜欢脑子\r\n&lt;color=#ff0000&gt;僵尸数量增多10%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"Armor","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Power","increment":"-1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"CriticalDamage","increment":"15"},{"attributeTypeString":"CriticalHitRate","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"Adrenaline","increment":"5"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Speed","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"3"},{"attributeTypeString":"PercentageDamage","increment":"6"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Botany","increment":"-3"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"4"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"3"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"4"},{"attributeTypeString":"LifeRecovery","increment":"2"},{"attributeTypeString":"Lucky","increment":"1"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"Speed","increment":"2"},{"attributeTypeString":"CriticalDamage","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"4"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Lucky","increment":"5"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"GoldCoins","increment":"5"},{"attributeTypeString":"Botany","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"},{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"Range","increment":"-10"},{"attributeTypeString":"CriticalHitRate","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"8"},{"attributeTypeString":"LifeRecovery","increment":"8"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"6"},{"attributeTypeString":"Range","increment":"6"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"-1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Power","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Armor","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"4"},{"attributeTypeString":"Range","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"Armor","increment":"1"},{"attributeTypeString":"Power","increment":"1"},{"attributeTypeString":"Range","increment":"-10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"20"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"10"},{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"-10"},{"attributeTypeString":"Armor","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"CriticalHitRate","increment":"10"},{"attributeTypeString":"CriticalDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"8"},{"attributeTypeString":"PercentageDamage","increment":"20"},{"attributeTypeString":"Adrenaline","increment":"-10"},{"attributeTypeString":"Lucky","increment":"-5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"50"},{"attributeTypeString":"LifeRecovery","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Power","increment":"-1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"5"},{"attributeTypeString":"Range","increment":"5"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Speed","increment":"5"}]</t>
-  </si>
-  <si>
-    <t>zamboni</t>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;冰车轮胎&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10生命恢复&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5攻击速度&lt;/color&gt;\r\n从冰车上写下来的轮胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoleVaulting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"Lucky","increment":"2"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"10"},{"attributeTypeString":"LifeRecovery","increment":"10"},{"attributeTypeString":"AttackSpeed","increment":"5"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop/Plants/normalBg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大购买个数，0无限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置购买道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontProp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purpleGarlic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"Speed","increment":"5"},{"attributeTypeString":"PercentageDamage","increment":"4"},{"attributeTypeString":"Lucky","increment":"-2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"MaximumHP","increment":"5"},{"attributeTypeString":"LifeRecovery","increment":"4"}]</t>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;火焰&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+200阳光&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+30伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+15攻击速度&lt;/color&gt;\r\n自身每秒&lt;color=#ff0000&gt;{0}生命值&lt;/color&gt;\r\n火焰正在燃烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;薄荷&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5最大生命值&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4生命恢复&lt;/color&gt;\r\n吃了感觉凉凉的\r\n使&lt;color=#00ff00&gt;紫皮大蒜&lt;/color&gt;的臭屁附带&lt;color=#00ff00&gt;8%减速效果&lt;/color&gt;，可叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireStar</t>
-  </si>
-  <si>
-    <t>fireSeed</t>
-  </si>
-  <si>
-    <t>fireBall</t>
-  </si>
-  <si>
-    <t>fireElf</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"CriticalDamage","increment":"2"},{"attributeTypeString":"CriticalHitRate","increment":"1"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"CriticalHitRate","increment":"2"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"CriticalDamage","increment":"8"},{"attributeTypeString":"CriticalHitRate","increment":"4"}]</t>
-  </si>
-  <si>
-    <t>[{"attributeTypeString":"CriticalDamage","increment":"20"},{"attributeTypeString":"CriticalHitRate","increment":"10"}]</t>
-  </si>
-  <si>
-    <t>火星\r\n&lt;color=#00ff00&gt;+2暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+1暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火星造成{0}伤害 （1 + 暴击率 / 10）* 暴击伤害 ，冷却时间5s&lt;/color&gt;\r\n火星可以进化为&lt;color=#0000ff&gt;火苗&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#0000ff&gt;火苗&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火苗造成{0}伤害 （3 + 暴击率 / 10）* 暴击伤害 ，冷却时间4s&lt;/color&gt;\r\n火苗可以进化为&lt;color=#9932CD&gt;火团&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#9932CD&gt;火团&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+8暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;召唤火团造成{0}伤害 （5 + 暴击率 / 10）* 暴击伤害 ，冷却时间3s&lt;/color&gt;\r\n火团可以进化为&lt;color=#ff0000&gt;火精灵&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;火精灵&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+20暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击率&lt;/color&gt;\r\n火精灵是火焰的最终进化形态\r\n&lt;color=#00ff00&gt;可以召唤{0}道（1 + 暴击伤害 / 100）火柱造成{1}伤害 （10+ 暴击率 / 5）* 暴击伤害 ，冷却时间2s&lt;/color&gt;\r\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫皮大蒜\r\n&lt;color=#00ff00&gt;+5速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;自身每秒-1生命值&lt;/color&gt;\r\n吃了一直放屁，感觉中毒了\r\n&lt;color=#00ff00&gt;每个使屁持续时机增加1s，对处于其中的僵尸造成{0}((1+植物学/5)*伤害%)伤害&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"25"},{"attributeTypeString":"CriticalDamage","increment":"10"},{"attributeTypeString":"Sunshine","increment":"100"},{"attributeTypeString":"Lucky","increment":"-2"},{"attributeTypeString":"Armor","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;乌云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1护甲&lt;/color&gt;\r\n正在下雨的乌云，随时会降下闪电\r\n&lt;color=#00ff00&gt;召唤乌云，在周围游走，造成{0}范围伤害 （5 + 肾上腺素 / 5）* 暴击伤害 ，冷却时间6s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2869,7 +2920,7 @@
         <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2938,7 +2989,7 @@
         <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -4192,13 +4243,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E43">
         <v>150</v>
@@ -4207,7 +4258,7 @@
         <v>500</v>
       </c>
       <c r="G43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -4934,10 +4985,10 @@
     </row>
     <row r="168" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K168" t="s">
+        <v>568</v>
+      </c>
+      <c r="L168" t="s">
         <v>569</v>
-      </c>
-      <c r="L168" t="s">
-        <v>570</v>
       </c>
       <c r="M168">
         <v>40</v>
@@ -4957,13 +5008,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N103" sqref="N103"/>
+      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5004,19 +5055,19 @@
         <v>313</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>641</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>642</v>
       </c>
       <c r="I1" t="s">
         <v>314</v>
       </c>
       <c r="J1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K1" t="s">
         <v>684</v>
-      </c>
-      <c r="K1" t="s">
-        <v>685</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>311</v>
@@ -5042,19 +5093,19 @@
         <v>307</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>309</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>308</v>
@@ -5134,7 +5185,7 @@
         <v>450</v>
       </c>
       <c r="N4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5173,7 +5224,7 @@
         <v>451</v>
       </c>
       <c r="N5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5212,7 +5263,7 @@
         <v>452</v>
       </c>
       <c r="N6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5251,7 +5302,7 @@
         <v>453</v>
       </c>
       <c r="N7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5290,7 +5341,7 @@
         <v>454</v>
       </c>
       <c r="N8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5329,7 +5380,7 @@
         <v>455</v>
       </c>
       <c r="N9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5368,7 +5419,7 @@
         <v>456</v>
       </c>
       <c r="N10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5404,10 +5455,10 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="2" t="s">
-        <v>457</v>
+        <v>718</v>
       </c>
       <c r="N11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5443,10 +5494,10 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5482,10 +5533,10 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5521,10 +5572,10 @@
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5560,10 +5611,10 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5599,10 +5650,10 @@
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5610,7 +5661,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -5641,7 +5692,7 @@
         <v>310</v>
       </c>
       <c r="N17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5677,10 +5728,10 @@
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5716,10 +5767,10 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5755,10 +5806,10 @@
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5794,10 +5845,10 @@
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5833,10 +5884,10 @@
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5872,10 +5923,10 @@
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5911,10 +5962,10 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5950,10 +6001,10 @@
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -5989,10 +6040,10 @@
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6028,10 +6079,10 @@
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6067,10 +6118,10 @@
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6106,10 +6157,10 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6145,10 +6196,10 @@
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6184,10 +6235,10 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6223,10 +6274,10 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6262,10 +6313,10 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6301,10 +6352,10 @@
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6340,10 +6391,10 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6379,10 +6430,10 @@
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N36" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6418,10 +6469,10 @@
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6457,10 +6508,10 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6468,7 +6519,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C39" t="s">
         <v>249</v>
@@ -6496,10 +6547,10 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6535,10 +6586,10 @@
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6574,10 +6625,10 @@
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6613,10 +6664,10 @@
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6624,7 +6675,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C43" t="s">
         <v>259</v>
@@ -6652,10 +6703,10 @@
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6691,10 +6742,10 @@
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6702,7 +6753,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C45" t="s">
         <v>266</v>
@@ -6730,10 +6781,10 @@
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6741,7 +6792,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C46" t="s">
         <v>267</v>
@@ -6769,10 +6820,10 @@
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6780,7 +6831,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C47" t="s">
         <v>268</v>
@@ -6808,10 +6859,10 @@
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6819,7 +6870,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C48" t="s">
         <v>270</v>
@@ -6847,10 +6898,10 @@
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6886,10 +6937,10 @@
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6897,7 +6948,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C50" t="s">
         <v>275</v>
@@ -6925,10 +6976,10 @@
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6936,7 +6987,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C51" t="s">
         <v>277</v>
@@ -6964,10 +7015,10 @@
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7003,10 +7054,10 @@
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7014,7 +7065,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C53" t="s">
         <v>281</v>
@@ -7042,10 +7093,10 @@
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7053,7 +7104,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C54" t="s">
         <v>284</v>
@@ -7081,10 +7132,10 @@
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N54" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7120,10 +7171,10 @@
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N55" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7159,10 +7210,10 @@
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7198,10 +7249,10 @@
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N57" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7237,10 +7288,10 @@
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N58" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7276,10 +7327,10 @@
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N59" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7296,7 +7347,7 @@
         <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>283</v>
@@ -7315,10 +7366,10 @@
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N60" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7326,7 +7377,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C61" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7356,10 +7407,10 @@
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7367,7 +7418,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C62" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7397,10 +7448,10 @@
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N62" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7408,7 +7459,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C63" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7438,10 +7489,10 @@
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N63" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7449,7 +7500,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C64" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7479,10 +7530,10 @@
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7490,7 +7541,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C65" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7520,10 +7571,10 @@
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N65" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7531,7 +7582,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C66" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7561,10 +7612,10 @@
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N66" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7572,7 +7623,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C67" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7602,10 +7653,10 @@
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N67" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7613,7 +7664,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C68" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7643,10 +7694,10 @@
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N68" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7654,7 +7705,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C69" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7684,10 +7735,10 @@
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N69" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7695,7 +7746,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C70" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7725,10 +7776,10 @@
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7736,7 +7787,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C71" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7766,10 +7817,10 @@
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N71" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7777,7 +7828,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C72" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7807,10 +7858,10 @@
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N72" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7818,7 +7869,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C73" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7848,10 +7899,10 @@
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N73" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7859,7 +7910,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C74" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7889,10 +7940,10 @@
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N74" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7900,7 +7951,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C75" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7930,10 +7981,10 @@
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7941,7 +7992,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C76" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -7971,10 +8022,10 @@
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N76" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7982,7 +8033,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C77" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8012,10 +8063,10 @@
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N77" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8023,7 +8074,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C78" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8053,10 +8104,10 @@
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N78" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8064,7 +8115,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C79" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8094,10 +8145,10 @@
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N79" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8105,7 +8156,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C80" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8135,10 +8186,10 @@
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8146,7 +8197,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C81" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8176,10 +8227,10 @@
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N81" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8187,7 +8238,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C82" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8217,10 +8268,10 @@
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N82" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8228,7 +8279,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C83" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8258,10 +8309,10 @@
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8269,7 +8320,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C84" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8299,10 +8350,10 @@
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N84" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8310,7 +8361,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C85" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8340,10 +8391,10 @@
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N85" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8351,7 +8402,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C86" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8381,10 +8432,10 @@
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8392,7 +8443,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C87" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8422,10 +8473,10 @@
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N87" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8433,7 +8484,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C88" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8463,10 +8514,10 @@
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N88" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8474,7 +8525,7 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C89" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8504,10 +8555,10 @@
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N89" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8515,7 +8566,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C90" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8545,10 +8596,10 @@
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N90" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8556,7 +8607,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C91" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8586,10 +8637,10 @@
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N91" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8597,7 +8648,7 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C92" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8627,10 +8678,10 @@
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N92" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8638,7 +8689,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C93" t="str">
         <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",Shopping___副本[[#This Row],[唯一标识]])</f>
@@ -8668,10 +8719,10 @@
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N93" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8679,17 +8730,17 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C94" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B94)</f>
+        <f t="shared" ref="C94:C103" si="0">_xlfn.TEXTJOIN(,,,"Shop/Props/",B94)</f>
         <v>Shop/Props/purpleGarlic</v>
       </c>
       <c r="D94" s="4">
         <v>25</v>
       </c>
       <c r="E94" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B94)</f>
+        <f t="shared" ref="E94:E99" si="1">_xlfn.TEXTJOIN(,,,"propInfo_",B94)</f>
         <v>propInfo_purpleGarlic</v>
       </c>
       <c r="F94" s="4">
@@ -8709,10 +8760,10 @@
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N94" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8720,17 +8771,17 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C95" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B95)</f>
+        <f t="shared" si="0"/>
         <v>Shop/Props/mint</v>
       </c>
       <c r="D95" s="4">
         <v>64</v>
       </c>
       <c r="E95" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B95)</f>
+        <f t="shared" si="1"/>
         <v>propInfo_mint</v>
       </c>
       <c r="F95" s="4">
@@ -8749,13 +8800,13 @@
         <v>6</v>
       </c>
       <c r="K95" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N95" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8763,17 +8814,17 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C96" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B96)</f>
+        <f t="shared" si="0"/>
         <v>Shop/Props/fireStar</v>
       </c>
       <c r="D96" s="4">
         <v>24</v>
       </c>
       <c r="E96" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B96)</f>
+        <f t="shared" si="1"/>
         <v>propInfo_fireStar</v>
       </c>
       <c r="F96" s="4">
@@ -8792,10 +8843,10 @@
         <v>1</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N96" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8803,17 +8854,17 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C97" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B97)</f>
+        <f t="shared" si="0"/>
         <v>Shop/Props/fireSeed</v>
       </c>
       <c r="D97" s="4">
         <v>66</v>
       </c>
       <c r="E97" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B97)</f>
+        <f t="shared" si="1"/>
         <v>propInfo_fireSeed</v>
       </c>
       <c r="F97" s="4">
@@ -8832,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N97" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8846,17 +8897,17 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C98" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B98)</f>
+        <f t="shared" si="0"/>
         <v>Shop/Props/fireBall</v>
       </c>
       <c r="D98" s="4">
         <v>144</v>
       </c>
       <c r="E98" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B98)</f>
+        <f t="shared" si="1"/>
         <v>propInfo_fireBall</v>
       </c>
       <c r="F98" s="4">
@@ -8875,13 +8926,13 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N98" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8889,17 +8940,17 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C99" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"Shop/Props/",B99)</f>
+        <f t="shared" si="0"/>
         <v>Shop/Props/fireElf</v>
       </c>
       <c r="D99" s="4">
         <v>299</v>
       </c>
       <c r="E99" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"propInfo_",B99)</f>
+        <f t="shared" si="1"/>
         <v>propInfo_fireElf</v>
       </c>
       <c r="F99" s="4">
@@ -8918,13 +8969,222 @@
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N99" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
         <v>704</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="0"/>
+        <v>Shop/Props/waterDroplet</v>
+      </c>
+      <c r="D100" s="4">
+        <v>22</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" ref="E100:E103" si="2">_xlfn.TEXTJOIN(,,,"propInfo_",B100)</f>
+        <v>propInfo_waterDroplet</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="4">
+        <v>8</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4">
+        <v>8</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="N100" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>705</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="0"/>
+        <v>Shop/Props/waterBead</v>
+      </c>
+      <c r="D101" s="4">
+        <v>64</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
+        <v>propInfo_waterBead</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2</v>
+      </c>
+      <c r="G101" s="4">
+        <v>8</v>
+      </c>
+      <c r="H101" s="4">
+        <v>3</v>
+      </c>
+      <c r="I101" s="4">
+        <v>6</v>
+      </c>
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>704</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="N101" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>706</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="0"/>
+        <v>Shop/Props/waterSplash</v>
+      </c>
+      <c r="D102" s="4">
+        <v>124</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="2"/>
+        <v>propInfo_waterSplash</v>
+      </c>
+      <c r="F102" s="4">
+        <v>3</v>
+      </c>
+      <c r="G102" s="4">
+        <v>8</v>
+      </c>
+      <c r="H102" s="4">
+        <v>5</v>
+      </c>
+      <c r="I102" s="4">
+        <v>4</v>
+      </c>
+      <c r="J102" s="4">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>705</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="N102" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>707</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="0"/>
+        <v>Shop/Props/waterElf</v>
+      </c>
+      <c r="D103" s="4">
+        <v>284</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="2"/>
+        <v>propInfo_waterElf</v>
+      </c>
+      <c r="F103" s="4">
+        <v>4</v>
+      </c>
+      <c r="G103" s="4">
+        <v>8</v>
+      </c>
+      <c r="H103" s="4">
+        <v>10</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>706</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="N103" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>717</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" ref="C104" si="3">_xlfn.TEXTJOIN(,,,"Shop/Props/",B104)</f>
+        <v>Shop/Props/darkCloud</v>
+      </c>
+      <c r="D104" s="4">
+        <v>284</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" ref="E104" si="4">_xlfn.TEXTJOIN(,,,"propInfo_",B104)</f>
+        <v>propInfo_darkCloud</v>
+      </c>
+      <c r="F104" s="4">
+        <v>3</v>
+      </c>
+      <c r="G104" s="4">
+        <v>9</v>
+      </c>
+      <c r="H104" s="4">
+        <v>5</v>
+      </c>
+      <c r="I104" s="4">
+        <v>6</v>
+      </c>
+      <c r="J104" s="4">
+        <v>2</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="N104" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8A9AC-B99C-48E4-AEC6-6D5F51B5E7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C2C77-534E-4686-8A8F-E74B2E49E820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="729">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -2364,6 +2364,35 @@
   </si>
   <si>
     <t>&lt;color=#9932CD&gt;乌云&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+25肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+100阳光&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-2幸运&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1护甲&lt;/color&gt;\r\n正在下雨的乌云，随时会降下闪电\r\n&lt;color=#00ff00&gt;召唤乌云，在周围游走，造成{0}范围伤害 （5 + 肾上腺素 / 5）* 暴击伤害 ，冷却时间6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vampireScepter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼权杖\r\n蕴含着巨大黑暗魔法的权杖\r\n&lt;color=#00ff00&gt;需要生命能量激活魔法，扣除50%最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;每击杀6只僵尸增加1点最大生命值&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alloyHelmet</t>
+  </si>
+  <si>
+    <t>alloyEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Armor","increment":"4"},{"attributeTypeString":"MaximumHP","increment":"10"},{"attributeTypeString":"Range","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Range","increment":"10"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Speed","increment":"-5"}]</t>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;钛合金头盔&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4护甲&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10最大生命值&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5范围&lt;/color&gt;\r\n非常坚硬的头盔，使我不惧头顶伤害\r\n&lt;color=#00ff00&gt;坚硬的头盔不惧投篮僵尸的篮球，但是会被篮球造成伤害了&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;钛合金眼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n使我的眼神更加犀利，不惧天上的僵尸\r\n&lt;color=#00ff00&gt;能够正常攻击到气球僵尸了&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5008,13 +5037,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
+      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9159,7 +9188,7 @@
         <v>Shop/Props/darkCloud</v>
       </c>
       <c r="D104" s="4">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" ref="E104" si="4">_xlfn.TEXTJOIN(,,,"propInfo_",B104)</f>
@@ -9178,13 +9207,131 @@
         <v>6</v>
       </c>
       <c r="J104" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>719</v>
       </c>
       <c r="N104" t="s">
         <v>720</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>721</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" ref="C105" si="5">_xlfn.TEXTJOIN(,,,"Shop/Props/",B105)</f>
+        <v>Shop/Props/vampireScepter</v>
+      </c>
+      <c r="D105" s="4">
+        <v>34</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" ref="E105" si="6">_xlfn.TEXTJOIN(,,,"propInfo_",B105)</f>
+        <v>propInfo_vampireScepter</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>1</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="4">
+        <v>10</v>
+      </c>
+      <c r="L105" s="2"/>
+      <c r="N105" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>723</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" ref="C106" si="7">_xlfn.TEXTJOIN(,,,"Shop/Props/",B106)</f>
+        <v>Shop/Props/alloyHelmet</v>
+      </c>
+      <c r="D106" s="4">
+        <v>99</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" ref="E106" si="8">_xlfn.TEXTJOIN(,,,"propInfo_",B106)</f>
+        <v>propInfo_alloyHelmet</v>
+      </c>
+      <c r="F106" s="4">
+        <v>2</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="N106" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>724</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" ref="C107" si="9">_xlfn.TEXTJOIN(,,,"Shop/Props/",B107)</f>
+        <v>Shop/Props/alloyEye</v>
+      </c>
+      <c r="D107" s="4">
+        <v>88</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" ref="E107" si="10">_xlfn.TEXTJOIN(,,,"propInfo_",B107)</f>
+        <v>propInfo_alloyEye</v>
+      </c>
+      <c r="F107" s="4">
+        <v>2</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>726</v>
+      </c>
+      <c r="N107" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C2C77-534E-4686-8A8F-E74B2E49E820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8AD1E-CB49-4106-B385-9D3F209E48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="732">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -2393,6 +2384,17 @@
   </si>
   <si>
     <t>&lt;color=#0000ff&gt;钛合金眼&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-5速度&lt;/color&gt;\r\n使我的眼神更加犀利，不惧天上的僵尸\r\n&lt;color=#00ff00&gt;能够正常攻击到气球僵尸了&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"Adrenaline","increment":"10"},{"attributeTypeString":"CriticalDamage","increment":"5"},{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"PercentageDamage","increment":"5"},{"attributeTypeString":"MaximumHP","increment":"-20"}]</t>
+  </si>
+  <si>
+    <t>deathGod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;死神&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20最大生命值&lt;/color&gt;\r\n献祭生命来召唤死神！！\r\n&lt;color=#00ff00&gt;当前生命值大于 50% 自动释放，消耗当前血量30%， 造成范围伤害 （消耗的血量 * 10） \r\n被该伤害击杀的僵尸灵魂将被收割，每个灵魂增加1最大生命值\r\n每攻击到1个目标恢复（消耗的血量 / 6）血量&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5037,13 +5039,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9302,14 +9304,14 @@
         <v>724</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" ref="C107" si="9">_xlfn.TEXTJOIN(,,,"Shop/Props/",B107)</f>
+        <f t="shared" ref="C107:C108" si="9">_xlfn.TEXTJOIN(,,,"Shop/Props/",B107)</f>
         <v>Shop/Props/alloyEye</v>
       </c>
       <c r="D107" s="4">
         <v>88</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" ref="E107" si="10">_xlfn.TEXTJOIN(,,,"propInfo_",B107)</f>
+        <f t="shared" ref="E107:E108" si="10">_xlfn.TEXTJOIN(,,,"propInfo_",B107)</f>
         <v>propInfo_alloyEye</v>
       </c>
       <c r="F107" s="4">
@@ -9332,6 +9334,46 @@
       </c>
       <c r="N107" t="s">
         <v>728</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>730</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="9"/>
+        <v>Shop/Props/deathGod</v>
+      </c>
+      <c r="D108" s="4">
+        <v>66</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="10"/>
+        <v>propInfo_deathGod</v>
+      </c>
+      <c r="F108" s="4">
+        <v>2</v>
+      </c>
+      <c r="G108" s="4">
+        <v>10</v>
+      </c>
+      <c r="H108" s="4">
+        <v>10</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>729</v>
+      </c>
+      <c r="N108" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8AD1E-CB49-4106-B385-9D3F209E48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95B96D8-4310-4D6A-9513-2E9C6D7AA012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="741">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -2395,6 +2395,37 @@
   </si>
   <si>
     <t>&lt;color=#0000ff&gt;死神&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+5伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-20最大生命值&lt;/color&gt;\r\n献祭生命来召唤死神！！\r\n&lt;color=#00ff00&gt;当前生命值大于 50% 自动释放，消耗当前血量30%， 造成范围伤害 （消耗的血量 * 10） \r\n被该伤害击杀的僵尸灵魂将被收割，每个灵魂增加1最大生命值\r\n每攻击到1个目标恢复（消耗的血量 / 6）血量&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pistol</t>
+  </si>
+  <si>
+    <t>ak69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatling</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalDamage","increment":"4"},{"attributeTypeString":"Range","increment":"4"},{"attributeTypeString":"AttackSpeed","increment":"-4"},{"attributeTypeString":"PercentageDamage","increment":"-4"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"CriticalHitRate","increment":"2"},{"attributeTypeString":"AttackSpeed","increment":"4"},{"attributeTypeString":"Range","increment":"4"},{"attributeTypeString":"PercentageDamage","increment":"4"},{"attributeTypeString":"Lucky","increment":"-1"}]</t>
+  </si>
+  <si>
+    <t>[{"attributeTypeString":"AttackSpeed","increment":"10"},{"attributeTypeString":"Power","increment":"2"},{"attributeTypeString":"Adrenaline","increment":"4"},{"attributeTypeString":"Armor","increment":"2"},{"attributeTypeString":"Speed","increment":"-4"}]</t>
+  </si>
+  <si>
+    <t>手枪\r\n&lt;color=#00ff00&gt;+4暴击伤害&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4范围&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4攻击速度&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4伤害&lt;/color&gt;\r\n一把小手枪，可以发射子弹\r\n&lt;color=#ff0000&gt;召唤手枪发射子弹造成（1 + 力量 / 2） * 伤害 冷却5s&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#0000ff&gt;ak69&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2暴击率&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4范围&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4伤害&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-1幸运&lt;/color&gt;\r\n一把ak69步枪，突突突！\r\n&lt;color=#00ff00&gt;将一个手枪变为ak69,连续发射3颗子弹造成（3 + 力量） * 伤害，冷却 4s&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9932CD&gt;加特林&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4速度&lt;/color&gt;\r\n冒蓝火的加特林，连续发射子弹！\r\n&lt;color=#00ff00&gt;将一个ak69变为加特林,连续发射5颗子弹造成（5 + 力量） * 伤害 冷却3s&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5039,13 +5070,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEF8C1-1200-4A26-8EB1-760FAE028000}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L108" sqref="L108"/>
+      <selection pane="bottomRight" activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9376,6 +9407,132 @@
         <v>731</v>
       </c>
     </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>732</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" ref="C109:C111" si="11">_xlfn.TEXTJOIN(,,,"Shop/Props/",B109)</f>
+        <v>Shop/Props/pistol</v>
+      </c>
+      <c r="D109" s="4">
+        <v>24</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" ref="E109:E111" si="12">_xlfn.TEXTJOIN(,,,"propInfo_",B109)</f>
+        <v>propInfo_pistol</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4">
+        <v>11</v>
+      </c>
+      <c r="H109" s="4">
+        <v>1</v>
+      </c>
+      <c r="I109" s="4">
+        <v>5</v>
+      </c>
+      <c r="J109" s="4">
+        <v>2</v>
+      </c>
+      <c r="L109" t="s">
+        <v>735</v>
+      </c>
+      <c r="N109" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>733</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="11"/>
+        <v>Shop/Props/ak69</v>
+      </c>
+      <c r="D110" s="4">
+        <v>69</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="12"/>
+        <v>propInfo_ak69</v>
+      </c>
+      <c r="F110" s="4">
+        <v>2</v>
+      </c>
+      <c r="G110" s="4">
+        <v>11</v>
+      </c>
+      <c r="H110" s="4">
+        <v>3</v>
+      </c>
+      <c r="I110" s="4">
+        <v>4</v>
+      </c>
+      <c r="J110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" t="s">
+        <v>733</v>
+      </c>
+      <c r="L110" t="s">
+        <v>736</v>
+      </c>
+      <c r="N110" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>734</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="11"/>
+        <v>Shop/Props/gatling</v>
+      </c>
+      <c r="D111" s="4">
+        <v>124</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="12"/>
+        <v>propInfo_gatling</v>
+      </c>
+      <c r="F111" s="4">
+        <v>3</v>
+      </c>
+      <c r="G111" s="4">
+        <v>11</v>
+      </c>
+      <c r="H111" s="4">
+        <v>5</v>
+      </c>
+      <c r="I111" s="4">
+        <v>3</v>
+      </c>
+      <c r="J111" s="4">
+        <v>2</v>
+      </c>
+      <c r="K111" t="s">
+        <v>734</v>
+      </c>
+      <c r="L111" t="s">
+        <v>737</v>
+      </c>
+      <c r="N111" t="s">
+        <v>740</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95B96D8-4310-4D6A-9513-2E9C6D7AA012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDB8A63-A04F-48C4-BF19-F553B311F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="38400" windowHeight="10470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="742">
   <si>
     <t>Shop/Plants/normalBg</t>
   </si>
@@ -2426,6 +2435,10 @@
   </si>
   <si>
     <t>&lt;color=#9932CD&gt;加特林&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+10攻击速度&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2力量&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+4肾上腺素&lt;/color&gt;\r\n&lt;color=#00ff00&gt;+2护甲&lt;/color&gt;\r\n&lt;color=#ff0000&gt;-4速度&lt;/color&gt;\r\n冒蓝火的加特林，连续发射子弹！\r\n&lt;color=#00ff00&gt;将一个ak69变为加特林,连续发射5颗子弹造成（5 + 力量） * 伤害 冷却3s&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5073,10 +5086,10 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N111" sqref="N111"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5199,7 +5212,7 @@
         <v>80</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>80</v>
+        <v>741</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>80</v>
@@ -9395,7 +9408,7 @@
         <v>10</v>
       </c>
       <c r="I108" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J108" s="4">
         <v>1</v>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDB8A63-A04F-48C4-BF19-F553B311F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10A9EE-090C-4896-99FD-E2891EADA7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="38400" windowHeight="10470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlantCards" sheetId="2" r:id="rId1"/>
@@ -5086,10 +5086,10 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9250,7 +9250,7 @@
         <v>5</v>
       </c>
       <c r="I104" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J104" s="4">
         <v>4</v>
@@ -9448,10 +9448,10 @@
         <v>1</v>
       </c>
       <c r="I109" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J109" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L109" t="s">
         <v>735</v>
@@ -9488,10 +9488,10 @@
         <v>3</v>
       </c>
       <c r="I110" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J110" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K110" t="s">
         <v>733</v>
@@ -9531,7 +9531,7 @@
         <v>5</v>
       </c>
       <c r="I111" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" s="4">
         <v>2</v>

--- a/ExcelToCs/配置/商店配置表.xlsx
+++ b/ExcelToCs/配置/商店配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10A9EE-090C-4896-99FD-E2891EADA7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB897C2-E1D1-4656-AA9D-1D58E9D761C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5086,10 +5077,10 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J109" sqref="J109"/>
+      <selection pane="bottomRight" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8912,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J96" s="4">
         <v>1</v>
@@ -8952,7 +8943,7 @@
         <v>3</v>
       </c>
       <c r="I97" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J97" s="4">
         <v>1</v>
@@ -8995,7 +8986,7 @@
         <v>5</v>
       </c>
       <c r="I98" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" s="4">
         <v>1</v>
@@ -9038,7 +9029,7 @@
         <v>10</v>
       </c>
       <c r="I99" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J99" s="4">
         <v>1</v>
@@ -9081,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J100" s="4">
         <v>1</v>
@@ -9121,7 +9112,7 @@
         <v>3</v>
       </c>
       <c r="I101" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J101" s="4">
         <v>1</v>
@@ -9164,7 +9155,7 @@
         <v>5</v>
       </c>
       <c r="I102" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J102" s="4">
         <v>1</v>
@@ -9207,7 +9198,7 @@
         <v>10</v>
       </c>
       <c r="I103" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
